--- a/data/132/DOUANES/Merchandise Trade SA_historical.xlsx
+++ b/data/132/DOUANES/Merchandise Trade SA_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merchandise Trade SA" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,1202 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
-  <si>
-    <t>1990-01</t>
-  </si>
-  <si>
-    <t>1990-02</t>
-  </si>
-  <si>
-    <t>1990-03</t>
-  </si>
-  <si>
-    <t>1990-04</t>
-  </si>
-  <si>
-    <t>1990-05</t>
-  </si>
-  <si>
-    <t>1990-06</t>
-  </si>
-  <si>
-    <t>1990-07</t>
-  </si>
-  <si>
-    <t>1990-08</t>
-  </si>
-  <si>
-    <t>1990-09</t>
-  </si>
-  <si>
-    <t>1990-10</t>
-  </si>
-  <si>
-    <t>1990-11</t>
-  </si>
-  <si>
-    <t>1990-12</t>
-  </si>
-  <si>
-    <t>1991-01</t>
-  </si>
-  <si>
-    <t>1991-02</t>
-  </si>
-  <si>
-    <t>1991-03</t>
-  </si>
-  <si>
-    <t>1991-04</t>
-  </si>
-  <si>
-    <t>1991-05</t>
-  </si>
-  <si>
-    <t>1991-06</t>
-  </si>
-  <si>
-    <t>1991-07</t>
-  </si>
-  <si>
-    <t>1991-08</t>
-  </si>
-  <si>
-    <t>1991-09</t>
-  </si>
-  <si>
-    <t>1991-10</t>
-  </si>
-  <si>
-    <t>1991-11</t>
-  </si>
-  <si>
-    <t>1991-12</t>
-  </si>
-  <si>
-    <t>1992-01</t>
-  </si>
-  <si>
-    <t>1992-02</t>
-  </si>
-  <si>
-    <t>1992-03</t>
-  </si>
-  <si>
-    <t>1992-04</t>
-  </si>
-  <si>
-    <t>1992-05</t>
-  </si>
-  <si>
-    <t>1992-06</t>
-  </si>
-  <si>
-    <t>1992-07</t>
-  </si>
-  <si>
-    <t>1992-08</t>
-  </si>
-  <si>
-    <t>1992-09</t>
-  </si>
-  <si>
-    <t>1992-10</t>
-  </si>
-  <si>
-    <t>1992-11</t>
-  </si>
-  <si>
-    <t>1992-12</t>
-  </si>
-  <si>
-    <t>1993-01</t>
-  </si>
-  <si>
-    <t>1993-02</t>
-  </si>
-  <si>
-    <t>1993-03</t>
-  </si>
-  <si>
-    <t>1993-04</t>
-  </si>
-  <si>
-    <t>1993-05</t>
-  </si>
-  <si>
-    <t>1993-06</t>
-  </si>
-  <si>
-    <t>1993-07</t>
-  </si>
-  <si>
-    <t>1993-08</t>
-  </si>
-  <si>
-    <t>1993-09</t>
-  </si>
-  <si>
-    <t>1993-10</t>
-  </si>
-  <si>
-    <t>1993-11</t>
-  </si>
-  <si>
-    <t>1993-12</t>
-  </si>
-  <si>
-    <t>1994-01</t>
-  </si>
-  <si>
-    <t>1994-02</t>
-  </si>
-  <si>
-    <t>1994-03</t>
-  </si>
-  <si>
-    <t>1994-04</t>
-  </si>
-  <si>
-    <t>1994-05</t>
-  </si>
-  <si>
-    <t>1994-06</t>
-  </si>
-  <si>
-    <t>1994-07</t>
-  </si>
-  <si>
-    <t>1994-08</t>
-  </si>
-  <si>
-    <t>1994-09</t>
-  </si>
-  <si>
-    <t>1994-10</t>
-  </si>
-  <si>
-    <t>1994-11</t>
-  </si>
-  <si>
-    <t>1994-12</t>
-  </si>
-  <si>
-    <t>1995-01</t>
-  </si>
-  <si>
-    <t>1995-02</t>
-  </si>
-  <si>
-    <t>1995-03</t>
-  </si>
-  <si>
-    <t>1995-04</t>
-  </si>
-  <si>
-    <t>1995-05</t>
-  </si>
-  <si>
-    <t>1995-06</t>
-  </si>
-  <si>
-    <t>1995-07</t>
-  </si>
-  <si>
-    <t>1995-08</t>
-  </si>
-  <si>
-    <t>1995-09</t>
-  </si>
-  <si>
-    <t>1995-10</t>
-  </si>
-  <si>
-    <t>1995-11</t>
-  </si>
-  <si>
-    <t>1995-12</t>
-  </si>
-  <si>
-    <t>1996-01</t>
-  </si>
-  <si>
-    <t>1996-02</t>
-  </si>
-  <si>
-    <t>1996-03</t>
-  </si>
-  <si>
-    <t>1996-04</t>
-  </si>
-  <si>
-    <t>1996-05</t>
-  </si>
-  <si>
-    <t>1996-06</t>
-  </si>
-  <si>
-    <t>1996-07</t>
-  </si>
-  <si>
-    <t>1996-08</t>
-  </si>
-  <si>
-    <t>1996-09</t>
-  </si>
-  <si>
-    <t>1996-10</t>
-  </si>
-  <si>
-    <t>1996-11</t>
-  </si>
-  <si>
-    <t>1996-12</t>
-  </si>
-  <si>
-    <t>1997-01</t>
-  </si>
-  <si>
-    <t>1997-02</t>
-  </si>
-  <si>
-    <t>1997-03</t>
-  </si>
-  <si>
-    <t>1997-04</t>
-  </si>
-  <si>
-    <t>1997-05</t>
-  </si>
-  <si>
-    <t>1997-06</t>
-  </si>
-  <si>
-    <t>1997-07</t>
-  </si>
-  <si>
-    <t>1997-08</t>
-  </si>
-  <si>
-    <t>1997-09</t>
-  </si>
-  <si>
-    <t>1997-10</t>
-  </si>
-  <si>
-    <t>1997-11</t>
-  </si>
-  <si>
-    <t>1997-12</t>
-  </si>
-  <si>
-    <t>1998-01</t>
-  </si>
-  <si>
-    <t>1998-02</t>
-  </si>
-  <si>
-    <t>1998-03</t>
-  </si>
-  <si>
-    <t>1998-04</t>
-  </si>
-  <si>
-    <t>1998-05</t>
-  </si>
-  <si>
-    <t>1998-06</t>
-  </si>
-  <si>
-    <t>1998-07</t>
-  </si>
-  <si>
-    <t>1998-08</t>
-  </si>
-  <si>
-    <t>1998-09</t>
-  </si>
-  <si>
-    <t>1998-10</t>
-  </si>
-  <si>
-    <t>1998-11</t>
-  </si>
-  <si>
-    <t>1998-12</t>
-  </si>
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>Echanges FAB/FAB yc matériel militaire et données sous le seuil//Export</t>
-  </si>
-  <si>
-    <t>Echanges FAB/FAB yc matériel militaire et données sous le seuil//Import</t>
-  </si>
-  <si>
-    <t>Echanges FAB/FAB yc matériel militaire et données sous le seuil//Solde</t>
-  </si>
-  <si>
-    <t>AZ - Produits agricoles, sylvicoles, de la pêche et de l’aquaculture//Export</t>
-  </si>
-  <si>
-    <t>AZ - Produits agricoles, sylvicoles, de la pêche et de l’aquaculture//Import</t>
-  </si>
-  <si>
-    <t>DE - Hydrocarbures naturels, autres produits des industries extractives, électricité, déchets//Export</t>
-  </si>
-  <si>
-    <t>DE - Hydrocarbures naturels, autres produits des industries extractives, électricité, déchets//Import</t>
-  </si>
-  <si>
-    <t>C1 - Produits des industries agroalimentaires (IAA)//Export</t>
-  </si>
-  <si>
-    <t>C1 - Produits des industries agroalimentaires (IAA)//Import</t>
-  </si>
-  <si>
-    <t>C2 - Produits pétroliers raffinés et coke//Export</t>
-  </si>
-  <si>
-    <t>C2 - Produits pétroliers raffinés et coke//Import</t>
-  </si>
-  <si>
-    <t>C3 - Équipements mécaniques, matériel électrique, électronique et informatique//Export</t>
-  </si>
-  <si>
-    <t>C3 - Équipements mécaniques, matériel électrique, électronique et informatique//Import</t>
-  </si>
-  <si>
-    <t>C4 - Matériels de transport//Export</t>
-  </si>
-  <si>
-    <t>C4 - Matériels de transport//Import</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1562,1157 +366,1923 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:383">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="KN1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="KO1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="KP1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="KQ1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="KR1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="KS1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="KT1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="KZ1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="LC1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="LD1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="LE1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="LF1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="LG1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="LH1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="LI1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="LK1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="LL1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="LM1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="LN1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="LO1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="LP1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="LQ1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="LS1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="LT1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="LU1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="LV1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="LW1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="LX1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="LY1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="LZ1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="MA1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="MB1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="MC1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="MD1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="ME1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="MF1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="MG1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="MH1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="MI1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MJ1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="MK1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="ML1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="MM1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="MN1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="MO1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="MP1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="MQ1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="MR1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="MS1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="MT1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="MU1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="MV1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="MW1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="MX1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="MY1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="MZ1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="NA1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="NB1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="NC1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="ND1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="NE1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="NF1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="NG1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="NH1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="NI1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="NJ1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="NK1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="NL1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="NM1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="NN1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="NO1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="NP1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="NQ1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="NR1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="NS1" s="1" t="s">
-        <v>381</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1990-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1990-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1990-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1990-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1990-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1990-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1990-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1990-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1990-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1990-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1990-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1990-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1991-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1991-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1991-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1991-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1991-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1991-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1991-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1991-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1991-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1991-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1991-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1991-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1992-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1992-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1992-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1992-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1992-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1992-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1992-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1992-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1992-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1992-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1992-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1992-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1993-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1993-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1993-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1993-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1993-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1993-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1993-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1993-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1993-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1993-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1993-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1994-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1994-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1994-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1994-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1994-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1994-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1994-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1994-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1994-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1994-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1994-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1994-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1995-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1995-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1995-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1995-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1995-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1995-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1995-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1995-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1995-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1995-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1996-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1996-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1996-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1996-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1996-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1996-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1996-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1996-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1996-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1996-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1997-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1997-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1997-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1997-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1997-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1997-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1997-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1997-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1997-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1997-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1998-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1998-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1998-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1998-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>1998-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>1998-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>1998-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>1998-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>1998-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>1998-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>1998-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:383">
-      <c r="A2" s="1" t="s">
-        <v>382</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Echanges FAB/FAB yc matériel militaire et données sous le seuil//Export</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>15331.16322405</v>
@@ -3861,9 +3431,11 @@
         <v>43102.810285</v>
       </c>
     </row>
-    <row r="3" spans="1:383">
-      <c r="A3" s="1" t="s">
-        <v>383</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Echanges FAB/FAB yc matériel militaire et données sous le seuil//Import</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>15875.52948245</v>
@@ -5012,9 +4584,11 @@
         <v>50616.192806</v>
       </c>
     </row>
-    <row r="4" spans="1:383">
-      <c r="A4" s="1" t="s">
-        <v>384</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Echanges FAB/FAB yc matériel militaire et données sous le seuil//Solde</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>-544.366258401</v>
@@ -6163,130 +5737,132 @@
         <v>-7513.382521</v>
       </c>
     </row>
-    <row r="5" spans="1:383">
-      <c r="A5" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s"/>
-      <c r="AB5" t="s"/>
-      <c r="AC5" t="s"/>
-      <c r="AD5" t="s"/>
-      <c r="AE5" t="s"/>
-      <c r="AF5" t="s"/>
-      <c r="AG5" t="s"/>
-      <c r="AH5" t="s"/>
-      <c r="AI5" t="s"/>
-      <c r="AJ5" t="s"/>
-      <c r="AK5" t="s"/>
-      <c r="AL5" t="s"/>
-      <c r="AM5" t="s"/>
-      <c r="AN5" t="s"/>
-      <c r="AO5" t="s"/>
-      <c r="AP5" t="s"/>
-      <c r="AQ5" t="s"/>
-      <c r="AR5" t="s"/>
-      <c r="AS5" t="s"/>
-      <c r="AT5" t="s"/>
-      <c r="AU5" t="s"/>
-      <c r="AV5" t="s"/>
-      <c r="AW5" t="s"/>
-      <c r="AX5" t="s"/>
-      <c r="AY5" t="s"/>
-      <c r="AZ5" t="s"/>
-      <c r="BA5" t="s"/>
-      <c r="BB5" t="s"/>
-      <c r="BC5" t="s"/>
-      <c r="BD5" t="s"/>
-      <c r="BE5" t="s"/>
-      <c r="BF5" t="s"/>
-      <c r="BG5" t="s"/>
-      <c r="BH5" t="s"/>
-      <c r="BI5" t="s"/>
-      <c r="BJ5" t="s"/>
-      <c r="BK5" t="s"/>
-      <c r="BL5" t="s"/>
-      <c r="BM5" t="s"/>
-      <c r="BN5" t="s"/>
-      <c r="BO5" t="s"/>
-      <c r="BP5" t="s"/>
-      <c r="BQ5" t="s"/>
-      <c r="BR5" t="s"/>
-      <c r="BS5" t="s"/>
-      <c r="BT5" t="s"/>
-      <c r="BU5" t="s"/>
-      <c r="BV5" t="s"/>
-      <c r="BW5" t="s"/>
-      <c r="BX5" t="s"/>
-      <c r="BY5" t="s"/>
-      <c r="BZ5" t="s"/>
-      <c r="CA5" t="s"/>
-      <c r="CB5" t="s"/>
-      <c r="CC5" t="s"/>
-      <c r="CD5" t="s"/>
-      <c r="CE5" t="s"/>
-      <c r="CF5" t="s"/>
-      <c r="CG5" t="s"/>
-      <c r="CH5" t="s"/>
-      <c r="CI5" t="s"/>
-      <c r="CJ5" t="s"/>
-      <c r="CK5" t="s"/>
-      <c r="CL5" t="s"/>
-      <c r="CM5" t="s"/>
-      <c r="CN5" t="s"/>
-      <c r="CO5" t="s"/>
-      <c r="CP5" t="s"/>
-      <c r="CQ5" t="s"/>
-      <c r="CR5" t="s"/>
-      <c r="CS5" t="s"/>
-      <c r="CT5" t="s"/>
-      <c r="CU5" t="s"/>
-      <c r="CV5" t="s"/>
-      <c r="CW5" t="s"/>
-      <c r="CX5" t="s"/>
-      <c r="CY5" t="s"/>
-      <c r="CZ5" t="s"/>
-      <c r="DA5" t="s"/>
-      <c r="DB5" t="s"/>
-      <c r="DC5" t="s"/>
-      <c r="DD5" t="s"/>
-      <c r="DE5" t="s"/>
-      <c r="DF5" t="s"/>
-      <c r="DG5" t="s"/>
-      <c r="DH5" t="s"/>
-      <c r="DI5" t="s"/>
-      <c r="DJ5" t="s"/>
-      <c r="DK5" t="s"/>
-      <c r="DL5" t="s"/>
-      <c r="DM5" t="s"/>
-      <c r="DN5" t="s"/>
-      <c r="DO5" t="s"/>
-      <c r="DP5" t="s"/>
-      <c r="DQ5" t="s"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AZ - Produits agricoles, sylvicoles, de la pêche et de l’aquaculture//Export</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr"/>
       <c r="DR5" t="n">
         <v>852</v>
       </c>
@@ -7074,130 +6650,132 @@
         <v>1550.891041</v>
       </c>
     </row>
-    <row r="6" spans="1:383">
-      <c r="A6" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="s"/>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
-      <c r="AM6" t="s"/>
-      <c r="AN6" t="s"/>
-      <c r="AO6" t="s"/>
-      <c r="AP6" t="s"/>
-      <c r="AQ6" t="s"/>
-      <c r="AR6" t="s"/>
-      <c r="AS6" t="s"/>
-      <c r="AT6" t="s"/>
-      <c r="AU6" t="s"/>
-      <c r="AV6" t="s"/>
-      <c r="AW6" t="s"/>
-      <c r="AX6" t="s"/>
-      <c r="AY6" t="s"/>
-      <c r="AZ6" t="s"/>
-      <c r="BA6" t="s"/>
-      <c r="BB6" t="s"/>
-      <c r="BC6" t="s"/>
-      <c r="BD6" t="s"/>
-      <c r="BE6" t="s"/>
-      <c r="BF6" t="s"/>
-      <c r="BG6" t="s"/>
-      <c r="BH6" t="s"/>
-      <c r="BI6" t="s"/>
-      <c r="BJ6" t="s"/>
-      <c r="BK6" t="s"/>
-      <c r="BL6" t="s"/>
-      <c r="BM6" t="s"/>
-      <c r="BN6" t="s"/>
-      <c r="BO6" t="s"/>
-      <c r="BP6" t="s"/>
-      <c r="BQ6" t="s"/>
-      <c r="BR6" t="s"/>
-      <c r="BS6" t="s"/>
-      <c r="BT6" t="s"/>
-      <c r="BU6" t="s"/>
-      <c r="BV6" t="s"/>
-      <c r="BW6" t="s"/>
-      <c r="BX6" t="s"/>
-      <c r="BY6" t="s"/>
-      <c r="BZ6" t="s"/>
-      <c r="CA6" t="s"/>
-      <c r="CB6" t="s"/>
-      <c r="CC6" t="s"/>
-      <c r="CD6" t="s"/>
-      <c r="CE6" t="s"/>
-      <c r="CF6" t="s"/>
-      <c r="CG6" t="s"/>
-      <c r="CH6" t="s"/>
-      <c r="CI6" t="s"/>
-      <c r="CJ6" t="s"/>
-      <c r="CK6" t="s"/>
-      <c r="CL6" t="s"/>
-      <c r="CM6" t="s"/>
-      <c r="CN6" t="s"/>
-      <c r="CO6" t="s"/>
-      <c r="CP6" t="s"/>
-      <c r="CQ6" t="s"/>
-      <c r="CR6" t="s"/>
-      <c r="CS6" t="s"/>
-      <c r="CT6" t="s"/>
-      <c r="CU6" t="s"/>
-      <c r="CV6" t="s"/>
-      <c r="CW6" t="s"/>
-      <c r="CX6" t="s"/>
-      <c r="CY6" t="s"/>
-      <c r="CZ6" t="s"/>
-      <c r="DA6" t="s"/>
-      <c r="DB6" t="s"/>
-      <c r="DC6" t="s"/>
-      <c r="DD6" t="s"/>
-      <c r="DE6" t="s"/>
-      <c r="DF6" t="s"/>
-      <c r="DG6" t="s"/>
-      <c r="DH6" t="s"/>
-      <c r="DI6" t="s"/>
-      <c r="DJ6" t="s"/>
-      <c r="DK6" t="s"/>
-      <c r="DL6" t="s"/>
-      <c r="DM6" t="s"/>
-      <c r="DN6" t="s"/>
-      <c r="DO6" t="s"/>
-      <c r="DP6" t="s"/>
-      <c r="DQ6" t="s"/>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AZ - Produits agricoles, sylvicoles, de la pêche et de l’aquaculture//Import</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
       <c r="DR6" t="n">
         <v>664</v>
       </c>
@@ -7985,130 +7563,132 @@
         <v>1289.367948</v>
       </c>
     </row>
-    <row r="7" spans="1:383">
-      <c r="A7" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
-      <c r="AF7" t="s"/>
-      <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
-      <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
-      <c r="AQ7" t="s"/>
-      <c r="AR7" t="s"/>
-      <c r="AS7" t="s"/>
-      <c r="AT7" t="s"/>
-      <c r="AU7" t="s"/>
-      <c r="AV7" t="s"/>
-      <c r="AW7" t="s"/>
-      <c r="AX7" t="s"/>
-      <c r="AY7" t="s"/>
-      <c r="AZ7" t="s"/>
-      <c r="BA7" t="s"/>
-      <c r="BB7" t="s"/>
-      <c r="BC7" t="s"/>
-      <c r="BD7" t="s"/>
-      <c r="BE7" t="s"/>
-      <c r="BF7" t="s"/>
-      <c r="BG7" t="s"/>
-      <c r="BH7" t="s"/>
-      <c r="BI7" t="s"/>
-      <c r="BJ7" t="s"/>
-      <c r="BK7" t="s"/>
-      <c r="BL7" t="s"/>
-      <c r="BM7" t="s"/>
-      <c r="BN7" t="s"/>
-      <c r="BO7" t="s"/>
-      <c r="BP7" t="s"/>
-      <c r="BQ7" t="s"/>
-      <c r="BR7" t="s"/>
-      <c r="BS7" t="s"/>
-      <c r="BT7" t="s"/>
-      <c r="BU7" t="s"/>
-      <c r="BV7" t="s"/>
-      <c r="BW7" t="s"/>
-      <c r="BX7" t="s"/>
-      <c r="BY7" t="s"/>
-      <c r="BZ7" t="s"/>
-      <c r="CA7" t="s"/>
-      <c r="CB7" t="s"/>
-      <c r="CC7" t="s"/>
-      <c r="CD7" t="s"/>
-      <c r="CE7" t="s"/>
-      <c r="CF7" t="s"/>
-      <c r="CG7" t="s"/>
-      <c r="CH7" t="s"/>
-      <c r="CI7" t="s"/>
-      <c r="CJ7" t="s"/>
-      <c r="CK7" t="s"/>
-      <c r="CL7" t="s"/>
-      <c r="CM7" t="s"/>
-      <c r="CN7" t="s"/>
-      <c r="CO7" t="s"/>
-      <c r="CP7" t="s"/>
-      <c r="CQ7" t="s"/>
-      <c r="CR7" t="s"/>
-      <c r="CS7" t="s"/>
-      <c r="CT7" t="s"/>
-      <c r="CU7" t="s"/>
-      <c r="CV7" t="s"/>
-      <c r="CW7" t="s"/>
-      <c r="CX7" t="s"/>
-      <c r="CY7" t="s"/>
-      <c r="CZ7" t="s"/>
-      <c r="DA7" t="s"/>
-      <c r="DB7" t="s"/>
-      <c r="DC7" t="s"/>
-      <c r="DD7" t="s"/>
-      <c r="DE7" t="s"/>
-      <c r="DF7" t="s"/>
-      <c r="DG7" t="s"/>
-      <c r="DH7" t="s"/>
-      <c r="DI7" t="s"/>
-      <c r="DJ7" t="s"/>
-      <c r="DK7" t="s"/>
-      <c r="DL7" t="s"/>
-      <c r="DM7" t="s"/>
-      <c r="DN7" t="s"/>
-      <c r="DO7" t="s"/>
-      <c r="DP7" t="s"/>
-      <c r="DQ7" t="s"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>DE - Hydrocarbures naturels, autres produits des industries extractives, électricité, déchets//Export</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr"/>
+      <c r="DF7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr"/>
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="inlineStr"/>
+      <c r="DJ7" t="inlineStr"/>
+      <c r="DK7" t="inlineStr"/>
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr"/>
+      <c r="DN7" t="inlineStr"/>
+      <c r="DO7" t="inlineStr"/>
+      <c r="DP7" t="inlineStr"/>
+      <c r="DQ7" t="inlineStr"/>
       <c r="DR7" t="n">
         <v>425</v>
       </c>
@@ -8896,130 +8476,132 @@
         <v>1702.306828</v>
       </c>
     </row>
-    <row r="8" spans="1:383">
-      <c r="A8" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="s"/>
-      <c r="BB8" t="s"/>
-      <c r="BC8" t="s"/>
-      <c r="BD8" t="s"/>
-      <c r="BE8" t="s"/>
-      <c r="BF8" t="s"/>
-      <c r="BG8" t="s"/>
-      <c r="BH8" t="s"/>
-      <c r="BI8" t="s"/>
-      <c r="BJ8" t="s"/>
-      <c r="BK8" t="s"/>
-      <c r="BL8" t="s"/>
-      <c r="BM8" t="s"/>
-      <c r="BN8" t="s"/>
-      <c r="BO8" t="s"/>
-      <c r="BP8" t="s"/>
-      <c r="BQ8" t="s"/>
-      <c r="BR8" t="s"/>
-      <c r="BS8" t="s"/>
-      <c r="BT8" t="s"/>
-      <c r="BU8" t="s"/>
-      <c r="BV8" t="s"/>
-      <c r="BW8" t="s"/>
-      <c r="BX8" t="s"/>
-      <c r="BY8" t="s"/>
-      <c r="BZ8" t="s"/>
-      <c r="CA8" t="s"/>
-      <c r="CB8" t="s"/>
-      <c r="CC8" t="s"/>
-      <c r="CD8" t="s"/>
-      <c r="CE8" t="s"/>
-      <c r="CF8" t="s"/>
-      <c r="CG8" t="s"/>
-      <c r="CH8" t="s"/>
-      <c r="CI8" t="s"/>
-      <c r="CJ8" t="s"/>
-      <c r="CK8" t="s"/>
-      <c r="CL8" t="s"/>
-      <c r="CM8" t="s"/>
-      <c r="CN8" t="s"/>
-      <c r="CO8" t="s"/>
-      <c r="CP8" t="s"/>
-      <c r="CQ8" t="s"/>
-      <c r="CR8" t="s"/>
-      <c r="CS8" t="s"/>
-      <c r="CT8" t="s"/>
-      <c r="CU8" t="s"/>
-      <c r="CV8" t="s"/>
-      <c r="CW8" t="s"/>
-      <c r="CX8" t="s"/>
-      <c r="CY8" t="s"/>
-      <c r="CZ8" t="s"/>
-      <c r="DA8" t="s"/>
-      <c r="DB8" t="s"/>
-      <c r="DC8" t="s"/>
-      <c r="DD8" t="s"/>
-      <c r="DE8" t="s"/>
-      <c r="DF8" t="s"/>
-      <c r="DG8" t="s"/>
-      <c r="DH8" t="s"/>
-      <c r="DI8" t="s"/>
-      <c r="DJ8" t="s"/>
-      <c r="DK8" t="s"/>
-      <c r="DL8" t="s"/>
-      <c r="DM8" t="s"/>
-      <c r="DN8" t="s"/>
-      <c r="DO8" t="s"/>
-      <c r="DP8" t="s"/>
-      <c r="DQ8" t="s"/>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>DE - Hydrocarbures naturels, autres produits des industries extractives, électricité, déchets//Import</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr"/>
+      <c r="DE8" t="inlineStr"/>
+      <c r="DF8" t="inlineStr"/>
+      <c r="DG8" t="inlineStr"/>
+      <c r="DH8" t="inlineStr"/>
+      <c r="DI8" t="inlineStr"/>
+      <c r="DJ8" t="inlineStr"/>
+      <c r="DK8" t="inlineStr"/>
+      <c r="DL8" t="inlineStr"/>
+      <c r="DM8" t="inlineStr"/>
+      <c r="DN8" t="inlineStr"/>
+      <c r="DO8" t="inlineStr"/>
+      <c r="DP8" t="inlineStr"/>
+      <c r="DQ8" t="inlineStr"/>
       <c r="DR8" t="n">
         <v>1979</v>
       </c>
@@ -9807,130 +9389,132 @@
         <v>3986.076855</v>
       </c>
     </row>
-    <row r="9" spans="1:383">
-      <c r="A9" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
-      <c r="AY9" t="s"/>
-      <c r="AZ9" t="s"/>
-      <c r="BA9" t="s"/>
-      <c r="BB9" t="s"/>
-      <c r="BC9" t="s"/>
-      <c r="BD9" t="s"/>
-      <c r="BE9" t="s"/>
-      <c r="BF9" t="s"/>
-      <c r="BG9" t="s"/>
-      <c r="BH9" t="s"/>
-      <c r="BI9" t="s"/>
-      <c r="BJ9" t="s"/>
-      <c r="BK9" t="s"/>
-      <c r="BL9" t="s"/>
-      <c r="BM9" t="s"/>
-      <c r="BN9" t="s"/>
-      <c r="BO9" t="s"/>
-      <c r="BP9" t="s"/>
-      <c r="BQ9" t="s"/>
-      <c r="BR9" t="s"/>
-      <c r="BS9" t="s"/>
-      <c r="BT9" t="s"/>
-      <c r="BU9" t="s"/>
-      <c r="BV9" t="s"/>
-      <c r="BW9" t="s"/>
-      <c r="BX9" t="s"/>
-      <c r="BY9" t="s"/>
-      <c r="BZ9" t="s"/>
-      <c r="CA9" t="s"/>
-      <c r="CB9" t="s"/>
-      <c r="CC9" t="s"/>
-      <c r="CD9" t="s"/>
-      <c r="CE9" t="s"/>
-      <c r="CF9" t="s"/>
-      <c r="CG9" t="s"/>
-      <c r="CH9" t="s"/>
-      <c r="CI9" t="s"/>
-      <c r="CJ9" t="s"/>
-      <c r="CK9" t="s"/>
-      <c r="CL9" t="s"/>
-      <c r="CM9" t="s"/>
-      <c r="CN9" t="s"/>
-      <c r="CO9" t="s"/>
-      <c r="CP9" t="s"/>
-      <c r="CQ9" t="s"/>
-      <c r="CR9" t="s"/>
-      <c r="CS9" t="s"/>
-      <c r="CT9" t="s"/>
-      <c r="CU9" t="s"/>
-      <c r="CV9" t="s"/>
-      <c r="CW9" t="s"/>
-      <c r="CX9" t="s"/>
-      <c r="CY9" t="s"/>
-      <c r="CZ9" t="s"/>
-      <c r="DA9" t="s"/>
-      <c r="DB9" t="s"/>
-      <c r="DC9" t="s"/>
-      <c r="DD9" t="s"/>
-      <c r="DE9" t="s"/>
-      <c r="DF9" t="s"/>
-      <c r="DG9" t="s"/>
-      <c r="DH9" t="s"/>
-      <c r="DI9" t="s"/>
-      <c r="DJ9" t="s"/>
-      <c r="DK9" t="s"/>
-      <c r="DL9" t="s"/>
-      <c r="DM9" t="s"/>
-      <c r="DN9" t="s"/>
-      <c r="DO9" t="s"/>
-      <c r="DP9" t="s"/>
-      <c r="DQ9" t="s"/>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>C1 - Produits des industries agroalimentaires (IAA)//Export</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="inlineStr"/>
+      <c r="DF9" t="inlineStr"/>
+      <c r="DG9" t="inlineStr"/>
+      <c r="DH9" t="inlineStr"/>
+      <c r="DI9" t="inlineStr"/>
+      <c r="DJ9" t="inlineStr"/>
+      <c r="DK9" t="inlineStr"/>
+      <c r="DL9" t="inlineStr"/>
+      <c r="DM9" t="inlineStr"/>
+      <c r="DN9" t="inlineStr"/>
+      <c r="DO9" t="inlineStr"/>
+      <c r="DP9" t="inlineStr"/>
+      <c r="DQ9" t="inlineStr"/>
       <c r="DR9" t="n">
         <v>2206</v>
       </c>
@@ -10718,130 +10302,132 @@
         <v>4523.964904</v>
       </c>
     </row>
-    <row r="10" spans="1:383">
-      <c r="A10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
-      <c r="AQ10" t="s"/>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
-      <c r="AV10" t="s"/>
-      <c r="AW10" t="s"/>
-      <c r="AX10" t="s"/>
-      <c r="AY10" t="s"/>
-      <c r="AZ10" t="s"/>
-      <c r="BA10" t="s"/>
-      <c r="BB10" t="s"/>
-      <c r="BC10" t="s"/>
-      <c r="BD10" t="s"/>
-      <c r="BE10" t="s"/>
-      <c r="BF10" t="s"/>
-      <c r="BG10" t="s"/>
-      <c r="BH10" t="s"/>
-      <c r="BI10" t="s"/>
-      <c r="BJ10" t="s"/>
-      <c r="BK10" t="s"/>
-      <c r="BL10" t="s"/>
-      <c r="BM10" t="s"/>
-      <c r="BN10" t="s"/>
-      <c r="BO10" t="s"/>
-      <c r="BP10" t="s"/>
-      <c r="BQ10" t="s"/>
-      <c r="BR10" t="s"/>
-      <c r="BS10" t="s"/>
-      <c r="BT10" t="s"/>
-      <c r="BU10" t="s"/>
-      <c r="BV10" t="s"/>
-      <c r="BW10" t="s"/>
-      <c r="BX10" t="s"/>
-      <c r="BY10" t="s"/>
-      <c r="BZ10" t="s"/>
-      <c r="CA10" t="s"/>
-      <c r="CB10" t="s"/>
-      <c r="CC10" t="s"/>
-      <c r="CD10" t="s"/>
-      <c r="CE10" t="s"/>
-      <c r="CF10" t="s"/>
-      <c r="CG10" t="s"/>
-      <c r="CH10" t="s"/>
-      <c r="CI10" t="s"/>
-      <c r="CJ10" t="s"/>
-      <c r="CK10" t="s"/>
-      <c r="CL10" t="s"/>
-      <c r="CM10" t="s"/>
-      <c r="CN10" t="s"/>
-      <c r="CO10" t="s"/>
-      <c r="CP10" t="s"/>
-      <c r="CQ10" t="s"/>
-      <c r="CR10" t="s"/>
-      <c r="CS10" t="s"/>
-      <c r="CT10" t="s"/>
-      <c r="CU10" t="s"/>
-      <c r="CV10" t="s"/>
-      <c r="CW10" t="s"/>
-      <c r="CX10" t="s"/>
-      <c r="CY10" t="s"/>
-      <c r="CZ10" t="s"/>
-      <c r="DA10" t="s"/>
-      <c r="DB10" t="s"/>
-      <c r="DC10" t="s"/>
-      <c r="DD10" t="s"/>
-      <c r="DE10" t="s"/>
-      <c r="DF10" t="s"/>
-      <c r="DG10" t="s"/>
-      <c r="DH10" t="s"/>
-      <c r="DI10" t="s"/>
-      <c r="DJ10" t="s"/>
-      <c r="DK10" t="s"/>
-      <c r="DL10" t="s"/>
-      <c r="DM10" t="s"/>
-      <c r="DN10" t="s"/>
-      <c r="DO10" t="s"/>
-      <c r="DP10" t="s"/>
-      <c r="DQ10" t="s"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>C1 - Produits des industries agroalimentaires (IAA)//Import</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr"/>
+      <c r="DA10" t="inlineStr"/>
+      <c r="DB10" t="inlineStr"/>
+      <c r="DC10" t="inlineStr"/>
+      <c r="DD10" t="inlineStr"/>
+      <c r="DE10" t="inlineStr"/>
+      <c r="DF10" t="inlineStr"/>
+      <c r="DG10" t="inlineStr"/>
+      <c r="DH10" t="inlineStr"/>
+      <c r="DI10" t="inlineStr"/>
+      <c r="DJ10" t="inlineStr"/>
+      <c r="DK10" t="inlineStr"/>
+      <c r="DL10" t="inlineStr"/>
+      <c r="DM10" t="inlineStr"/>
+      <c r="DN10" t="inlineStr"/>
+      <c r="DO10" t="inlineStr"/>
+      <c r="DP10" t="inlineStr"/>
+      <c r="DQ10" t="inlineStr"/>
       <c r="DR10" t="n">
         <v>1564</v>
       </c>
@@ -11629,130 +11215,132 @@
         <v>3981.260483</v>
       </c>
     </row>
-    <row r="11" spans="1:383">
-      <c r="A11" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="s"/>
-      <c r="BB11" t="s"/>
-      <c r="BC11" t="s"/>
-      <c r="BD11" t="s"/>
-      <c r="BE11" t="s"/>
-      <c r="BF11" t="s"/>
-      <c r="BG11" t="s"/>
-      <c r="BH11" t="s"/>
-      <c r="BI11" t="s"/>
-      <c r="BJ11" t="s"/>
-      <c r="BK11" t="s"/>
-      <c r="BL11" t="s"/>
-      <c r="BM11" t="s"/>
-      <c r="BN11" t="s"/>
-      <c r="BO11" t="s"/>
-      <c r="BP11" t="s"/>
-      <c r="BQ11" t="s"/>
-      <c r="BR11" t="s"/>
-      <c r="BS11" t="s"/>
-      <c r="BT11" t="s"/>
-      <c r="BU11" t="s"/>
-      <c r="BV11" t="s"/>
-      <c r="BW11" t="s"/>
-      <c r="BX11" t="s"/>
-      <c r="BY11" t="s"/>
-      <c r="BZ11" t="s"/>
-      <c r="CA11" t="s"/>
-      <c r="CB11" t="s"/>
-      <c r="CC11" t="s"/>
-      <c r="CD11" t="s"/>
-      <c r="CE11" t="s"/>
-      <c r="CF11" t="s"/>
-      <c r="CG11" t="s"/>
-      <c r="CH11" t="s"/>
-      <c r="CI11" t="s"/>
-      <c r="CJ11" t="s"/>
-      <c r="CK11" t="s"/>
-      <c r="CL11" t="s"/>
-      <c r="CM11" t="s"/>
-      <c r="CN11" t="s"/>
-      <c r="CO11" t="s"/>
-      <c r="CP11" t="s"/>
-      <c r="CQ11" t="s"/>
-      <c r="CR11" t="s"/>
-      <c r="CS11" t="s"/>
-      <c r="CT11" t="s"/>
-      <c r="CU11" t="s"/>
-      <c r="CV11" t="s"/>
-      <c r="CW11" t="s"/>
-      <c r="CX11" t="s"/>
-      <c r="CY11" t="s"/>
-      <c r="CZ11" t="s"/>
-      <c r="DA11" t="s"/>
-      <c r="DB11" t="s"/>
-      <c r="DC11" t="s"/>
-      <c r="DD11" t="s"/>
-      <c r="DE11" t="s"/>
-      <c r="DF11" t="s"/>
-      <c r="DG11" t="s"/>
-      <c r="DH11" t="s"/>
-      <c r="DI11" t="s"/>
-      <c r="DJ11" t="s"/>
-      <c r="DK11" t="s"/>
-      <c r="DL11" t="s"/>
-      <c r="DM11" t="s"/>
-      <c r="DN11" t="s"/>
-      <c r="DO11" t="s"/>
-      <c r="DP11" t="s"/>
-      <c r="DQ11" t="s"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>C2 - Produits pétroliers raffinés et coke//Export</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="inlineStr"/>
+      <c r="DB11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr"/>
+      <c r="DE11" t="inlineStr"/>
+      <c r="DF11" t="inlineStr"/>
+      <c r="DG11" t="inlineStr"/>
+      <c r="DH11" t="inlineStr"/>
+      <c r="DI11" t="inlineStr"/>
+      <c r="DJ11" t="inlineStr"/>
+      <c r="DK11" t="inlineStr"/>
+      <c r="DL11" t="inlineStr"/>
+      <c r="DM11" t="inlineStr"/>
+      <c r="DN11" t="inlineStr"/>
+      <c r="DO11" t="inlineStr"/>
+      <c r="DP11" t="inlineStr"/>
+      <c r="DQ11" t="inlineStr"/>
       <c r="DR11" t="n">
         <v>400</v>
       </c>
@@ -12540,130 +12128,132 @@
         <v>680.571583</v>
       </c>
     </row>
-    <row r="12" spans="1:383">
-      <c r="A12" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
-      <c r="AF12" t="s"/>
-      <c r="AG12" t="s"/>
-      <c r="AH12" t="s"/>
-      <c r="AI12" t="s"/>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
-      <c r="AQ12" t="s"/>
-      <c r="AR12" t="s"/>
-      <c r="AS12" t="s"/>
-      <c r="AT12" t="s"/>
-      <c r="AU12" t="s"/>
-      <c r="AV12" t="s"/>
-      <c r="AW12" t="s"/>
-      <c r="AX12" t="s"/>
-      <c r="AY12" t="s"/>
-      <c r="AZ12" t="s"/>
-      <c r="BA12" t="s"/>
-      <c r="BB12" t="s"/>
-      <c r="BC12" t="s"/>
-      <c r="BD12" t="s"/>
-      <c r="BE12" t="s"/>
-      <c r="BF12" t="s"/>
-      <c r="BG12" t="s"/>
-      <c r="BH12" t="s"/>
-      <c r="BI12" t="s"/>
-      <c r="BJ12" t="s"/>
-      <c r="BK12" t="s"/>
-      <c r="BL12" t="s"/>
-      <c r="BM12" t="s"/>
-      <c r="BN12" t="s"/>
-      <c r="BO12" t="s"/>
-      <c r="BP12" t="s"/>
-      <c r="BQ12" t="s"/>
-      <c r="BR12" t="s"/>
-      <c r="BS12" t="s"/>
-      <c r="BT12" t="s"/>
-      <c r="BU12" t="s"/>
-      <c r="BV12" t="s"/>
-      <c r="BW12" t="s"/>
-      <c r="BX12" t="s"/>
-      <c r="BY12" t="s"/>
-      <c r="BZ12" t="s"/>
-      <c r="CA12" t="s"/>
-      <c r="CB12" t="s"/>
-      <c r="CC12" t="s"/>
-      <c r="CD12" t="s"/>
-      <c r="CE12" t="s"/>
-      <c r="CF12" t="s"/>
-      <c r="CG12" t="s"/>
-      <c r="CH12" t="s"/>
-      <c r="CI12" t="s"/>
-      <c r="CJ12" t="s"/>
-      <c r="CK12" t="s"/>
-      <c r="CL12" t="s"/>
-      <c r="CM12" t="s"/>
-      <c r="CN12" t="s"/>
-      <c r="CO12" t="s"/>
-      <c r="CP12" t="s"/>
-      <c r="CQ12" t="s"/>
-      <c r="CR12" t="s"/>
-      <c r="CS12" t="s"/>
-      <c r="CT12" t="s"/>
-      <c r="CU12" t="s"/>
-      <c r="CV12" t="s"/>
-      <c r="CW12" t="s"/>
-      <c r="CX12" t="s"/>
-      <c r="CY12" t="s"/>
-      <c r="CZ12" t="s"/>
-      <c r="DA12" t="s"/>
-      <c r="DB12" t="s"/>
-      <c r="DC12" t="s"/>
-      <c r="DD12" t="s"/>
-      <c r="DE12" t="s"/>
-      <c r="DF12" t="s"/>
-      <c r="DG12" t="s"/>
-      <c r="DH12" t="s"/>
-      <c r="DI12" t="s"/>
-      <c r="DJ12" t="s"/>
-      <c r="DK12" t="s"/>
-      <c r="DL12" t="s"/>
-      <c r="DM12" t="s"/>
-      <c r="DN12" t="s"/>
-      <c r="DO12" t="s"/>
-      <c r="DP12" t="s"/>
-      <c r="DQ12" t="s"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>C2 - Produits pétroliers raffinés et coke//Import</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="inlineStr"/>
+      <c r="DF12" t="inlineStr"/>
+      <c r="DG12" t="inlineStr"/>
+      <c r="DH12" t="inlineStr"/>
+      <c r="DI12" t="inlineStr"/>
+      <c r="DJ12" t="inlineStr"/>
+      <c r="DK12" t="inlineStr"/>
+      <c r="DL12" t="inlineStr"/>
+      <c r="DM12" t="inlineStr"/>
+      <c r="DN12" t="inlineStr"/>
+      <c r="DO12" t="inlineStr"/>
+      <c r="DP12" t="inlineStr"/>
+      <c r="DQ12" t="inlineStr"/>
       <c r="DR12" t="n">
         <v>553</v>
       </c>
@@ -13451,130 +13041,132 @@
         <v>2472.749017</v>
       </c>
     </row>
-    <row r="13" spans="1:383">
-      <c r="A13" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="s"/>
-      <c r="BB13" t="s"/>
-      <c r="BC13" t="s"/>
-      <c r="BD13" t="s"/>
-      <c r="BE13" t="s"/>
-      <c r="BF13" t="s"/>
-      <c r="BG13" t="s"/>
-      <c r="BH13" t="s"/>
-      <c r="BI13" t="s"/>
-      <c r="BJ13" t="s"/>
-      <c r="BK13" t="s"/>
-      <c r="BL13" t="s"/>
-      <c r="BM13" t="s"/>
-      <c r="BN13" t="s"/>
-      <c r="BO13" t="s"/>
-      <c r="BP13" t="s"/>
-      <c r="BQ13" t="s"/>
-      <c r="BR13" t="s"/>
-      <c r="BS13" t="s"/>
-      <c r="BT13" t="s"/>
-      <c r="BU13" t="s"/>
-      <c r="BV13" t="s"/>
-      <c r="BW13" t="s"/>
-      <c r="BX13" t="s"/>
-      <c r="BY13" t="s"/>
-      <c r="BZ13" t="s"/>
-      <c r="CA13" t="s"/>
-      <c r="CB13" t="s"/>
-      <c r="CC13" t="s"/>
-      <c r="CD13" t="s"/>
-      <c r="CE13" t="s"/>
-      <c r="CF13" t="s"/>
-      <c r="CG13" t="s"/>
-      <c r="CH13" t="s"/>
-      <c r="CI13" t="s"/>
-      <c r="CJ13" t="s"/>
-      <c r="CK13" t="s"/>
-      <c r="CL13" t="s"/>
-      <c r="CM13" t="s"/>
-      <c r="CN13" t="s"/>
-      <c r="CO13" t="s"/>
-      <c r="CP13" t="s"/>
-      <c r="CQ13" t="s"/>
-      <c r="CR13" t="s"/>
-      <c r="CS13" t="s"/>
-      <c r="CT13" t="s"/>
-      <c r="CU13" t="s"/>
-      <c r="CV13" t="s"/>
-      <c r="CW13" t="s"/>
-      <c r="CX13" t="s"/>
-      <c r="CY13" t="s"/>
-      <c r="CZ13" t="s"/>
-      <c r="DA13" t="s"/>
-      <c r="DB13" t="s"/>
-      <c r="DC13" t="s"/>
-      <c r="DD13" t="s"/>
-      <c r="DE13" t="s"/>
-      <c r="DF13" t="s"/>
-      <c r="DG13" t="s"/>
-      <c r="DH13" t="s"/>
-      <c r="DI13" t="s"/>
-      <c r="DJ13" t="s"/>
-      <c r="DK13" t="s"/>
-      <c r="DL13" t="s"/>
-      <c r="DM13" t="s"/>
-      <c r="DN13" t="s"/>
-      <c r="DO13" t="s"/>
-      <c r="DP13" t="s"/>
-      <c r="DQ13" t="s"/>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>C3 - Équipements mécaniques, matériel électrique, électronique et informatique//Export</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr"/>
+      <c r="DE13" t="inlineStr"/>
+      <c r="DF13" t="inlineStr"/>
+      <c r="DG13" t="inlineStr"/>
+      <c r="DH13" t="inlineStr"/>
+      <c r="DI13" t="inlineStr"/>
+      <c r="DJ13" t="inlineStr"/>
+      <c r="DK13" t="inlineStr"/>
+      <c r="DL13" t="inlineStr"/>
+      <c r="DM13" t="inlineStr"/>
+      <c r="DN13" t="inlineStr"/>
+      <c r="DO13" t="inlineStr"/>
+      <c r="DP13" t="inlineStr"/>
+      <c r="DQ13" t="inlineStr"/>
       <c r="DR13" t="n">
         <v>6201</v>
       </c>
@@ -14362,130 +13954,132 @@
         <v>7721.725726</v>
       </c>
     </row>
-    <row r="14" spans="1:383">
-      <c r="A14" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="s"/>
-      <c r="BB14" t="s"/>
-      <c r="BC14" t="s"/>
-      <c r="BD14" t="s"/>
-      <c r="BE14" t="s"/>
-      <c r="BF14" t="s"/>
-      <c r="BG14" t="s"/>
-      <c r="BH14" t="s"/>
-      <c r="BI14" t="s"/>
-      <c r="BJ14" t="s"/>
-      <c r="BK14" t="s"/>
-      <c r="BL14" t="s"/>
-      <c r="BM14" t="s"/>
-      <c r="BN14" t="s"/>
-      <c r="BO14" t="s"/>
-      <c r="BP14" t="s"/>
-      <c r="BQ14" t="s"/>
-      <c r="BR14" t="s"/>
-      <c r="BS14" t="s"/>
-      <c r="BT14" t="s"/>
-      <c r="BU14" t="s"/>
-      <c r="BV14" t="s"/>
-      <c r="BW14" t="s"/>
-      <c r="BX14" t="s"/>
-      <c r="BY14" t="s"/>
-      <c r="BZ14" t="s"/>
-      <c r="CA14" t="s"/>
-      <c r="CB14" t="s"/>
-      <c r="CC14" t="s"/>
-      <c r="CD14" t="s"/>
-      <c r="CE14" t="s"/>
-      <c r="CF14" t="s"/>
-      <c r="CG14" t="s"/>
-      <c r="CH14" t="s"/>
-      <c r="CI14" t="s"/>
-      <c r="CJ14" t="s"/>
-      <c r="CK14" t="s"/>
-      <c r="CL14" t="s"/>
-      <c r="CM14" t="s"/>
-      <c r="CN14" t="s"/>
-      <c r="CO14" t="s"/>
-      <c r="CP14" t="s"/>
-      <c r="CQ14" t="s"/>
-      <c r="CR14" t="s"/>
-      <c r="CS14" t="s"/>
-      <c r="CT14" t="s"/>
-      <c r="CU14" t="s"/>
-      <c r="CV14" t="s"/>
-      <c r="CW14" t="s"/>
-      <c r="CX14" t="s"/>
-      <c r="CY14" t="s"/>
-      <c r="CZ14" t="s"/>
-      <c r="DA14" t="s"/>
-      <c r="DB14" t="s"/>
-      <c r="DC14" t="s"/>
-      <c r="DD14" t="s"/>
-      <c r="DE14" t="s"/>
-      <c r="DF14" t="s"/>
-      <c r="DG14" t="s"/>
-      <c r="DH14" t="s"/>
-      <c r="DI14" t="s"/>
-      <c r="DJ14" t="s"/>
-      <c r="DK14" t="s"/>
-      <c r="DL14" t="s"/>
-      <c r="DM14" t="s"/>
-      <c r="DN14" t="s"/>
-      <c r="DO14" t="s"/>
-      <c r="DP14" t="s"/>
-      <c r="DQ14" t="s"/>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>C3 - Équipements mécaniques, matériel électrique, électronique et informatique//Import</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr"/>
+      <c r="CZ14" t="inlineStr"/>
+      <c r="DA14" t="inlineStr"/>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
+      <c r="DE14" t="inlineStr"/>
+      <c r="DF14" t="inlineStr"/>
+      <c r="DG14" t="inlineStr"/>
+      <c r="DH14" t="inlineStr"/>
+      <c r="DI14" t="inlineStr"/>
+      <c r="DJ14" t="inlineStr"/>
+      <c r="DK14" t="inlineStr"/>
+      <c r="DL14" t="inlineStr"/>
+      <c r="DM14" t="inlineStr"/>
+      <c r="DN14" t="inlineStr"/>
+      <c r="DO14" t="inlineStr"/>
+      <c r="DP14" t="inlineStr"/>
+      <c r="DQ14" t="inlineStr"/>
       <c r="DR14" t="n">
         <v>6897</v>
       </c>
@@ -15273,130 +14867,132 @@
         <v>11120.613464</v>
       </c>
     </row>
-    <row r="15" spans="1:383">
-      <c r="A15" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="s"/>
-      <c r="AA15" t="s"/>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
-      <c r="AD15" t="s"/>
-      <c r="AE15" t="s"/>
-      <c r="AF15" t="s"/>
-      <c r="AG15" t="s"/>
-      <c r="AH15" t="s"/>
-      <c r="AI15" t="s"/>
-      <c r="AJ15" t="s"/>
-      <c r="AK15" t="s"/>
-      <c r="AL15" t="s"/>
-      <c r="AM15" t="s"/>
-      <c r="AN15" t="s"/>
-      <c r="AO15" t="s"/>
-      <c r="AP15" t="s"/>
-      <c r="AQ15" t="s"/>
-      <c r="AR15" t="s"/>
-      <c r="AS15" t="s"/>
-      <c r="AT15" t="s"/>
-      <c r="AU15" t="s"/>
-      <c r="AV15" t="s"/>
-      <c r="AW15" t="s"/>
-      <c r="AX15" t="s"/>
-      <c r="AY15" t="s"/>
-      <c r="AZ15" t="s"/>
-      <c r="BA15" t="s"/>
-      <c r="BB15" t="s"/>
-      <c r="BC15" t="s"/>
-      <c r="BD15" t="s"/>
-      <c r="BE15" t="s"/>
-      <c r="BF15" t="s"/>
-      <c r="BG15" t="s"/>
-      <c r="BH15" t="s"/>
-      <c r="BI15" t="s"/>
-      <c r="BJ15" t="s"/>
-      <c r="BK15" t="s"/>
-      <c r="BL15" t="s"/>
-      <c r="BM15" t="s"/>
-      <c r="BN15" t="s"/>
-      <c r="BO15" t="s"/>
-      <c r="BP15" t="s"/>
-      <c r="BQ15" t="s"/>
-      <c r="BR15" t="s"/>
-      <c r="BS15" t="s"/>
-      <c r="BT15" t="s"/>
-      <c r="BU15" t="s"/>
-      <c r="BV15" t="s"/>
-      <c r="BW15" t="s"/>
-      <c r="BX15" t="s"/>
-      <c r="BY15" t="s"/>
-      <c r="BZ15" t="s"/>
-      <c r="CA15" t="s"/>
-      <c r="CB15" t="s"/>
-      <c r="CC15" t="s"/>
-      <c r="CD15" t="s"/>
-      <c r="CE15" t="s"/>
-      <c r="CF15" t="s"/>
-      <c r="CG15" t="s"/>
-      <c r="CH15" t="s"/>
-      <c r="CI15" t="s"/>
-      <c r="CJ15" t="s"/>
-      <c r="CK15" t="s"/>
-      <c r="CL15" t="s"/>
-      <c r="CM15" t="s"/>
-      <c r="CN15" t="s"/>
-      <c r="CO15" t="s"/>
-      <c r="CP15" t="s"/>
-      <c r="CQ15" t="s"/>
-      <c r="CR15" t="s"/>
-      <c r="CS15" t="s"/>
-      <c r="CT15" t="s"/>
-      <c r="CU15" t="s"/>
-      <c r="CV15" t="s"/>
-      <c r="CW15" t="s"/>
-      <c r="CX15" t="s"/>
-      <c r="CY15" t="s"/>
-      <c r="CZ15" t="s"/>
-      <c r="DA15" t="s"/>
-      <c r="DB15" t="s"/>
-      <c r="DC15" t="s"/>
-      <c r="DD15" t="s"/>
-      <c r="DE15" t="s"/>
-      <c r="DF15" t="s"/>
-      <c r="DG15" t="s"/>
-      <c r="DH15" t="s"/>
-      <c r="DI15" t="s"/>
-      <c r="DJ15" t="s"/>
-      <c r="DK15" t="s"/>
-      <c r="DL15" t="s"/>
-      <c r="DM15" t="s"/>
-      <c r="DN15" t="s"/>
-      <c r="DO15" t="s"/>
-      <c r="DP15" t="s"/>
-      <c r="DQ15" t="s"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>C4 - Matériels de transport//Export</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr"/>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr"/>
+      <c r="CZ15" t="inlineStr"/>
+      <c r="DA15" t="inlineStr"/>
+      <c r="DB15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr"/>
+      <c r="DE15" t="inlineStr"/>
+      <c r="DF15" t="inlineStr"/>
+      <c r="DG15" t="inlineStr"/>
+      <c r="DH15" t="inlineStr"/>
+      <c r="DI15" t="inlineStr"/>
+      <c r="DJ15" t="inlineStr"/>
+      <c r="DK15" t="inlineStr"/>
+      <c r="DL15" t="inlineStr"/>
+      <c r="DM15" t="inlineStr"/>
+      <c r="DN15" t="inlineStr"/>
+      <c r="DO15" t="inlineStr"/>
+      <c r="DP15" t="inlineStr"/>
+      <c r="DQ15" t="inlineStr"/>
       <c r="DR15" t="n">
         <v>5628</v>
       </c>
@@ -16184,130 +15780,132 @@
         <v>6842.727481</v>
       </c>
     </row>
-    <row r="16" spans="1:383">
-      <c r="A16" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
-      <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
-      <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
-      <c r="V16" t="s"/>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
-      <c r="Z16" t="s"/>
-      <c r="AA16" t="s"/>
-      <c r="AB16" t="s"/>
-      <c r="AC16" t="s"/>
-      <c r="AD16" t="s"/>
-      <c r="AE16" t="s"/>
-      <c r="AF16" t="s"/>
-      <c r="AG16" t="s"/>
-      <c r="AH16" t="s"/>
-      <c r="AI16" t="s"/>
-      <c r="AJ16" t="s"/>
-      <c r="AK16" t="s"/>
-      <c r="AL16" t="s"/>
-      <c r="AM16" t="s"/>
-      <c r="AN16" t="s"/>
-      <c r="AO16" t="s"/>
-      <c r="AP16" t="s"/>
-      <c r="AQ16" t="s"/>
-      <c r="AR16" t="s"/>
-      <c r="AS16" t="s"/>
-      <c r="AT16" t="s"/>
-      <c r="AU16" t="s"/>
-      <c r="AV16" t="s"/>
-      <c r="AW16" t="s"/>
-      <c r="AX16" t="s"/>
-      <c r="AY16" t="s"/>
-      <c r="AZ16" t="s"/>
-      <c r="BA16" t="s"/>
-      <c r="BB16" t="s"/>
-      <c r="BC16" t="s"/>
-      <c r="BD16" t="s"/>
-      <c r="BE16" t="s"/>
-      <c r="BF16" t="s"/>
-      <c r="BG16" t="s"/>
-      <c r="BH16" t="s"/>
-      <c r="BI16" t="s"/>
-      <c r="BJ16" t="s"/>
-      <c r="BK16" t="s"/>
-      <c r="BL16" t="s"/>
-      <c r="BM16" t="s"/>
-      <c r="BN16" t="s"/>
-      <c r="BO16" t="s"/>
-      <c r="BP16" t="s"/>
-      <c r="BQ16" t="s"/>
-      <c r="BR16" t="s"/>
-      <c r="BS16" t="s"/>
-      <c r="BT16" t="s"/>
-      <c r="BU16" t="s"/>
-      <c r="BV16" t="s"/>
-      <c r="BW16" t="s"/>
-      <c r="BX16" t="s"/>
-      <c r="BY16" t="s"/>
-      <c r="BZ16" t="s"/>
-      <c r="CA16" t="s"/>
-      <c r="CB16" t="s"/>
-      <c r="CC16" t="s"/>
-      <c r="CD16" t="s"/>
-      <c r="CE16" t="s"/>
-      <c r="CF16" t="s"/>
-      <c r="CG16" t="s"/>
-      <c r="CH16" t="s"/>
-      <c r="CI16" t="s"/>
-      <c r="CJ16" t="s"/>
-      <c r="CK16" t="s"/>
-      <c r="CL16" t="s"/>
-      <c r="CM16" t="s"/>
-      <c r="CN16" t="s"/>
-      <c r="CO16" t="s"/>
-      <c r="CP16" t="s"/>
-      <c r="CQ16" t="s"/>
-      <c r="CR16" t="s"/>
-      <c r="CS16" t="s"/>
-      <c r="CT16" t="s"/>
-      <c r="CU16" t="s"/>
-      <c r="CV16" t="s"/>
-      <c r="CW16" t="s"/>
-      <c r="CX16" t="s"/>
-      <c r="CY16" t="s"/>
-      <c r="CZ16" t="s"/>
-      <c r="DA16" t="s"/>
-      <c r="DB16" t="s"/>
-      <c r="DC16" t="s"/>
-      <c r="DD16" t="s"/>
-      <c r="DE16" t="s"/>
-      <c r="DF16" t="s"/>
-      <c r="DG16" t="s"/>
-      <c r="DH16" t="s"/>
-      <c r="DI16" t="s"/>
-      <c r="DJ16" t="s"/>
-      <c r="DK16" t="s"/>
-      <c r="DL16" t="s"/>
-      <c r="DM16" t="s"/>
-      <c r="DN16" t="s"/>
-      <c r="DO16" t="s"/>
-      <c r="DP16" t="s"/>
-      <c r="DQ16" t="s"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>C4 - Matériels de transport//Import</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
+      <c r="DF16" t="inlineStr"/>
+      <c r="DG16" t="inlineStr"/>
+      <c r="DH16" t="inlineStr"/>
+      <c r="DI16" t="inlineStr"/>
+      <c r="DJ16" t="inlineStr"/>
+      <c r="DK16" t="inlineStr"/>
+      <c r="DL16" t="inlineStr"/>
+      <c r="DM16" t="inlineStr"/>
+      <c r="DN16" t="inlineStr"/>
+      <c r="DO16" t="inlineStr"/>
+      <c r="DP16" t="inlineStr"/>
+      <c r="DQ16" t="inlineStr"/>
       <c r="DR16" t="n">
         <v>3761</v>
       </c>

--- a/data/132/DOUANES/Merchandise Trade SA_historical.xlsx
+++ b/data/132/DOUANES/Merchandise Trade SA_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NS16"/>
+  <dimension ref="A1:NV16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,6 +2277,21 @@
           <t>2021-10</t>
         </is>
       </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3113,322 +3128,331 @@
         <v>36634.529141</v>
       </c>
       <c r="JR2" t="n">
-        <v>36442.417388</v>
+        <v>36451.078585</v>
       </c>
       <c r="JS2" t="n">
-        <v>35979.287199</v>
+        <v>35971.031744</v>
       </c>
       <c r="JT2" t="n">
-        <v>36289.92943</v>
+        <v>36297.474746</v>
       </c>
       <c r="JU2" t="n">
-        <v>38242.378024</v>
+        <v>38233.891767</v>
       </c>
       <c r="JV2" t="n">
-        <v>36471.569705</v>
+        <v>36493.494522</v>
       </c>
       <c r="JW2" t="n">
-        <v>36158.329398</v>
+        <v>36160.482767</v>
       </c>
       <c r="JX2" t="n">
-        <v>36340.31798</v>
+        <v>36336.659224</v>
       </c>
       <c r="JY2" t="n">
-        <v>36331.752163</v>
+        <v>36338.223116</v>
       </c>
       <c r="JZ2" t="n">
-        <v>36247.713323</v>
+        <v>36253.614405</v>
       </c>
       <c r="KA2" t="n">
-        <v>36785.988388</v>
+        <v>36782.601688</v>
       </c>
       <c r="KB2" t="n">
-        <v>35971.22485</v>
+        <v>35977.335585</v>
       </c>
       <c r="KC2" t="n">
-        <v>36649.475088</v>
+        <v>36626.118665</v>
       </c>
       <c r="KD2" t="n">
-        <v>36375.370144</v>
+        <v>36381.473518</v>
       </c>
       <c r="KE2" t="n">
-        <v>37046.948782</v>
+        <v>37030.538622</v>
       </c>
       <c r="KF2" t="n">
-        <v>36159.900411</v>
+        <v>36152.198471</v>
       </c>
       <c r="KG2" t="n">
-        <v>35939.843378</v>
+        <v>35938.102896</v>
       </c>
       <c r="KH2" t="n">
-        <v>36219.504438</v>
+        <v>36209.513599</v>
       </c>
       <c r="KI2" t="n">
-        <v>36189.663857</v>
+        <v>36191.310972</v>
       </c>
       <c r="KJ2" t="n">
-        <v>36501.866631</v>
+        <v>36527.128351</v>
       </c>
       <c r="KK2" t="n">
-        <v>35798.10572</v>
+        <v>35808.56943</v>
       </c>
       <c r="KL2" t="n">
-        <v>37073.716613</v>
+        <v>37083.277267</v>
       </c>
       <c r="KM2" t="n">
-        <v>37137.408158</v>
+        <v>37151.261975</v>
       </c>
       <c r="KN2" t="n">
-        <v>36892.452215</v>
+        <v>36897.154764</v>
       </c>
       <c r="KO2" t="n">
-        <v>37222.60324</v>
+        <v>37186.388939</v>
       </c>
       <c r="KP2" t="n">
-        <v>37323.775667</v>
+        <v>37318.930733</v>
       </c>
       <c r="KQ2" t="n">
-        <v>37936.93155</v>
+        <v>37904.211432</v>
       </c>
       <c r="KR2" t="n">
-        <v>37497.805621</v>
+        <v>37478.842622</v>
       </c>
       <c r="KS2" t="n">
-        <v>38188.364305</v>
+        <v>38201.65158</v>
       </c>
       <c r="KT2" t="n">
-        <v>38391.178041</v>
+        <v>38390.123185</v>
       </c>
       <c r="KU2" t="n">
-        <v>39750.217958</v>
+        <v>39739.44223</v>
       </c>
       <c r="KV2" t="n">
-        <v>38167.226638</v>
+        <v>38211.851611</v>
       </c>
       <c r="KW2" t="n">
-        <v>37175.327949</v>
+        <v>37192.359228</v>
       </c>
       <c r="KX2" t="n">
-        <v>37665.534779</v>
+        <v>37688.809535</v>
       </c>
       <c r="KY2" t="n">
-        <v>38016.243771</v>
+        <v>38040.410787</v>
       </c>
       <c r="KZ2" t="n">
-        <v>37762.041365</v>
+        <v>37754.163751</v>
       </c>
       <c r="LA2" t="n">
-        <v>38215.776379</v>
+        <v>38195.106756</v>
       </c>
       <c r="LB2" t="n">
-        <v>38574.762568</v>
+        <v>38550.943957</v>
       </c>
       <c r="LC2" t="n">
-        <v>37287.047242</v>
+        <v>37234.689404</v>
       </c>
       <c r="LD2" t="n">
-        <v>36497.019745</v>
+        <v>36497.489219</v>
       </c>
       <c r="LE2" t="n">
-        <v>37268.785834</v>
+        <v>37264.437664</v>
       </c>
       <c r="LF2" t="n">
-        <v>37713.551476</v>
+        <v>37698.193794</v>
       </c>
       <c r="LG2" t="n">
-        <v>36715.905862</v>
+        <v>36733.550707</v>
       </c>
       <c r="LH2" t="n">
-        <v>37533.758699</v>
+        <v>37569.140778</v>
       </c>
       <c r="LI2" t="n">
-        <v>37461.204074</v>
+        <v>37493.348392</v>
       </c>
       <c r="LJ2" t="n">
-        <v>37199.314769</v>
+        <v>37266.254333</v>
       </c>
       <c r="LK2" t="n">
-        <v>36651.519014</v>
+        <v>36676.751707</v>
       </c>
       <c r="LL2" t="n">
-        <v>38375.472269</v>
+        <v>38356.466993</v>
       </c>
       <c r="LM2" t="n">
-        <v>40599.501599</v>
+        <v>40548.382704</v>
       </c>
       <c r="LN2" t="n">
-        <v>37243.841067</v>
+        <v>37181.387904</v>
       </c>
       <c r="LO2" t="n">
-        <v>38279.081761</v>
+        <v>38212.889441</v>
       </c>
       <c r="LP2" t="n">
-        <v>39538.226659</v>
+        <v>39537.58497</v>
       </c>
       <c r="LQ2" t="n">
-        <v>38261.635372</v>
+        <v>38260.028707</v>
       </c>
       <c r="LR2" t="n">
-        <v>40648.857581</v>
+        <v>40636.691393</v>
       </c>
       <c r="LS2" t="n">
-        <v>39234.987664</v>
+        <v>39267.157975</v>
       </c>
       <c r="LT2" t="n">
-        <v>39536.691992</v>
+        <v>39588.838009</v>
       </c>
       <c r="LU2" t="n">
-        <v>39412.479652</v>
+        <v>39483.363909</v>
       </c>
       <c r="LV2" t="n">
-        <v>40648.359921</v>
+        <v>40742.595792</v>
       </c>
       <c r="LW2" t="n">
-        <v>39822.72548</v>
+        <v>39890.494486</v>
       </c>
       <c r="LX2" t="n">
-        <v>39881.237752</v>
+        <v>39864.847408</v>
       </c>
       <c r="LY2" t="n">
-        <v>42228.253833</v>
+        <v>42151.637281</v>
       </c>
       <c r="LZ2" t="n">
-        <v>40167.472881</v>
+        <v>40057.706016</v>
       </c>
       <c r="MA2" t="n">
-        <v>39846.657994</v>
+        <v>39750.989109</v>
       </c>
       <c r="MB2" t="n">
-        <v>40824.308837</v>
+        <v>40816.654424</v>
       </c>
       <c r="MC2" t="n">
-        <v>40902.380153</v>
+        <v>40885.883188</v>
       </c>
       <c r="MD2" t="n">
-        <v>39750.798584</v>
+        <v>39760.061689</v>
       </c>
       <c r="ME2" t="n">
-        <v>41167.706961</v>
+        <v>41187.492736</v>
       </c>
       <c r="MF2" t="n">
-        <v>42048.974832</v>
+        <v>42127.721948</v>
       </c>
       <c r="MG2" t="n">
-        <v>40776.379076</v>
+        <v>40889.93616</v>
       </c>
       <c r="MH2" t="n">
-        <v>40783.049839</v>
+        <v>40951.842079</v>
       </c>
       <c r="MI2" t="n">
-        <v>42979.223764</v>
+        <v>43128.386404</v>
       </c>
       <c r="MJ2" t="n">
-        <v>41099.397746</v>
+        <v>41062.545948</v>
       </c>
       <c r="MK2" t="n">
-        <v>42418.137533</v>
+        <v>42285.548327</v>
       </c>
       <c r="ML2" t="n">
-        <v>42615.667264</v>
+        <v>42378.576395</v>
       </c>
       <c r="MM2" t="n">
-        <v>42769.637655</v>
+        <v>42641.082046</v>
       </c>
       <c r="MN2" t="n">
-        <v>43790.674847</v>
+        <v>43758.981971</v>
       </c>
       <c r="MO2" t="n">
-        <v>42281.800263</v>
+        <v>42255.114437</v>
       </c>
       <c r="MP2" t="n">
-        <v>44808.42581</v>
+        <v>44825.778664</v>
       </c>
       <c r="MQ2" t="n">
-        <v>42244.812047</v>
+        <v>42302.392691</v>
       </c>
       <c r="MR2" t="n">
-        <v>42231.298186</v>
+        <v>42354.986399</v>
       </c>
       <c r="MS2" t="n">
-        <v>42918.661261</v>
+        <v>43099.279329</v>
       </c>
       <c r="MT2" t="n">
-        <v>41278.503639</v>
+        <v>41507.299064</v>
       </c>
       <c r="MU2" t="n">
-        <v>42557.449803</v>
+        <v>42837.886451</v>
       </c>
       <c r="MV2" t="n">
-        <v>41916.11305</v>
+        <v>41833.620633</v>
       </c>
       <c r="MW2" t="n">
-        <v>41303.656637</v>
+        <v>41105.022067</v>
       </c>
       <c r="MX2" t="n">
-        <v>40329.067185</v>
+        <v>39913.928635</v>
       </c>
       <c r="MY2" t="n">
-        <v>42485.162758</v>
+        <v>42363.881282</v>
       </c>
       <c r="MZ2" t="n">
-        <v>35411.241604</v>
+        <v>35370.426093</v>
       </c>
       <c r="NA2" t="n">
-        <v>23868.028945</v>
+        <v>23873.084985</v>
       </c>
       <c r="NB2" t="n">
-        <v>28214.02501</v>
+        <v>28239.196192</v>
       </c>
       <c r="NC2" t="n">
-        <v>32826.411131</v>
+        <v>32903.793188</v>
       </c>
       <c r="ND2" t="n">
-        <v>35762.38829</v>
+        <v>35942.426638</v>
       </c>
       <c r="NE2" t="n">
-        <v>35471.163385</v>
+        <v>35650.975492</v>
       </c>
       <c r="NF2" t="n">
-        <v>37241.105488</v>
+        <v>37500.53823</v>
       </c>
       <c r="NG2" t="n">
-        <v>38475.524562</v>
+        <v>38764.35803</v>
       </c>
       <c r="NH2" t="n">
-        <v>39014.522754</v>
+        <v>38844.708176</v>
       </c>
       <c r="NI2" t="n">
-        <v>38937.234107</v>
+        <v>38707.487092</v>
       </c>
       <c r="NJ2" t="n">
-        <v>39861.892957</v>
+        <v>39250.780546</v>
       </c>
       <c r="NK2" t="n">
-        <v>38848.305564</v>
+        <v>38712.020657</v>
       </c>
       <c r="NL2" t="n">
-        <v>39937.903666</v>
+        <v>39934.282001</v>
       </c>
       <c r="NM2" t="n">
-        <v>40677.857434</v>
+        <v>40745.302155</v>
       </c>
       <c r="NN2" t="n">
-        <v>39565.662491</v>
+        <v>39626.950509</v>
       </c>
       <c r="NO2" t="n">
-        <v>41714.171368</v>
+        <v>41862.91074</v>
       </c>
       <c r="NP2" t="n">
-        <v>40808.392373</v>
+        <v>41020.366887</v>
       </c>
       <c r="NQ2" t="n">
-        <v>42312.427505</v>
+        <v>42616.460648</v>
       </c>
       <c r="NR2" t="n">
-        <v>41995.925228</v>
+        <v>42399.728175</v>
       </c>
       <c r="NS2" t="n">
-        <v>43102.810285</v>
+        <v>43575.072681</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>44286.925741</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>44224.083407</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>47274.223941</v>
       </c>
     </row>
     <row r="3">
@@ -4266,322 +4290,331 @@
         <v>41833.023052</v>
       </c>
       <c r="JR3" t="n">
-        <v>42129.4122</v>
+        <v>42148.035724</v>
       </c>
       <c r="JS3" t="n">
-        <v>41935.860866</v>
+        <v>41948.010973</v>
       </c>
       <c r="JT3" t="n">
-        <v>40811.780123</v>
+        <v>40826.85749</v>
       </c>
       <c r="JU3" t="n">
-        <v>42486.394565</v>
+        <v>42520.851271</v>
       </c>
       <c r="JV3" t="n">
-        <v>42033.956473</v>
+        <v>42054.352911</v>
       </c>
       <c r="JW3" t="n">
-        <v>40815.438869</v>
+        <v>40859.251762</v>
       </c>
       <c r="JX3" t="n">
-        <v>41516.809546</v>
+        <v>41336.500191</v>
       </c>
       <c r="JY3" t="n">
-        <v>41082.396071</v>
+        <v>41099.05498</v>
       </c>
       <c r="JZ3" t="n">
-        <v>42136.369805</v>
+        <v>42148.590418</v>
       </c>
       <c r="KA3" t="n">
-        <v>41337.282003</v>
+        <v>41334.903083</v>
       </c>
       <c r="KB3" t="n">
-        <v>41854.643206</v>
+        <v>41881.631704</v>
       </c>
       <c r="KC3" t="n">
-        <v>41993.764385</v>
+        <v>41978.852977</v>
       </c>
       <c r="KD3" t="n">
-        <v>42267.568994</v>
+        <v>42293.212098</v>
       </c>
       <c r="KE3" t="n">
-        <v>40109.246467</v>
+        <v>40115.022417</v>
       </c>
       <c r="KF3" t="n">
-        <v>41077.128922</v>
+        <v>41088.886477</v>
       </c>
       <c r="KG3" t="n">
-        <v>40586.593855</v>
+        <v>40599.128933</v>
       </c>
       <c r="KH3" t="n">
-        <v>40804.229156</v>
+        <v>40786.943976</v>
       </c>
       <c r="KI3" t="n">
-        <v>41870.780662</v>
+        <v>41917.424364</v>
       </c>
       <c r="KJ3" t="n">
-        <v>42291.244443</v>
+        <v>42129.22079</v>
       </c>
       <c r="KK3" t="n">
-        <v>41275.08249</v>
+        <v>41303.630122</v>
       </c>
       <c r="KL3" t="n">
-        <v>41750.419649</v>
+        <v>41759.48877</v>
       </c>
       <c r="KM3" t="n">
-        <v>41123.080418</v>
+        <v>41105.535029</v>
       </c>
       <c r="KN3" t="n">
-        <v>40858.075977</v>
+        <v>40879.019447</v>
       </c>
       <c r="KO3" t="n">
-        <v>40986.152479</v>
+        <v>40962.001249</v>
       </c>
       <c r="KP3" t="n">
-        <v>40367.142817</v>
+        <v>40374.354083</v>
       </c>
       <c r="KQ3" t="n">
-        <v>40365.909583</v>
+        <v>40363.524177</v>
       </c>
       <c r="KR3" t="n">
-        <v>42546.241197</v>
+        <v>42550.943644</v>
       </c>
       <c r="KS3" t="n">
-        <v>41369.803622</v>
+        <v>41372.198303</v>
       </c>
       <c r="KT3" t="n">
-        <v>42743.359005</v>
+        <v>42810.144701</v>
       </c>
       <c r="KU3" t="n">
-        <v>42103.229586</v>
+        <v>42124.02384</v>
       </c>
       <c r="KV3" t="n">
-        <v>41673.673246</v>
+        <v>41565.129637</v>
       </c>
       <c r="KW3" t="n">
-        <v>40588.525991</v>
+        <v>40598.066432</v>
       </c>
       <c r="KX3" t="n">
-        <v>41555.133949</v>
+        <v>41572.734945</v>
       </c>
       <c r="KY3" t="n">
-        <v>42113.990267</v>
+        <v>42118.998931</v>
       </c>
       <c r="KZ3" t="n">
-        <v>41612.184733</v>
+        <v>41634.074886</v>
       </c>
       <c r="LA3" t="n">
-        <v>41880.068351</v>
+        <v>41881.021555</v>
       </c>
       <c r="LB3" t="n">
-        <v>41213.535345</v>
+        <v>41240.247</v>
       </c>
       <c r="LC3" t="n">
-        <v>41374.285938</v>
+        <v>41349.344181</v>
       </c>
       <c r="LD3" t="n">
-        <v>40592.442875</v>
+        <v>40599.638398</v>
       </c>
       <c r="LE3" t="n">
-        <v>41162.312395</v>
+        <v>41135.291516</v>
       </c>
       <c r="LF3" t="n">
-        <v>39730.111821</v>
+        <v>39751.817443</v>
       </c>
       <c r="LG3" t="n">
-        <v>39891.45024</v>
+        <v>39901.443434</v>
       </c>
       <c r="LH3" t="n">
-        <v>41374.063684</v>
+        <v>41316.593657</v>
       </c>
       <c r="LI3" t="n">
-        <v>42550.418174</v>
+        <v>42548.61231</v>
       </c>
       <c r="LJ3" t="n">
-        <v>41440.677731</v>
+        <v>41473.905272</v>
       </c>
       <c r="LK3" t="n">
-        <v>41583.987086</v>
+        <v>41603.744332</v>
       </c>
       <c r="LL3" t="n">
-        <v>43088.799357</v>
+        <v>43087.172666</v>
       </c>
       <c r="LM3" t="n">
-        <v>43611.439057</v>
+        <v>43597.806505</v>
       </c>
       <c r="LN3" t="n">
-        <v>44674.292464</v>
+        <v>44655.839144</v>
       </c>
       <c r="LO3" t="n">
-        <v>43593.463308</v>
+        <v>43568.499642</v>
       </c>
       <c r="LP3" t="n">
-        <v>44023.9726</v>
+        <v>43984.929917</v>
       </c>
       <c r="LQ3" t="n">
-        <v>43371.083282</v>
+        <v>43357.358313</v>
       </c>
       <c r="LR3" t="n">
-        <v>44481.311109</v>
+        <v>44504.664065</v>
       </c>
       <c r="LS3" t="n">
-        <v>43478.505727</v>
+        <v>43484.39862</v>
       </c>
       <c r="LT3" t="n">
-        <v>45432.228123</v>
+        <v>45447.898395</v>
       </c>
       <c r="LU3" t="n">
-        <v>44027.101428</v>
+        <v>44042.259519</v>
       </c>
       <c r="LV3" t="n">
-        <v>44476.676707</v>
+        <v>44537.425102</v>
       </c>
       <c r="LW3" t="n">
-        <v>44746.592712</v>
+        <v>44807.65732</v>
       </c>
       <c r="LX3" t="n">
-        <v>45658.361002</v>
+        <v>45627.632236</v>
       </c>
       <c r="LY3" t="n">
-        <v>45441.387627</v>
+        <v>45459.13184</v>
       </c>
       <c r="LZ3" t="n">
-        <v>46409.152464</v>
+        <v>46342.18629</v>
       </c>
       <c r="MA3" t="n">
-        <v>44813.714496</v>
+        <v>44765.638299</v>
       </c>
       <c r="MB3" t="n">
-        <v>44895.848869</v>
+        <v>44850.947236</v>
       </c>
       <c r="MC3" t="n">
-        <v>46384.199578</v>
+        <v>46331.091456</v>
       </c>
       <c r="MD3" t="n">
-        <v>46459.613754</v>
+        <v>46477.245077</v>
       </c>
       <c r="ME3" t="n">
-        <v>46947.37583</v>
+        <v>46923.796725</v>
       </c>
       <c r="MF3" t="n">
-        <v>46515.729893</v>
+        <v>46569.745724</v>
       </c>
       <c r="MG3" t="n">
-        <v>46783.111308</v>
+        <v>46837.07442</v>
       </c>
       <c r="MH3" t="n">
-        <v>46617.835102</v>
+        <v>46773.978113</v>
       </c>
       <c r="MI3" t="n">
-        <v>47475.400848</v>
+        <v>47640.862667</v>
       </c>
       <c r="MJ3" t="n">
-        <v>45923.378013</v>
+        <v>45813.555421</v>
       </c>
       <c r="MK3" t="n">
-        <v>46811.153748</v>
+        <v>46772.587673</v>
       </c>
       <c r="ML3" t="n">
-        <v>46998.071685</v>
+        <v>46849.373347</v>
       </c>
       <c r="MM3" t="n">
-        <v>47156.958679</v>
+        <v>47078.318924</v>
       </c>
       <c r="MN3" t="n">
-        <v>48605.278292</v>
+        <v>48524.797344</v>
       </c>
       <c r="MO3" t="n">
-        <v>47642.797884</v>
+        <v>47642.192844</v>
       </c>
       <c r="MP3" t="n">
-        <v>48103.077452</v>
+        <v>48116.239806</v>
       </c>
       <c r="MQ3" t="n">
-        <v>47938.911213</v>
+        <v>47956.776843</v>
       </c>
       <c r="MR3" t="n">
-        <v>47544.997516</v>
+        <v>47622.595193</v>
       </c>
       <c r="MS3" t="n">
-        <v>47754.902904</v>
+        <v>47884.734996</v>
       </c>
       <c r="MT3" t="n">
-        <v>46925.155585</v>
+        <v>47117.011251</v>
       </c>
       <c r="MU3" t="n">
-        <v>47257.770049</v>
+        <v>47533.06371</v>
       </c>
       <c r="MV3" t="n">
-        <v>47236.133709</v>
+        <v>47074.839548</v>
       </c>
       <c r="MW3" t="n">
-        <v>45740.404582</v>
+        <v>45626.214535</v>
       </c>
       <c r="MX3" t="n">
-        <v>45887.17283</v>
+        <v>45686.023292</v>
       </c>
       <c r="MY3" t="n">
-        <v>47058.251976</v>
+        <v>46956.950016</v>
       </c>
       <c r="MZ3" t="n">
-        <v>37904.122599</v>
+        <v>37880.562912</v>
       </c>
       <c r="NA3" t="n">
-        <v>28544.361421</v>
+        <v>28510.025409</v>
       </c>
       <c r="NB3" t="n">
-        <v>35240.672174</v>
+        <v>35262.525311</v>
       </c>
       <c r="NC3" t="n">
-        <v>40819.474719</v>
+        <v>40844.160918</v>
       </c>
       <c r="ND3" t="n">
-        <v>42656.759527</v>
+        <v>42761.041684</v>
       </c>
       <c r="NE3" t="n">
-        <v>42606.842076</v>
+        <v>42768.572409</v>
       </c>
       <c r="NF3" t="n">
-        <v>43088.527858</v>
+        <v>43327.193968</v>
       </c>
       <c r="NG3" t="n">
-        <v>43300.432873</v>
+        <v>43619.644537</v>
       </c>
       <c r="NH3" t="n">
-        <v>42793.240028</v>
+        <v>42581.268159</v>
       </c>
       <c r="NI3" t="n">
-        <v>43009.397963</v>
+        <v>42863.378578</v>
       </c>
       <c r="NJ3" t="n">
-        <v>44139.181895</v>
+        <v>43913.704635</v>
       </c>
       <c r="NK3" t="n">
-        <v>44063.866746</v>
+        <v>43951.945718</v>
       </c>
       <c r="NL3" t="n">
-        <v>46197.917817</v>
+        <v>46093.196277</v>
       </c>
       <c r="NM3" t="n">
-        <v>47062.971902</v>
+        <v>46978.044742</v>
       </c>
       <c r="NN3" t="n">
-        <v>46314.856017</v>
+        <v>46335.393816</v>
       </c>
       <c r="NO3" t="n">
-        <v>47828.150472</v>
+        <v>47863.441319</v>
       </c>
       <c r="NP3" t="n">
-        <v>48011.046062</v>
+        <v>48268.289138</v>
       </c>
       <c r="NQ3" t="n">
-        <v>49084.238532</v>
+        <v>49428.565835</v>
       </c>
       <c r="NR3" t="n">
-        <v>48938.954669</v>
+        <v>49323.041463</v>
       </c>
       <c r="NS3" t="n">
-        <v>50616.192806</v>
+        <v>51402.495786</v>
+      </c>
+      <c r="NT3" t="n">
+        <v>54089.129944</v>
+      </c>
+      <c r="NU3" t="n">
+        <v>55618.440737</v>
+      </c>
+      <c r="NV3" t="n">
+        <v>55307.908054</v>
       </c>
     </row>
     <row r="4">
@@ -5419,322 +5452,331 @@
         <v>-5198.493911</v>
       </c>
       <c r="JR4" t="n">
-        <v>-5686.994812</v>
+        <v>-5696.957139</v>
       </c>
       <c r="JS4" t="n">
-        <v>-5956.573667</v>
+        <v>-5976.979229</v>
       </c>
       <c r="JT4" t="n">
-        <v>-4521.850693</v>
+        <v>-4529.382744</v>
       </c>
       <c r="JU4" t="n">
-        <v>-4244.016541</v>
+        <v>-4286.959504</v>
       </c>
       <c r="JV4" t="n">
-        <v>-5562.386768</v>
+        <v>-5560.858389</v>
       </c>
       <c r="JW4" t="n">
-        <v>-4657.109471</v>
+        <v>-4698.768995</v>
       </c>
       <c r="JX4" t="n">
-        <v>-5176.491566</v>
+        <v>-4999.840967</v>
       </c>
       <c r="JY4" t="n">
-        <v>-4750.643908</v>
+        <v>-4760.831864</v>
       </c>
       <c r="JZ4" t="n">
-        <v>-5888.656482</v>
+        <v>-5894.976013</v>
       </c>
       <c r="KA4" t="n">
-        <v>-4551.293615</v>
+        <v>-4552.301395</v>
       </c>
       <c r="KB4" t="n">
-        <v>-5883.418356</v>
+        <v>-5904.296119</v>
       </c>
       <c r="KC4" t="n">
-        <v>-5344.289297</v>
+        <v>-5352.734312</v>
       </c>
       <c r="KD4" t="n">
-        <v>-5892.19885</v>
+        <v>-5911.73858</v>
       </c>
       <c r="KE4" t="n">
-        <v>-3062.297685</v>
+        <v>-3084.483795</v>
       </c>
       <c r="KF4" t="n">
-        <v>-4917.228511</v>
+        <v>-4936.688006</v>
       </c>
       <c r="KG4" t="n">
-        <v>-4646.750477</v>
+        <v>-4661.026037</v>
       </c>
       <c r="KH4" t="n">
-        <v>-4584.724718</v>
+        <v>-4577.430377</v>
       </c>
       <c r="KI4" t="n">
-        <v>-5681.116805</v>
+        <v>-5726.113392</v>
       </c>
       <c r="KJ4" t="n">
-        <v>-5789.377812</v>
+        <v>-5602.092439</v>
       </c>
       <c r="KK4" t="n">
-        <v>-5476.97677</v>
+        <v>-5495.060692</v>
       </c>
       <c r="KL4" t="n">
-        <v>-4676.703036</v>
+        <v>-4676.211503</v>
       </c>
       <c r="KM4" t="n">
-        <v>-3985.67226</v>
+        <v>-3954.273054</v>
       </c>
       <c r="KN4" t="n">
-        <v>-3965.623762</v>
+        <v>-3981.864683</v>
       </c>
       <c r="KO4" t="n">
-        <v>-3763.549239</v>
+        <v>-3775.61231</v>
       </c>
       <c r="KP4" t="n">
-        <v>-3043.36715</v>
+        <v>-3055.42335</v>
       </c>
       <c r="KQ4" t="n">
-        <v>-2428.978033</v>
+        <v>-2459.312745</v>
       </c>
       <c r="KR4" t="n">
-        <v>-5048.435576</v>
+        <v>-5072.101022</v>
       </c>
       <c r="KS4" t="n">
-        <v>-3181.439317</v>
+        <v>-3170.546723</v>
       </c>
       <c r="KT4" t="n">
-        <v>-4352.180964</v>
+        <v>-4420.021516</v>
       </c>
       <c r="KU4" t="n">
-        <v>-2353.011628</v>
+        <v>-2384.58161</v>
       </c>
       <c r="KV4" t="n">
-        <v>-3506.446608</v>
+        <v>-3353.278026</v>
       </c>
       <c r="KW4" t="n">
-        <v>-3413.198042</v>
+        <v>-3405.707204</v>
       </c>
       <c r="KX4" t="n">
-        <v>-3889.59917</v>
+        <v>-3883.92541</v>
       </c>
       <c r="KY4" t="n">
-        <v>-4097.746496</v>
+        <v>-4078.588144</v>
       </c>
       <c r="KZ4" t="n">
-        <v>-3850.143368</v>
+        <v>-3879.911135</v>
       </c>
       <c r="LA4" t="n">
-        <v>-3664.291972</v>
+        <v>-3685.914799</v>
       </c>
       <c r="LB4" t="n">
-        <v>-2638.772777</v>
+        <v>-2689.303043</v>
       </c>
       <c r="LC4" t="n">
-        <v>-4087.238696</v>
+        <v>-4114.654777</v>
       </c>
       <c r="LD4" t="n">
-        <v>-4095.42313</v>
+        <v>-4102.149179</v>
       </c>
       <c r="LE4" t="n">
-        <v>-3893.526561</v>
+        <v>-3870.853852</v>
       </c>
       <c r="LF4" t="n">
-        <v>-2016.560345</v>
+        <v>-2053.623649</v>
       </c>
       <c r="LG4" t="n">
-        <v>-3175.544378</v>
+        <v>-3167.892727</v>
       </c>
       <c r="LH4" t="n">
-        <v>-3840.304985</v>
+        <v>-3747.452879</v>
       </c>
       <c r="LI4" t="n">
-        <v>-5089.2141</v>
+        <v>-5055.263918</v>
       </c>
       <c r="LJ4" t="n">
-        <v>-4241.362962</v>
+        <v>-4207.650939</v>
       </c>
       <c r="LK4" t="n">
-        <v>-4932.468072</v>
+        <v>-4926.992625</v>
       </c>
       <c r="LL4" t="n">
-        <v>-4713.327088</v>
+        <v>-4730.705673</v>
       </c>
       <c r="LM4" t="n">
-        <v>-3011.937458</v>
+        <v>-3049.423801</v>
       </c>
       <c r="LN4" t="n">
-        <v>-7430.451397</v>
+        <v>-7474.45124</v>
       </c>
       <c r="LO4" t="n">
-        <v>-5314.381547</v>
+        <v>-5355.610201</v>
       </c>
       <c r="LP4" t="n">
-        <v>-4485.745941</v>
+        <v>-4447.344947</v>
       </c>
       <c r="LQ4" t="n">
-        <v>-5109.44791</v>
+        <v>-5097.329606</v>
       </c>
       <c r="LR4" t="n">
-        <v>-3832.453528</v>
+        <v>-3867.972672</v>
       </c>
       <c r="LS4" t="n">
-        <v>-4243.518063</v>
+        <v>-4217.240645</v>
       </c>
       <c r="LT4" t="n">
-        <v>-5895.536131</v>
+        <v>-5859.060386</v>
       </c>
       <c r="LU4" t="n">
-        <v>-4614.621776</v>
+        <v>-4558.89561</v>
       </c>
       <c r="LV4" t="n">
-        <v>-3828.316786</v>
+        <v>-3794.82931</v>
       </c>
       <c r="LW4" t="n">
-        <v>-4923.867232</v>
+        <v>-4917.162834</v>
       </c>
       <c r="LX4" t="n">
-        <v>-5777.12325</v>
+        <v>-5762.784828</v>
       </c>
       <c r="LY4" t="n">
-        <v>-3213.133794</v>
+        <v>-3307.494559</v>
       </c>
       <c r="LZ4" t="n">
-        <v>-6241.679583</v>
+        <v>-6284.480274</v>
       </c>
       <c r="MA4" t="n">
-        <v>-4967.056502</v>
+        <v>-5014.64919</v>
       </c>
       <c r="MB4" t="n">
-        <v>-4071.540032</v>
+        <v>-4034.292812</v>
       </c>
       <c r="MC4" t="n">
-        <v>-5481.819425</v>
+        <v>-5445.208268</v>
       </c>
       <c r="MD4" t="n">
-        <v>-6708.81517</v>
+        <v>-6717.183388</v>
       </c>
       <c r="ME4" t="n">
-        <v>-5779.668869</v>
+        <v>-5736.303989</v>
       </c>
       <c r="MF4" t="n">
-        <v>-4466.755061</v>
+        <v>-4442.023776</v>
       </c>
       <c r="MG4" t="n">
-        <v>-6006.732232</v>
+        <v>-5947.13826</v>
       </c>
       <c r="MH4" t="n">
-        <v>-5834.785263</v>
+        <v>-5822.136034</v>
       </c>
       <c r="MI4" t="n">
-        <v>-4496.177084</v>
+        <v>-4512.476263</v>
       </c>
       <c r="MJ4" t="n">
-        <v>-4823.980267</v>
+        <v>-4751.009473</v>
       </c>
       <c r="MK4" t="n">
-        <v>-4393.016215</v>
+        <v>-4487.039346</v>
       </c>
       <c r="ML4" t="n">
-        <v>-4382.404421</v>
+        <v>-4470.796952</v>
       </c>
       <c r="MM4" t="n">
-        <v>-4387.321024</v>
+        <v>-4437.236878</v>
       </c>
       <c r="MN4" t="n">
-        <v>-4814.603445</v>
+        <v>-4765.815373</v>
       </c>
       <c r="MO4" t="n">
-        <v>-5360.997621</v>
+        <v>-5387.078407</v>
       </c>
       <c r="MP4" t="n">
-        <v>-3294.651642</v>
+        <v>-3290.461142</v>
       </c>
       <c r="MQ4" t="n">
-        <v>-5694.099166</v>
+        <v>-5654.384152</v>
       </c>
       <c r="MR4" t="n">
-        <v>-5313.69933</v>
+        <v>-5267.608794</v>
       </c>
       <c r="MS4" t="n">
-        <v>-4836.241643</v>
+        <v>-4785.455667</v>
       </c>
       <c r="MT4" t="n">
-        <v>-5646.651946</v>
+        <v>-5609.712187</v>
       </c>
       <c r="MU4" t="n">
-        <v>-4700.320246</v>
+        <v>-4695.177259</v>
       </c>
       <c r="MV4" t="n">
-        <v>-5320.020659</v>
+        <v>-5241.218915</v>
       </c>
       <c r="MW4" t="n">
-        <v>-4436.747945</v>
+        <v>-4521.192468</v>
       </c>
       <c r="MX4" t="n">
-        <v>-5558.105645</v>
+        <v>-5772.094657</v>
       </c>
       <c r="MY4" t="n">
-        <v>-4573.089218</v>
+        <v>-4593.068734</v>
       </c>
       <c r="MZ4" t="n">
-        <v>-2492.880995</v>
+        <v>-2510.136819</v>
       </c>
       <c r="NA4" t="n">
-        <v>-4676.332476</v>
+        <v>-4636.940424</v>
       </c>
       <c r="NB4" t="n">
-        <v>-7026.647164</v>
+        <v>-7023.329119</v>
       </c>
       <c r="NC4" t="n">
-        <v>-7993.063588</v>
+        <v>-7940.36773</v>
       </c>
       <c r="ND4" t="n">
-        <v>-6894.371237</v>
+        <v>-6818.615046</v>
       </c>
       <c r="NE4" t="n">
-        <v>-7135.678691</v>
+        <v>-7117.596917</v>
       </c>
       <c r="NF4" t="n">
-        <v>-5847.42237</v>
+        <v>-5826.655738</v>
       </c>
       <c r="NG4" t="n">
-        <v>-4824.908311</v>
+        <v>-4855.286507</v>
       </c>
       <c r="NH4" t="n">
-        <v>-3778.717274</v>
+        <v>-3736.559983</v>
       </c>
       <c r="NI4" t="n">
-        <v>-4072.163856</v>
+        <v>-4155.891486</v>
       </c>
       <c r="NJ4" t="n">
-        <v>-4277.288938</v>
+        <v>-4662.924089</v>
       </c>
       <c r="NK4" t="n">
-        <v>-5215.561182</v>
+        <v>-5239.925061</v>
       </c>
       <c r="NL4" t="n">
-        <v>-6260.014151</v>
+        <v>-6158.914276</v>
       </c>
       <c r="NM4" t="n">
-        <v>-6385.114468</v>
+        <v>-6232.742587</v>
       </c>
       <c r="NN4" t="n">
-        <v>-6749.193526</v>
+        <v>-6708.443307</v>
       </c>
       <c r="NO4" t="n">
-        <v>-6113.979104</v>
+        <v>-6000.530579</v>
       </c>
       <c r="NP4" t="n">
-        <v>-7202.653689</v>
+        <v>-7247.922251</v>
       </c>
       <c r="NQ4" t="n">
-        <v>-6771.811027</v>
+        <v>-6812.105187</v>
       </c>
       <c r="NR4" t="n">
-        <v>-6943.029441</v>
+        <v>-6923.313288</v>
       </c>
       <c r="NS4" t="n">
-        <v>-7513.382521</v>
+        <v>-7827.423105</v>
+      </c>
+      <c r="NT4" t="n">
+        <v>-9802.204202999999</v>
+      </c>
+      <c r="NU4" t="n">
+        <v>-11394.35733</v>
+      </c>
+      <c r="NV4" t="n">
+        <v>-8033.684113</v>
       </c>
     </row>
     <row r="5">
@@ -6332,322 +6374,331 @@
         <v>1454.043531</v>
       </c>
       <c r="JR5" t="n">
-        <v>1466.853278</v>
+        <v>1469.913213</v>
       </c>
       <c r="JS5" t="n">
-        <v>1457.200376</v>
+        <v>1454.941923</v>
       </c>
       <c r="JT5" t="n">
-        <v>1429.0132</v>
+        <v>1430.581771</v>
       </c>
       <c r="JU5" t="n">
-        <v>1412.113413</v>
+        <v>1412.297897</v>
       </c>
       <c r="JV5" t="n">
-        <v>1390.823403</v>
+        <v>1392.107178</v>
       </c>
       <c r="JW5" t="n">
-        <v>1292.824924</v>
+        <v>1293.323722</v>
       </c>
       <c r="JX5" t="n">
-        <v>1247.500937</v>
+        <v>1248.379277</v>
       </c>
       <c r="JY5" t="n">
-        <v>1376.705717</v>
+        <v>1377.370222</v>
       </c>
       <c r="JZ5" t="n">
-        <v>1346.032793</v>
+        <v>1348.860696</v>
       </c>
       <c r="KA5" t="n">
-        <v>1227.193304</v>
+        <v>1216.527847</v>
       </c>
       <c r="KB5" t="n">
-        <v>1240.421993</v>
+        <v>1239.751006</v>
       </c>
       <c r="KC5" t="n">
-        <v>1310.516408</v>
+        <v>1310.037315</v>
       </c>
       <c r="KD5" t="n">
-        <v>1290.631319</v>
+        <v>1292.968457</v>
       </c>
       <c r="KE5" t="n">
-        <v>1241.506712</v>
+        <v>1240.405354</v>
       </c>
       <c r="KF5" t="n">
-        <v>1178.302263</v>
+        <v>1179.961299</v>
       </c>
       <c r="KG5" t="n">
-        <v>1162.621281</v>
+        <v>1162.113257</v>
       </c>
       <c r="KH5" t="n">
-        <v>1150.536035</v>
+        <v>1150.765215</v>
       </c>
       <c r="KI5" t="n">
-        <v>1229.96266</v>
+        <v>1230.12458</v>
       </c>
       <c r="KJ5" t="n">
-        <v>1219.785811</v>
+        <v>1220.256851</v>
       </c>
       <c r="KK5" t="n">
-        <v>1143.28699</v>
+        <v>1143.886329</v>
       </c>
       <c r="KL5" t="n">
-        <v>1186.352899</v>
+        <v>1186.484579</v>
       </c>
       <c r="KM5" t="n">
-        <v>1301.22832</v>
+        <v>1292.104749</v>
       </c>
       <c r="KN5" t="n">
-        <v>1296.616603</v>
+        <v>1299.172696</v>
       </c>
       <c r="KO5" t="n">
-        <v>1215.210727</v>
+        <v>1214.837736</v>
       </c>
       <c r="KP5" t="n">
-        <v>1239.902586</v>
+        <v>1240.703851</v>
       </c>
       <c r="KQ5" t="n">
-        <v>1293.382202</v>
+        <v>1292.825273</v>
       </c>
       <c r="KR5" t="n">
-        <v>1277.993133</v>
+        <v>1277.310854</v>
       </c>
       <c r="KS5" t="n">
-        <v>1323.63429</v>
+        <v>1325.714371</v>
       </c>
       <c r="KT5" t="n">
-        <v>1323.544513</v>
+        <v>1323.656795</v>
       </c>
       <c r="KU5" t="n">
-        <v>1359.528622</v>
+        <v>1358.339292</v>
       </c>
       <c r="KV5" t="n">
-        <v>1412.208239</v>
+        <v>1418.860449</v>
       </c>
       <c r="KW5" t="n">
-        <v>1315.640669</v>
+        <v>1317.814229</v>
       </c>
       <c r="KX5" t="n">
-        <v>1307.977669</v>
+        <v>1307.547708</v>
       </c>
       <c r="KY5" t="n">
-        <v>1185.635208</v>
+        <v>1178.292463</v>
       </c>
       <c r="KZ5" t="n">
-        <v>1240.550737</v>
+        <v>1241.140084</v>
       </c>
       <c r="LA5" t="n">
-        <v>1245.307484</v>
+        <v>1245.652461</v>
       </c>
       <c r="LB5" t="n">
-        <v>1272.280376</v>
+        <v>1272.466674</v>
       </c>
       <c r="LC5" t="n">
-        <v>1258.926217</v>
+        <v>1259.955073</v>
       </c>
       <c r="LD5" t="n">
-        <v>1238.20324</v>
+        <v>1236.412548</v>
       </c>
       <c r="LE5" t="n">
-        <v>1242.293292</v>
+        <v>1242.692422</v>
       </c>
       <c r="LF5" t="n">
-        <v>1333.813938</v>
+        <v>1334.005935</v>
       </c>
       <c r="LG5" t="n">
-        <v>1225.855375</v>
+        <v>1227.565821</v>
       </c>
       <c r="LH5" t="n">
-        <v>1210.70403</v>
+        <v>1211.135283</v>
       </c>
       <c r="LI5" t="n">
-        <v>1054.104385</v>
+        <v>1054.739751</v>
       </c>
       <c r="LJ5" t="n">
-        <v>1043.114942</v>
+        <v>1044.87304</v>
       </c>
       <c r="LK5" t="n">
-        <v>1020.639284</v>
+        <v>1016.116259</v>
       </c>
       <c r="LL5" t="n">
-        <v>1078.257932</v>
+        <v>1078.423119</v>
       </c>
       <c r="LM5" t="n">
-        <v>1051.845773</v>
+        <v>1053.637087</v>
       </c>
       <c r="LN5" t="n">
-        <v>1068.720562</v>
+        <v>1068.029303</v>
       </c>
       <c r="LO5" t="n">
-        <v>1060.530348</v>
+        <v>1060.250592</v>
       </c>
       <c r="LP5" t="n">
-        <v>1080.798801</v>
+        <v>1081.191155</v>
       </c>
       <c r="LQ5" t="n">
-        <v>1085.184559</v>
+        <v>1083.378272</v>
       </c>
       <c r="LR5" t="n">
-        <v>1127.530571</v>
+        <v>1127.59127</v>
       </c>
       <c r="LS5" t="n">
-        <v>1140.565429</v>
+        <v>1140.642201</v>
       </c>
       <c r="LT5" t="n">
-        <v>1190.521609</v>
+        <v>1191.617142</v>
       </c>
       <c r="LU5" t="n">
-        <v>1234.848379</v>
+        <v>1240.884793</v>
       </c>
       <c r="LV5" t="n">
-        <v>1204.334856</v>
+        <v>1206.177311</v>
       </c>
       <c r="LW5" t="n">
-        <v>1188.473141</v>
+        <v>1184.115798</v>
       </c>
       <c r="LX5" t="n">
-        <v>1216.830202</v>
+        <v>1217.997912</v>
       </c>
       <c r="LY5" t="n">
-        <v>1218.123205</v>
+        <v>1217.230317</v>
       </c>
       <c r="LZ5" t="n">
-        <v>1188.683773</v>
+        <v>1187.166832</v>
       </c>
       <c r="MA5" t="n">
-        <v>1193.524534</v>
+        <v>1192.535843</v>
       </c>
       <c r="MB5" t="n">
-        <v>1108.679665</v>
+        <v>1107.266043</v>
       </c>
       <c r="MC5" t="n">
-        <v>1265.620006</v>
+        <v>1263.28054</v>
       </c>
       <c r="MD5" t="n">
-        <v>1310.711221</v>
+        <v>1315.418171</v>
       </c>
       <c r="ME5" t="n">
-        <v>1248.355854</v>
+        <v>1248.646007</v>
       </c>
       <c r="MF5" t="n">
-        <v>1234.945699</v>
+        <v>1234.416346</v>
       </c>
       <c r="MG5" t="n">
-        <v>1239.347544</v>
+        <v>1247.856548</v>
       </c>
       <c r="MH5" t="n">
-        <v>1229.772626</v>
+        <v>1233.030589</v>
       </c>
       <c r="MI5" t="n">
-        <v>1281.266254</v>
+        <v>1281.955337</v>
       </c>
       <c r="MJ5" t="n">
-        <v>1249.732827</v>
+        <v>1248.805778</v>
       </c>
       <c r="MK5" t="n">
-        <v>1323.997298</v>
+        <v>1327.100248</v>
       </c>
       <c r="ML5" t="n">
-        <v>1271.520982</v>
+        <v>1270.881284</v>
       </c>
       <c r="MM5" t="n">
-        <v>1270.304847</v>
+        <v>1267.859639</v>
       </c>
       <c r="MN5" t="n">
-        <v>1331.619371</v>
+        <v>1326.827561</v>
       </c>
       <c r="MO5" t="n">
-        <v>1423.21748</v>
+        <v>1417.100344</v>
       </c>
       <c r="MP5" t="n">
-        <v>1227.272473</v>
+        <v>1229.502531</v>
       </c>
       <c r="MQ5" t="n">
-        <v>1190.924255</v>
+        <v>1190.57469</v>
       </c>
       <c r="MR5" t="n">
-        <v>1323.159748</v>
+        <v>1324.287404</v>
       </c>
       <c r="MS5" t="n">
-        <v>1228.176633</v>
+        <v>1237.46032</v>
       </c>
       <c r="MT5" t="n">
-        <v>1332.042007</v>
+        <v>1339.909483</v>
       </c>
       <c r="MU5" t="n">
-        <v>1299.74491</v>
+        <v>1304.201853</v>
       </c>
       <c r="MV5" t="n">
-        <v>1308.450537</v>
+        <v>1303.162806</v>
       </c>
       <c r="MW5" t="n">
-        <v>1330.157071</v>
+        <v>1329.15106</v>
       </c>
       <c r="MX5" t="n">
-        <v>1343.863604</v>
+        <v>1339.978703</v>
       </c>
       <c r="MY5" t="n">
-        <v>1382.32316</v>
+        <v>1378.225857</v>
       </c>
       <c r="MZ5" t="n">
-        <v>1325.852404</v>
+        <v>1320.889536</v>
       </c>
       <c r="NA5" t="n">
-        <v>1404.834687</v>
+        <v>1404.027458</v>
       </c>
       <c r="NB5" t="n">
-        <v>1269.014167</v>
+        <v>1269.282389</v>
       </c>
       <c r="NC5" t="n">
-        <v>1356.782578</v>
+        <v>1357.229342</v>
       </c>
       <c r="ND5" t="n">
-        <v>1263.301614</v>
+        <v>1270.70374</v>
       </c>
       <c r="NE5" t="n">
-        <v>1188.067533</v>
+        <v>1201.825238</v>
       </c>
       <c r="NF5" t="n">
-        <v>1150.849362</v>
+        <v>1157.572406</v>
       </c>
       <c r="NG5" t="n">
-        <v>1208.661991</v>
+        <v>1216.638433</v>
       </c>
       <c r="NH5" t="n">
-        <v>1240.961486</v>
+        <v>1233.574301</v>
       </c>
       <c r="NI5" t="n">
-        <v>1174.800549</v>
+        <v>1178.052126</v>
       </c>
       <c r="NJ5" t="n">
-        <v>1242.658894</v>
+        <v>1231.701</v>
       </c>
       <c r="NK5" t="n">
-        <v>1261.863707</v>
+        <v>1257.544984</v>
       </c>
       <c r="NL5" t="n">
-        <v>1284.739581</v>
+        <v>1278.218281</v>
       </c>
       <c r="NM5" t="n">
-        <v>1238.804057</v>
+        <v>1237.869312</v>
       </c>
       <c r="NN5" t="n">
-        <v>1272.916276</v>
+        <v>1272.921733</v>
       </c>
       <c r="NO5" t="n">
-        <v>1213.135553</v>
+        <v>1215.510264</v>
       </c>
       <c r="NP5" t="n">
-        <v>1304.830786</v>
+        <v>1312.073826</v>
       </c>
       <c r="NQ5" t="n">
-        <v>1466.717844</v>
+        <v>1476.507956</v>
       </c>
       <c r="NR5" t="n">
-        <v>1447.736776</v>
+        <v>1467.467534</v>
       </c>
       <c r="NS5" t="n">
-        <v>1550.891041</v>
+        <v>1557.980225</v>
+      </c>
+      <c r="NT5" t="n">
+        <v>1700.379464</v>
+      </c>
+      <c r="NU5" t="n">
+        <v>1567.560548</v>
+      </c>
+      <c r="NV5" t="n">
+        <v>1589.794301</v>
       </c>
     </row>
     <row r="6">
@@ -7245,322 +7296,331 @@
         <v>912.554053</v>
       </c>
       <c r="JR6" t="n">
-        <v>959.46572</v>
+        <v>959.538078</v>
       </c>
       <c r="JS6" t="n">
-        <v>938.736826</v>
+        <v>938.758439</v>
       </c>
       <c r="JT6" t="n">
-        <v>954.866409</v>
+        <v>954.790748</v>
       </c>
       <c r="JU6" t="n">
-        <v>981.5865680000001</v>
+        <v>981.612959</v>
       </c>
       <c r="JV6" t="n">
-        <v>1034.899423</v>
+        <v>1034.828604</v>
       </c>
       <c r="JW6" t="n">
-        <v>991.736632</v>
+        <v>991.576985</v>
       </c>
       <c r="JX6" t="n">
-        <v>1028.313826</v>
+        <v>1028.502813</v>
       </c>
       <c r="JY6" t="n">
-        <v>965.248499</v>
+        <v>965.222886</v>
       </c>
       <c r="JZ6" t="n">
-        <v>987.357884</v>
+        <v>987.301654</v>
       </c>
       <c r="KA6" t="n">
-        <v>948.231689</v>
+        <v>948.338546</v>
       </c>
       <c r="KB6" t="n">
-        <v>944.925912</v>
+        <v>944.821867</v>
       </c>
       <c r="KC6" t="n">
-        <v>947.192827</v>
+        <v>947.120577</v>
       </c>
       <c r="KD6" t="n">
-        <v>967.367043</v>
+        <v>967.441951</v>
       </c>
       <c r="KE6" t="n">
-        <v>931.967982</v>
+        <v>931.987435</v>
       </c>
       <c r="KF6" t="n">
-        <v>951.166318</v>
+        <v>951.088045</v>
       </c>
       <c r="KG6" t="n">
-        <v>984.424592</v>
+        <v>984.4466</v>
       </c>
       <c r="KH6" t="n">
-        <v>885.938726</v>
+        <v>885.882378</v>
       </c>
       <c r="KI6" t="n">
-        <v>960.7412440000001</v>
+        <v>960.571413</v>
       </c>
       <c r="KJ6" t="n">
-        <v>921.136263</v>
+        <v>921.193306</v>
       </c>
       <c r="KK6" t="n">
-        <v>932.9708460000001</v>
+        <v>932.848394</v>
       </c>
       <c r="KL6" t="n">
-        <v>935.196502</v>
+        <v>935.24706</v>
       </c>
       <c r="KM6" t="n">
-        <v>965.167149</v>
+        <v>965.255801</v>
       </c>
       <c r="KN6" t="n">
-        <v>1002.768547</v>
+        <v>1002.760084</v>
       </c>
       <c r="KO6" t="n">
-        <v>986.60882</v>
+        <v>986.676797</v>
       </c>
       <c r="KP6" t="n">
-        <v>991.661022</v>
+        <v>991.646234</v>
       </c>
       <c r="KQ6" t="n">
-        <v>1004.199097</v>
+        <v>1004.10215</v>
       </c>
       <c r="KR6" t="n">
-        <v>986.408938</v>
+        <v>986.425695</v>
       </c>
       <c r="KS6" t="n">
-        <v>1038.729651</v>
+        <v>1038.743031</v>
       </c>
       <c r="KT6" t="n">
-        <v>999.5599570000001</v>
+        <v>999.2784380000001</v>
       </c>
       <c r="KU6" t="n">
-        <v>1030.438788</v>
+        <v>1030.446958</v>
       </c>
       <c r="KV6" t="n">
-        <v>1046.832495</v>
+        <v>1046.953329</v>
       </c>
       <c r="KW6" t="n">
-        <v>1045.52224</v>
+        <v>1045.493905</v>
       </c>
       <c r="KX6" t="n">
-        <v>1071.956733</v>
+        <v>1072.025959</v>
       </c>
       <c r="KY6" t="n">
-        <v>1069.523923</v>
+        <v>1069.494272</v>
       </c>
       <c r="KZ6" t="n">
-        <v>1058.281172</v>
+        <v>1058.502865</v>
       </c>
       <c r="LA6" t="n">
-        <v>978.938189</v>
+        <v>979.098298</v>
       </c>
       <c r="LB6" t="n">
-        <v>1043.459228</v>
+        <v>1043.379165</v>
       </c>
       <c r="LC6" t="n">
-        <v>1077.193725</v>
+        <v>1076.967589</v>
       </c>
       <c r="LD6" t="n">
-        <v>1067.154302</v>
+        <v>1067.049884</v>
       </c>
       <c r="LE6" t="n">
-        <v>1046.301384</v>
+        <v>1046.2318</v>
       </c>
       <c r="LF6" t="n">
-        <v>1068.934357</v>
+        <v>1068.897913</v>
       </c>
       <c r="LG6" t="n">
-        <v>1100.724184</v>
+        <v>1100.698116</v>
       </c>
       <c r="LH6" t="n">
-        <v>1121.349653</v>
+        <v>1121.380523</v>
       </c>
       <c r="LI6" t="n">
-        <v>1159.338455</v>
+        <v>1159.527973</v>
       </c>
       <c r="LJ6" t="n">
-        <v>1163.992677</v>
+        <v>1164.246737</v>
       </c>
       <c r="LK6" t="n">
-        <v>1158.521783</v>
+        <v>1158.490848</v>
       </c>
       <c r="LL6" t="n">
-        <v>1128.586489</v>
+        <v>1128.931694</v>
       </c>
       <c r="LM6" t="n">
-        <v>1245.790195</v>
+        <v>1246.035001</v>
       </c>
       <c r="LN6" t="n">
-        <v>1167.996713</v>
+        <v>1168.093395</v>
       </c>
       <c r="LO6" t="n">
-        <v>1209.494811</v>
+        <v>1208.912341</v>
       </c>
       <c r="LP6" t="n">
-        <v>1185.271426</v>
+        <v>1185.005534</v>
       </c>
       <c r="LQ6" t="n">
-        <v>1175.516025</v>
+        <v>1174.892358</v>
       </c>
       <c r="LR6" t="n">
-        <v>1183.408948</v>
+        <v>1183.137254</v>
       </c>
       <c r="LS6" t="n">
-        <v>1146.126403</v>
+        <v>1145.910554</v>
       </c>
       <c r="LT6" t="n">
-        <v>1137.705652</v>
+        <v>1138.044061</v>
       </c>
       <c r="LU6" t="n">
-        <v>1097.089466</v>
+        <v>1097.661134</v>
       </c>
       <c r="LV6" t="n">
-        <v>1106.727341</v>
+        <v>1107.38077</v>
       </c>
       <c r="LW6" t="n">
-        <v>1109.035796</v>
+        <v>1109.394384</v>
       </c>
       <c r="LX6" t="n">
-        <v>1145.723128</v>
+        <v>1146.343794</v>
       </c>
       <c r="LY6" t="n">
-        <v>1118.000525</v>
+        <v>1118.203236</v>
       </c>
       <c r="LZ6" t="n">
-        <v>1115.139367</v>
+        <v>1114.922768</v>
       </c>
       <c r="MA6" t="n">
-        <v>1067.096426</v>
+        <v>1066.014845</v>
       </c>
       <c r="MB6" t="n">
-        <v>1121.769751</v>
+        <v>1120.688406</v>
       </c>
       <c r="MC6" t="n">
-        <v>1106.826303</v>
+        <v>1106.235372</v>
       </c>
       <c r="MD6" t="n">
-        <v>1148.674624</v>
+        <v>1147.878606</v>
       </c>
       <c r="ME6" t="n">
-        <v>1118.243408</v>
+        <v>1117.869048</v>
       </c>
       <c r="MF6" t="n">
-        <v>1055.226588</v>
+        <v>1055.966367</v>
       </c>
       <c r="MG6" t="n">
-        <v>1136.010277</v>
+        <v>1137.575442</v>
       </c>
       <c r="MH6" t="n">
-        <v>1111.608995</v>
+        <v>1113.485998</v>
       </c>
       <c r="MI6" t="n">
-        <v>1112.454463</v>
+        <v>1115.007122</v>
       </c>
       <c r="MJ6" t="n">
-        <v>1107.26115</v>
+        <v>1107.28765</v>
       </c>
       <c r="MK6" t="n">
-        <v>1146.693405</v>
+        <v>1148.224214</v>
       </c>
       <c r="ML6" t="n">
-        <v>1149.097986</v>
+        <v>1145.526568</v>
       </c>
       <c r="MM6" t="n">
-        <v>1165.492181</v>
+        <v>1163.918627</v>
       </c>
       <c r="MN6" t="n">
-        <v>1076.019199</v>
+        <v>1074.432282</v>
       </c>
       <c r="MO6" t="n">
-        <v>1142.152699</v>
+        <v>1141.496205</v>
       </c>
       <c r="MP6" t="n">
-        <v>1132.017346</v>
+        <v>1130.89504</v>
       </c>
       <c r="MQ6" t="n">
-        <v>1121.024111</v>
+        <v>1120.333285</v>
       </c>
       <c r="MR6" t="n">
-        <v>1141.665858</v>
+        <v>1142.683811</v>
       </c>
       <c r="MS6" t="n">
-        <v>1224.047702</v>
+        <v>1226.678893</v>
       </c>
       <c r="MT6" t="n">
-        <v>1090.29798</v>
+        <v>1094.093555</v>
       </c>
       <c r="MU6" t="n">
-        <v>1177.843147</v>
+        <v>1182.977893</v>
       </c>
       <c r="MV6" t="n">
-        <v>1155.063056</v>
+        <v>1152.845746</v>
       </c>
       <c r="MW6" t="n">
-        <v>1167.905272</v>
+        <v>1170.929491</v>
       </c>
       <c r="MX6" t="n">
-        <v>1197.106452</v>
+        <v>1190.414966</v>
       </c>
       <c r="MY6" t="n">
-        <v>1223.157013</v>
+        <v>1221.339167</v>
       </c>
       <c r="MZ6" t="n">
-        <v>1093.632744</v>
+        <v>1091.622508</v>
       </c>
       <c r="NA6" t="n">
-        <v>1090.269359</v>
+        <v>1089.992196</v>
       </c>
       <c r="NB6" t="n">
-        <v>1178.77268</v>
+        <v>1177.003875</v>
       </c>
       <c r="NC6" t="n">
-        <v>1261.182949</v>
+        <v>1260.531029</v>
       </c>
       <c r="ND6" t="n">
-        <v>1150.030394</v>
+        <v>1151.115738</v>
       </c>
       <c r="NE6" t="n">
-        <v>1165.92724</v>
+        <v>1169.751876</v>
       </c>
       <c r="NF6" t="n">
-        <v>1149.855399</v>
+        <v>1155.621942</v>
       </c>
       <c r="NG6" t="n">
-        <v>1157.58725</v>
+        <v>1165.080305</v>
       </c>
       <c r="NH6" t="n">
-        <v>1167.048381</v>
+        <v>1161.637506</v>
       </c>
       <c r="NI6" t="n">
-        <v>1153.515246</v>
+        <v>1157.965457</v>
       </c>
       <c r="NJ6" t="n">
-        <v>1178.450494</v>
+        <v>1168.172986</v>
       </c>
       <c r="NK6" t="n">
-        <v>1151.376634</v>
+        <v>1150.305809</v>
       </c>
       <c r="NL6" t="n">
-        <v>1376.449345</v>
+        <v>1376.532546</v>
       </c>
       <c r="NM6" t="n">
-        <v>1367.400533</v>
+        <v>1368.374496</v>
       </c>
       <c r="NN6" t="n">
-        <v>1291.037757</v>
+        <v>1291.537641</v>
       </c>
       <c r="NO6" t="n">
-        <v>1307.242426</v>
+        <v>1309.53821</v>
       </c>
       <c r="NP6" t="n">
-        <v>1348.853474</v>
+        <v>1351.993684</v>
       </c>
       <c r="NQ6" t="n">
-        <v>1308.574328</v>
+        <v>1313.86554</v>
       </c>
       <c r="NR6" t="n">
-        <v>1348.099963</v>
+        <v>1346.860275</v>
       </c>
       <c r="NS6" t="n">
-        <v>1289.367948</v>
+        <v>1301.639406</v>
+      </c>
+      <c r="NT6" t="n">
+        <v>1366.329049</v>
+      </c>
+      <c r="NU6" t="n">
+        <v>1333.855873</v>
+      </c>
+      <c r="NV6" t="n">
+        <v>1361.115184</v>
       </c>
     </row>
     <row r="7">
@@ -8158,322 +8218,331 @@
         <v>919.945183</v>
       </c>
       <c r="JR7" t="n">
-        <v>805.014999</v>
+        <v>805.093036</v>
       </c>
       <c r="JS7" t="n">
-        <v>779.749396</v>
+        <v>779.870436</v>
       </c>
       <c r="JT7" t="n">
-        <v>743.307871</v>
+        <v>743.295939</v>
       </c>
       <c r="JU7" t="n">
-        <v>769.696925</v>
+        <v>769.827048</v>
       </c>
       <c r="JV7" t="n">
-        <v>762.736102</v>
+        <v>762.3105849999999</v>
       </c>
       <c r="JW7" t="n">
-        <v>726.114798</v>
+        <v>725.975902</v>
       </c>
       <c r="JX7" t="n">
-        <v>820.0478900000001</v>
+        <v>819.8297679999999</v>
       </c>
       <c r="JY7" t="n">
-        <v>804.029979</v>
+        <v>804.569596</v>
       </c>
       <c r="JZ7" t="n">
-        <v>818.7006730000001</v>
+        <v>819.249139</v>
       </c>
       <c r="KA7" t="n">
-        <v>799.225597</v>
+        <v>799.8982569999999</v>
       </c>
       <c r="KB7" t="n">
-        <v>784.778361</v>
+        <v>785.359958</v>
       </c>
       <c r="KC7" t="n">
-        <v>855.167153</v>
+        <v>854.627956</v>
       </c>
       <c r="KD7" t="n">
-        <v>823.295239</v>
+        <v>823.340321</v>
       </c>
       <c r="KE7" t="n">
-        <v>783.88274</v>
+        <v>783.914811</v>
       </c>
       <c r="KF7" t="n">
-        <v>731.400174</v>
+        <v>731.13051</v>
       </c>
       <c r="KG7" t="n">
-        <v>712.844649</v>
+        <v>712.7257970000001</v>
       </c>
       <c r="KH7" t="n">
-        <v>819.047217</v>
+        <v>817.553493</v>
       </c>
       <c r="KI7" t="n">
-        <v>849.510182</v>
+        <v>848.303565</v>
       </c>
       <c r="KJ7" t="n">
-        <v>819.214248</v>
+        <v>818.51049</v>
       </c>
       <c r="KK7" t="n">
-        <v>924.26012</v>
+        <v>924.052692</v>
       </c>
       <c r="KL7" t="n">
-        <v>952.471874</v>
+        <v>956.911646</v>
       </c>
       <c r="KM7" t="n">
-        <v>894.785112</v>
+        <v>901.076928</v>
       </c>
       <c r="KN7" t="n">
-        <v>896.942201</v>
+        <v>897.272548</v>
       </c>
       <c r="KO7" t="n">
-        <v>828.687819</v>
+        <v>828.111007</v>
       </c>
       <c r="KP7" t="n">
-        <v>845.357613</v>
+        <v>845.31774</v>
       </c>
       <c r="KQ7" t="n">
-        <v>815.892994</v>
+        <v>814.1648709999999</v>
       </c>
       <c r="KR7" t="n">
-        <v>785.497256</v>
+        <v>784.832888</v>
       </c>
       <c r="KS7" t="n">
-        <v>683.143148</v>
+        <v>682.831921</v>
       </c>
       <c r="KT7" t="n">
-        <v>699.763632</v>
+        <v>698.5537399999999</v>
       </c>
       <c r="KU7" t="n">
-        <v>665.218282</v>
+        <v>664.449798</v>
       </c>
       <c r="KV7" t="n">
-        <v>742.853292</v>
+        <v>741.822726</v>
       </c>
       <c r="KW7" t="n">
-        <v>679.591102</v>
+        <v>679.7702389999999</v>
       </c>
       <c r="KX7" t="n">
-        <v>649.591229</v>
+        <v>652.34518</v>
       </c>
       <c r="KY7" t="n">
-        <v>709.480735</v>
+        <v>714.521867</v>
       </c>
       <c r="KZ7" t="n">
-        <v>775.239115</v>
+        <v>775.389015</v>
       </c>
       <c r="LA7" t="n">
-        <v>702.04971</v>
+        <v>701.789885</v>
       </c>
       <c r="LB7" t="n">
-        <v>621.926854</v>
+        <v>621.818428</v>
       </c>
       <c r="LC7" t="n">
-        <v>566.605022</v>
+        <v>564.815383</v>
       </c>
       <c r="LD7" t="n">
-        <v>571.608578</v>
+        <v>570.729096</v>
       </c>
       <c r="LE7" t="n">
-        <v>525.861139</v>
+        <v>525.316827</v>
       </c>
       <c r="LF7" t="n">
-        <v>518.659014</v>
+        <v>518.129635</v>
       </c>
       <c r="LG7" t="n">
-        <v>560.994877</v>
+        <v>560.618257</v>
       </c>
       <c r="LH7" t="n">
-        <v>546.595099</v>
+        <v>546.238395</v>
       </c>
       <c r="LI7" t="n">
-        <v>554.663536</v>
+        <v>554.99493</v>
       </c>
       <c r="LJ7" t="n">
-        <v>693.862741</v>
+        <v>702.826686</v>
       </c>
       <c r="LK7" t="n">
-        <v>593.4128449999999</v>
+        <v>601.479657</v>
       </c>
       <c r="LL7" t="n">
-        <v>692.785313</v>
+        <v>692.502717</v>
       </c>
       <c r="LM7" t="n">
-        <v>683.19748</v>
+        <v>682.250094</v>
       </c>
       <c r="LN7" t="n">
-        <v>779.62445</v>
+        <v>778.594162</v>
       </c>
       <c r="LO7" t="n">
-        <v>745.590087</v>
+        <v>743.241373</v>
       </c>
       <c r="LP7" t="n">
-        <v>790.341237</v>
+        <v>788.291064</v>
       </c>
       <c r="LQ7" t="n">
-        <v>756.003523</v>
+        <v>754.175108</v>
       </c>
       <c r="LR7" t="n">
-        <v>794.522964</v>
+        <v>791.061613</v>
       </c>
       <c r="LS7" t="n">
-        <v>703.39801</v>
+        <v>699.906792</v>
       </c>
       <c r="LT7" t="n">
-        <v>743.172377</v>
+        <v>741.990186</v>
       </c>
       <c r="LU7" t="n">
-        <v>754.571082</v>
+        <v>757.036303</v>
       </c>
       <c r="LV7" t="n">
-        <v>727.956161</v>
+        <v>733.045135</v>
       </c>
       <c r="LW7" t="n">
-        <v>860.296775</v>
+        <v>894.18034</v>
       </c>
       <c r="LX7" t="n">
-        <v>814.454484</v>
+        <v>813.370561</v>
       </c>
       <c r="LY7" t="n">
-        <v>807.997661</v>
+        <v>805.7927</v>
       </c>
       <c r="LZ7" t="n">
-        <v>889.339714</v>
+        <v>885.741632</v>
       </c>
       <c r="MA7" t="n">
-        <v>898.398727</v>
+        <v>887.5660329999999</v>
       </c>
       <c r="MB7" t="n">
-        <v>751.295955</v>
+        <v>747.057721</v>
       </c>
       <c r="MC7" t="n">
-        <v>795.040707</v>
+        <v>791.332012</v>
       </c>
       <c r="MD7" t="n">
-        <v>905.483935</v>
+        <v>902.4066350000001</v>
       </c>
       <c r="ME7" t="n">
-        <v>951.146325</v>
+        <v>947.940521</v>
       </c>
       <c r="MF7" t="n">
-        <v>952.86924</v>
+        <v>952.635771</v>
       </c>
       <c r="MG7" t="n">
-        <v>847.589894</v>
+        <v>851.692761</v>
       </c>
       <c r="MH7" t="n">
-        <v>1082.974333</v>
+        <v>1106.001691</v>
       </c>
       <c r="MI7" t="n">
-        <v>944.696073</v>
+        <v>982.429806</v>
       </c>
       <c r="MJ7" t="n">
-        <v>829.16198</v>
+        <v>823.934659</v>
       </c>
       <c r="MK7" t="n">
-        <v>971.097371</v>
+        <v>966.658442</v>
       </c>
       <c r="ML7" t="n">
-        <v>821.517235</v>
+        <v>811.507968</v>
       </c>
       <c r="MM7" t="n">
-        <v>950.2791</v>
+        <v>935.456814</v>
       </c>
       <c r="MN7" t="n">
-        <v>998.138638</v>
+        <v>982.743097</v>
       </c>
       <c r="MO7" t="n">
-        <v>882.119489</v>
+        <v>874.292689</v>
       </c>
       <c r="MP7" t="n">
-        <v>993.196061</v>
+        <v>990.291892</v>
       </c>
       <c r="MQ7" t="n">
-        <v>858.756947</v>
+        <v>856.548614</v>
       </c>
       <c r="MR7" t="n">
-        <v>840.911545</v>
+        <v>843.998571</v>
       </c>
       <c r="MS7" t="n">
-        <v>816.565881</v>
+        <v>831.071856</v>
       </c>
       <c r="MT7" t="n">
-        <v>767.17025</v>
+        <v>786.2158920000001</v>
       </c>
       <c r="MU7" t="n">
-        <v>788.428482</v>
+        <v>853.593666</v>
       </c>
       <c r="MV7" t="n">
-        <v>669.359072</v>
+        <v>661.281546</v>
       </c>
       <c r="MW7" t="n">
-        <v>643.237365</v>
+        <v>638.91779</v>
       </c>
       <c r="MX7" t="n">
-        <v>752.0350110000001</v>
+        <v>741.019771</v>
       </c>
       <c r="MY7" t="n">
-        <v>750.46775</v>
+        <v>740.3076160000001</v>
       </c>
       <c r="MZ7" t="n">
-        <v>603.47435</v>
+        <v>593.63474</v>
       </c>
       <c r="NA7" t="n">
-        <v>430.260582</v>
+        <v>426.007006</v>
       </c>
       <c r="NB7" t="n">
-        <v>486.713865</v>
+        <v>486.907888</v>
       </c>
       <c r="NC7" t="n">
-        <v>541.833133</v>
+        <v>541.903907</v>
       </c>
       <c r="ND7" t="n">
-        <v>599.2225539999999</v>
+        <v>602.8232410000001</v>
       </c>
       <c r="NE7" t="n">
-        <v>699.547058</v>
+        <v>714.824739</v>
       </c>
       <c r="NF7" t="n">
-        <v>579.466415</v>
+        <v>591.780901</v>
       </c>
       <c r="NG7" t="n">
-        <v>633.093138</v>
+        <v>648.616945</v>
       </c>
       <c r="NH7" t="n">
-        <v>738.894265</v>
+        <v>729.531494</v>
       </c>
       <c r="NI7" t="n">
-        <v>759.220409</v>
+        <v>754.214607</v>
       </c>
       <c r="NJ7" t="n">
-        <v>950.422147</v>
+        <v>936.854468</v>
       </c>
       <c r="NK7" t="n">
-        <v>848.554164</v>
+        <v>843.328363</v>
       </c>
       <c r="NL7" t="n">
-        <v>883.199741</v>
+        <v>877.3546270000001</v>
       </c>
       <c r="NM7" t="n">
-        <v>905.370344</v>
+        <v>901.035005</v>
       </c>
       <c r="NN7" t="n">
-        <v>995.058761</v>
+        <v>994.467656</v>
       </c>
       <c r="NO7" t="n">
-        <v>1208.097472</v>
+        <v>1207.825457</v>
       </c>
       <c r="NP7" t="n">
-        <v>1350.647857</v>
+        <v>1357.117473</v>
       </c>
       <c r="NQ7" t="n">
-        <v>1404.702786</v>
+        <v>1424.472487</v>
       </c>
       <c r="NR7" t="n">
-        <v>1720.135051</v>
+        <v>1747.63347</v>
       </c>
       <c r="NS7" t="n">
-        <v>1702.306828</v>
+        <v>1788.576592</v>
+      </c>
+      <c r="NT7" t="n">
+        <v>1768.394663</v>
+      </c>
+      <c r="NU7" t="n">
+        <v>1652.918959</v>
+      </c>
+      <c r="NV7" t="n">
+        <v>1686.823849</v>
       </c>
     </row>
     <row r="8">
@@ -9071,322 +9140,331 @@
         <v>4586.045546</v>
       </c>
       <c r="JR8" t="n">
-        <v>5110.048468</v>
+        <v>5131.255291</v>
       </c>
       <c r="JS8" t="n">
-        <v>5174.406947</v>
+        <v>5181.294704</v>
       </c>
       <c r="JT8" t="n">
-        <v>4860.992651</v>
+        <v>4857.114641</v>
       </c>
       <c r="JU8" t="n">
-        <v>5133.356157</v>
+        <v>5139.099004</v>
       </c>
       <c r="JV8" t="n">
-        <v>5279.875011</v>
+        <v>5286.018639</v>
       </c>
       <c r="JW8" t="n">
-        <v>4492.748448</v>
+        <v>4497.534444</v>
       </c>
       <c r="JX8" t="n">
-        <v>4851.498304</v>
+        <v>4855.384163</v>
       </c>
       <c r="JY8" t="n">
-        <v>4715.066313</v>
+        <v>4717.450322</v>
       </c>
       <c r="JZ8" t="n">
-        <v>5105.071667</v>
+        <v>5107.755212</v>
       </c>
       <c r="KA8" t="n">
-        <v>3923.946718</v>
+        <v>3928.342354</v>
       </c>
       <c r="KB8" t="n">
-        <v>4644.421499</v>
+        <v>4649.650594</v>
       </c>
       <c r="KC8" t="n">
-        <v>4703.174098</v>
+        <v>4656.585193</v>
       </c>
       <c r="KD8" t="n">
-        <v>5044.57041</v>
+        <v>5062.908543</v>
       </c>
       <c r="KE8" t="n">
-        <v>3683.443739</v>
+        <v>3686.155375</v>
       </c>
       <c r="KF8" t="n">
-        <v>4382.136731</v>
+        <v>4378.122315</v>
       </c>
       <c r="KG8" t="n">
-        <v>4255.774654</v>
+        <v>4257.90185</v>
       </c>
       <c r="KH8" t="n">
-        <v>4087.237435</v>
+        <v>4089.528645</v>
       </c>
       <c r="KI8" t="n">
-        <v>4127.207175</v>
+        <v>4129.297676</v>
       </c>
       <c r="KJ8" t="n">
-        <v>4306.566131</v>
+        <v>4314.551869</v>
       </c>
       <c r="KK8" t="n">
-        <v>4024.802065</v>
+        <v>4021.853745</v>
       </c>
       <c r="KL8" t="n">
-        <v>4013.929427</v>
+        <v>4014.90898</v>
       </c>
       <c r="KM8" t="n">
-        <v>3959.091999</v>
+        <v>3961.551598</v>
       </c>
       <c r="KN8" t="n">
-        <v>3361.227307</v>
+        <v>3362.73668</v>
       </c>
       <c r="KO8" t="n">
-        <v>3585.502251</v>
+        <v>3569.580013</v>
       </c>
       <c r="KP8" t="n">
-        <v>3232.960798</v>
+        <v>3240.204651</v>
       </c>
       <c r="KQ8" t="n">
-        <v>3064.04394</v>
+        <v>3063.092971</v>
       </c>
       <c r="KR8" t="n">
-        <v>4236.266798</v>
+        <v>4231.480548</v>
       </c>
       <c r="KS8" t="n">
-        <v>3358.00453</v>
+        <v>3355.639179</v>
       </c>
       <c r="KT8" t="n">
-        <v>3421.08301</v>
+        <v>3421.805922</v>
       </c>
       <c r="KU8" t="n">
-        <v>3296.430678</v>
+        <v>3295.897784</v>
       </c>
       <c r="KV8" t="n">
-        <v>3067.829152</v>
+        <v>3075.642333</v>
       </c>
       <c r="KW8" t="n">
-        <v>2830.973859</v>
+        <v>2825.960111</v>
       </c>
       <c r="KX8" t="n">
-        <v>3002.581324</v>
+        <v>3004.914726</v>
       </c>
       <c r="KY8" t="n">
-        <v>2922.341011</v>
+        <v>2925.668235</v>
       </c>
       <c r="KZ8" t="n">
-        <v>2614.896141</v>
+        <v>2616.608376</v>
       </c>
       <c r="LA8" t="n">
-        <v>2682.497535</v>
+        <v>2681.094049</v>
       </c>
       <c r="LB8" t="n">
-        <v>2220.59939</v>
+        <v>2222.439072</v>
       </c>
       <c r="LC8" t="n">
-        <v>2159.583891</v>
+        <v>2157.535751</v>
       </c>
       <c r="LD8" t="n">
-        <v>2451.648437</v>
+        <v>2445.082905</v>
       </c>
       <c r="LE8" t="n">
-        <v>2281.565925</v>
+        <v>2277.395934</v>
       </c>
       <c r="LF8" t="n">
-        <v>2009.631851</v>
+        <v>2012.333154</v>
       </c>
       <c r="LG8" t="n">
-        <v>1700.057978</v>
+        <v>1697.403504</v>
       </c>
       <c r="LH8" t="n">
-        <v>2734.94101</v>
+        <v>2741.881061</v>
       </c>
       <c r="LI8" t="n">
-        <v>2780.192623</v>
+        <v>2772.505631</v>
       </c>
       <c r="LJ8" t="n">
-        <v>2625.094465</v>
+        <v>2631.574136</v>
       </c>
       <c r="LK8" t="n">
-        <v>2826.388063</v>
+        <v>2829.978617</v>
       </c>
       <c r="LL8" t="n">
-        <v>3233.830301</v>
+        <v>3232.11365</v>
       </c>
       <c r="LM8" t="n">
-        <v>2960.125854</v>
+        <v>2983.496244</v>
       </c>
       <c r="LN8" t="n">
-        <v>3573.597913</v>
+        <v>3569.366133</v>
       </c>
       <c r="LO8" t="n">
-        <v>3429.749845</v>
+        <v>3419.90545</v>
       </c>
       <c r="LP8" t="n">
-        <v>3028.881094</v>
+        <v>3012.197228</v>
       </c>
       <c r="LQ8" t="n">
-        <v>3185.083918</v>
+        <v>3170.557747</v>
       </c>
       <c r="LR8" t="n">
-        <v>3227.449051</v>
+        <v>3231.167919</v>
       </c>
       <c r="LS8" t="n">
-        <v>2942.476565</v>
+        <v>2932.265238</v>
       </c>
       <c r="LT8" t="n">
-        <v>2684.878535</v>
+        <v>2689.602929</v>
       </c>
       <c r="LU8" t="n">
-        <v>3036.8066</v>
+        <v>3028.111452</v>
       </c>
       <c r="LV8" t="n">
-        <v>2923.869248</v>
+        <v>2936.915507</v>
       </c>
       <c r="LW8" t="n">
-        <v>3034.255437</v>
+        <v>3054.09738</v>
       </c>
       <c r="LX8" t="n">
-        <v>3747.578343</v>
+        <v>3743.787193</v>
       </c>
       <c r="LY8" t="n">
-        <v>3539.21534</v>
+        <v>3597.156167</v>
       </c>
       <c r="LZ8" t="n">
-        <v>3587.047579</v>
+        <v>3569.690764</v>
       </c>
       <c r="MA8" t="n">
-        <v>3573.674896</v>
+        <v>3552.789423</v>
       </c>
       <c r="MB8" t="n">
-        <v>3346.171733</v>
+        <v>3311.329757</v>
       </c>
       <c r="MC8" t="n">
-        <v>3259.170202</v>
+        <v>3232.503427</v>
       </c>
       <c r="MD8" t="n">
-        <v>3139.243105</v>
+        <v>3131.94941</v>
       </c>
       <c r="ME8" t="n">
-        <v>3734.450736</v>
+        <v>3711.674292</v>
       </c>
       <c r="MF8" t="n">
-        <v>3723.244326</v>
+        <v>3733.414824</v>
       </c>
       <c r="MG8" t="n">
-        <v>3674.922928</v>
+        <v>3671.558535</v>
       </c>
       <c r="MH8" t="n">
-        <v>4500.960807</v>
+        <v>4551.158976</v>
       </c>
       <c r="MI8" t="n">
-        <v>4302.531379</v>
+        <v>4378.898514</v>
       </c>
       <c r="MJ8" t="n">
-        <v>3536.680023</v>
+        <v>3527.331436</v>
       </c>
       <c r="MK8" t="n">
-        <v>3075.372093</v>
+        <v>3152.923595</v>
       </c>
       <c r="ML8" t="n">
-        <v>3636.290708</v>
+        <v>3593.454652</v>
       </c>
       <c r="MM8" t="n">
-        <v>3045.093543</v>
+        <v>3015.256588</v>
       </c>
       <c r="MN8" t="n">
-        <v>4107.628799</v>
+        <v>4039.477614</v>
       </c>
       <c r="MO8" t="n">
-        <v>3767.676522</v>
+        <v>3716.730428</v>
       </c>
       <c r="MP8" t="n">
-        <v>3682.580607</v>
+        <v>3661.156527</v>
       </c>
       <c r="MQ8" t="n">
-        <v>3453.995389</v>
+        <v>3424.593564</v>
       </c>
       <c r="MR8" t="n">
-        <v>3338.333045</v>
+        <v>3346.651254</v>
       </c>
       <c r="MS8" t="n">
-        <v>3279.671883</v>
+        <v>3287.083105</v>
       </c>
       <c r="MT8" t="n">
-        <v>2605.172459</v>
+        <v>2650.467805</v>
       </c>
       <c r="MU8" t="n">
-        <v>2823.523315</v>
+        <v>2904.130854</v>
       </c>
       <c r="MV8" t="n">
-        <v>2847.065884</v>
+        <v>2839.349669</v>
       </c>
       <c r="MW8" t="n">
-        <v>2721.249456</v>
+        <v>2798.474128</v>
       </c>
       <c r="MX8" t="n">
-        <v>2189.211709</v>
+        <v>2153.213937</v>
       </c>
       <c r="MY8" t="n">
-        <v>2330.030428</v>
+        <v>2264.01836</v>
       </c>
       <c r="MZ8" t="n">
-        <v>1811.129993</v>
+        <v>1778.558175</v>
       </c>
       <c r="NA8" t="n">
-        <v>1436.137814</v>
+        <v>1411.065543</v>
       </c>
       <c r="NB8" t="n">
-        <v>1568.497427</v>
+        <v>1551.656863</v>
       </c>
       <c r="NC8" t="n">
-        <v>1650.435608</v>
+        <v>1636.52095</v>
       </c>
       <c r="ND8" t="n">
-        <v>1778.286829</v>
+        <v>1773.993923</v>
       </c>
       <c r="NE8" t="n">
-        <v>1778.447423</v>
+        <v>1799.799436</v>
       </c>
       <c r="NF8" t="n">
-        <v>1835.366667</v>
+        <v>1879.003781</v>
       </c>
       <c r="NG8" t="n">
-        <v>1620.17172</v>
+        <v>1673.201362</v>
       </c>
       <c r="NH8" t="n">
-        <v>1875.524799</v>
+        <v>1866.967334</v>
       </c>
       <c r="NI8" t="n">
-        <v>1643.561791</v>
+        <v>1696.690958</v>
       </c>
       <c r="NJ8" t="n">
-        <v>2197.967761</v>
+        <v>2154.146282</v>
       </c>
       <c r="NK8" t="n">
-        <v>2104.983327</v>
+        <v>2069.366561</v>
       </c>
       <c r="NL8" t="n">
-        <v>2638.329265</v>
+        <v>2588.462635</v>
       </c>
       <c r="NM8" t="n">
-        <v>2773.584136</v>
+        <v>2721.455209</v>
       </c>
       <c r="NN8" t="n">
-        <v>2737.115037</v>
+        <v>2701.122946</v>
       </c>
       <c r="NO8" t="n">
-        <v>2937.078501</v>
+        <v>2912.743383</v>
       </c>
       <c r="NP8" t="n">
-        <v>3392.978306</v>
+        <v>3395.604749</v>
       </c>
       <c r="NQ8" t="n">
-        <v>3519.367123</v>
+        <v>3598.359692</v>
       </c>
       <c r="NR8" t="n">
-        <v>3659.910056</v>
+        <v>3777.989548</v>
       </c>
       <c r="NS8" t="n">
-        <v>3986.076855</v>
+        <v>4320.017761</v>
+      </c>
+      <c r="NT8" t="n">
+        <v>5239.473437</v>
+      </c>
+      <c r="NU8" t="n">
+        <v>5836.701263</v>
+      </c>
+      <c r="NV8" t="n">
+        <v>6056.535714</v>
       </c>
     </row>
     <row r="9">
@@ -9984,322 +10062,331 @@
         <v>3604.256948</v>
       </c>
       <c r="JR9" t="n">
-        <v>3726.894595</v>
+        <v>3728.694989</v>
       </c>
       <c r="JS9" t="n">
-        <v>3666.499459</v>
+        <v>3665.3226</v>
       </c>
       <c r="JT9" t="n">
-        <v>3563.477823</v>
+        <v>3563.373915</v>
       </c>
       <c r="JU9" t="n">
-        <v>3726.479139</v>
+        <v>3723.545304</v>
       </c>
       <c r="JV9" t="n">
-        <v>3762.581744</v>
+        <v>3769.869012</v>
       </c>
       <c r="JW9" t="n">
-        <v>3710.097931</v>
+        <v>3708.014753</v>
       </c>
       <c r="JX9" t="n">
-        <v>3627.784435</v>
+        <v>3627.619193</v>
       </c>
       <c r="JY9" t="n">
-        <v>3697.752045</v>
+        <v>3698.493896</v>
       </c>
       <c r="JZ9" t="n">
-        <v>3670.605762</v>
+        <v>3668.781541</v>
       </c>
       <c r="KA9" t="n">
-        <v>3637.26822</v>
+        <v>3636.413038</v>
       </c>
       <c r="KB9" t="n">
-        <v>3647.299325</v>
+        <v>3646.39171</v>
       </c>
       <c r="KC9" t="n">
-        <v>3759.221991</v>
+        <v>3755.095555</v>
       </c>
       <c r="KD9" t="n">
-        <v>3668.694711</v>
+        <v>3670.732269</v>
       </c>
       <c r="KE9" t="n">
-        <v>3709.587588</v>
+        <v>3708.578996</v>
       </c>
       <c r="KF9" t="n">
-        <v>3668.017657</v>
+        <v>3665.025304</v>
       </c>
       <c r="KG9" t="n">
-        <v>3653.977025</v>
+        <v>3653.643902</v>
       </c>
       <c r="KH9" t="n">
-        <v>3605.976519</v>
+        <v>3612.447604</v>
       </c>
       <c r="KI9" t="n">
-        <v>3544.19069</v>
+        <v>3542.427652</v>
       </c>
       <c r="KJ9" t="n">
-        <v>3620.763068</v>
+        <v>3620.051808</v>
       </c>
       <c r="KK9" t="n">
-        <v>3617.192935</v>
+        <v>3615.15788</v>
       </c>
       <c r="KL9" t="n">
-        <v>3616.231129</v>
+        <v>3614.359149</v>
       </c>
       <c r="KM9" t="n">
-        <v>3651.94657</v>
+        <v>3654.885271</v>
       </c>
       <c r="KN9" t="n">
-        <v>3636.050641</v>
+        <v>3636.723458</v>
       </c>
       <c r="KO9" t="n">
-        <v>3673.699791</v>
+        <v>3675.156162</v>
       </c>
       <c r="KP9" t="n">
-        <v>3647.855265</v>
+        <v>3649.146336</v>
       </c>
       <c r="KQ9" t="n">
-        <v>3674.604439</v>
+        <v>3673.99675</v>
       </c>
       <c r="KR9" t="n">
-        <v>3811.411789</v>
+        <v>3807.761399</v>
       </c>
       <c r="KS9" t="n">
-        <v>3731.348197</v>
+        <v>3732.300751</v>
       </c>
       <c r="KT9" t="n">
-        <v>3679.952675</v>
+        <v>3676.613992</v>
       </c>
       <c r="KU9" t="n">
-        <v>3744.501972</v>
+        <v>3742.922435</v>
       </c>
       <c r="KV9" t="n">
-        <v>3730.90965</v>
+        <v>3734.453331</v>
       </c>
       <c r="KW9" t="n">
-        <v>3690.309762</v>
+        <v>3689.292584</v>
       </c>
       <c r="KX9" t="n">
-        <v>3837.682446</v>
+        <v>3838.229179</v>
       </c>
       <c r="KY9" t="n">
-        <v>3700.149627</v>
+        <v>3701.004186</v>
       </c>
       <c r="KZ9" t="n">
-        <v>3772.13791</v>
+        <v>3772.895214</v>
       </c>
       <c r="LA9" t="n">
-        <v>3717.09766</v>
+        <v>3716.74875</v>
       </c>
       <c r="LB9" t="n">
-        <v>3741.64873</v>
+        <v>3738.59258</v>
       </c>
       <c r="LC9" t="n">
-        <v>3734.246016</v>
+        <v>3733.901096</v>
       </c>
       <c r="LD9" t="n">
-        <v>3622.151213</v>
+        <v>3620.381736</v>
       </c>
       <c r="LE9" t="n">
-        <v>3630.537937</v>
+        <v>3631.113596</v>
       </c>
       <c r="LF9" t="n">
-        <v>3531.116996</v>
+        <v>3529.244023</v>
       </c>
       <c r="LG9" t="n">
-        <v>3650.139361</v>
+        <v>3651.470931</v>
       </c>
       <c r="LH9" t="n">
-        <v>3742.19646</v>
+        <v>3741.574964</v>
       </c>
       <c r="LI9" t="n">
-        <v>3751.278617</v>
+        <v>3753.145342</v>
       </c>
       <c r="LJ9" t="n">
-        <v>3812.038102</v>
+        <v>3814.385699</v>
       </c>
       <c r="LK9" t="n">
-        <v>3816.686275</v>
+        <v>3815.180404</v>
       </c>
       <c r="LL9" t="n">
-        <v>3798.919637</v>
+        <v>3804.195082</v>
       </c>
       <c r="LM9" t="n">
-        <v>3862.000081</v>
+        <v>3865.717007</v>
       </c>
       <c r="LN9" t="n">
-        <v>3862.988525</v>
+        <v>3859.214057</v>
       </c>
       <c r="LO9" t="n">
-        <v>3819.205713</v>
+        <v>3817.97235</v>
       </c>
       <c r="LP9" t="n">
-        <v>3894.437853</v>
+        <v>3894.90093</v>
       </c>
       <c r="LQ9" t="n">
-        <v>3963.207888</v>
+        <v>3959.476185</v>
       </c>
       <c r="LR9" t="n">
-        <v>3941.011681</v>
+        <v>3939.857804</v>
       </c>
       <c r="LS9" t="n">
-        <v>4005.778872</v>
+        <v>4006.055238</v>
       </c>
       <c r="LT9" t="n">
-        <v>3972.120848</v>
+        <v>3966.223204</v>
       </c>
       <c r="LU9" t="n">
-        <v>4077.054948</v>
+        <v>4080.093878</v>
       </c>
       <c r="LV9" t="n">
-        <v>4031.574114</v>
+        <v>4034.863753</v>
       </c>
       <c r="LW9" t="n">
-        <v>4015.157651</v>
+        <v>4015.703916</v>
       </c>
       <c r="LX9" t="n">
-        <v>4000.437223</v>
+        <v>4010.35347</v>
       </c>
       <c r="LY9" t="n">
-        <v>4043.943221</v>
+        <v>4046.93239</v>
       </c>
       <c r="LZ9" t="n">
-        <v>3925.83775</v>
+        <v>3922.04439</v>
       </c>
       <c r="MA9" t="n">
-        <v>3966.798678</v>
+        <v>3961.887608</v>
       </c>
       <c r="MB9" t="n">
-        <v>3980.018456</v>
+        <v>3976.298815</v>
       </c>
       <c r="MC9" t="n">
-        <v>3983.599557</v>
+        <v>3979.438498</v>
       </c>
       <c r="MD9" t="n">
-        <v>3979.420017</v>
+        <v>3978.745713</v>
       </c>
       <c r="ME9" t="n">
-        <v>4121.975577</v>
+        <v>4120.887968</v>
       </c>
       <c r="MF9" t="n">
-        <v>4001.051673</v>
+        <v>3997.421676</v>
       </c>
       <c r="MG9" t="n">
-        <v>4020.409175</v>
+        <v>4023.983485</v>
       </c>
       <c r="MH9" t="n">
-        <v>3961.133947</v>
+        <v>3963.739835</v>
       </c>
       <c r="MI9" t="n">
-        <v>3985.498135</v>
+        <v>3992.113753</v>
       </c>
       <c r="MJ9" t="n">
-        <v>3891.907923</v>
+        <v>3906.765216</v>
       </c>
       <c r="MK9" t="n">
-        <v>4002.971146</v>
+        <v>4010.577467</v>
       </c>
       <c r="ML9" t="n">
-        <v>4075.361112</v>
+        <v>4062.401718</v>
       </c>
       <c r="MM9" t="n">
-        <v>4123.024929</v>
+        <v>4112.553287</v>
       </c>
       <c r="MN9" t="n">
-        <v>4082.7673</v>
+        <v>4077.418205</v>
       </c>
       <c r="MO9" t="n">
-        <v>4140.810926</v>
+        <v>4135.629226</v>
       </c>
       <c r="MP9" t="n">
-        <v>4210.770628</v>
+        <v>4206.700526</v>
       </c>
       <c r="MQ9" t="n">
-        <v>4047.396295</v>
+        <v>4042.323788</v>
       </c>
       <c r="MR9" t="n">
-        <v>4070.308628</v>
+        <v>4068.499353</v>
       </c>
       <c r="MS9" t="n">
-        <v>4149.092634</v>
+        <v>4152.732907</v>
       </c>
       <c r="MT9" t="n">
-        <v>4203.707168</v>
+        <v>4209.499847</v>
       </c>
       <c r="MU9" t="n">
-        <v>4028.20273</v>
+        <v>4039.461641</v>
       </c>
       <c r="MV9" t="n">
-        <v>3989.098456</v>
+        <v>4003.626501</v>
       </c>
       <c r="MW9" t="n">
-        <v>3994.532163</v>
+        <v>4007.919088</v>
       </c>
       <c r="MX9" t="n">
-        <v>4051.054743</v>
+        <v>4027.357918</v>
       </c>
       <c r="MY9" t="n">
-        <v>4076.370013</v>
+        <v>4058.65179</v>
       </c>
       <c r="MZ9" t="n">
-        <v>3837.081753</v>
+        <v>3828.582668</v>
       </c>
       <c r="NA9" t="n">
-        <v>3335.370467</v>
+        <v>3334.106978</v>
       </c>
       <c r="NB9" t="n">
-        <v>3493.864249</v>
+        <v>3490.277263</v>
       </c>
       <c r="NC9" t="n">
-        <v>3853.287099</v>
+        <v>3851.938257</v>
       </c>
       <c r="ND9" t="n">
-        <v>4028.555867</v>
+        <v>4031.020373</v>
       </c>
       <c r="NE9" t="n">
-        <v>3939.610251</v>
+        <v>3942.176958</v>
       </c>
       <c r="NF9" t="n">
-        <v>3878.019627</v>
+        <v>3890.114647</v>
       </c>
       <c r="NG9" t="n">
-        <v>3987.104075</v>
+        <v>4000.285715</v>
       </c>
       <c r="NH9" t="n">
-        <v>4071.72793</v>
+        <v>4087.125094</v>
       </c>
       <c r="NI9" t="n">
-        <v>4017.327915</v>
+        <v>4042.538805</v>
       </c>
       <c r="NJ9" t="n">
-        <v>4066.303736</v>
+        <v>4043.895551</v>
       </c>
       <c r="NK9" t="n">
-        <v>4065.767305</v>
+        <v>4068.439024</v>
       </c>
       <c r="NL9" t="n">
-        <v>4279.11067</v>
+        <v>4287.374219</v>
       </c>
       <c r="NM9" t="n">
-        <v>4411.107694</v>
+        <v>4423.380592</v>
       </c>
       <c r="NN9" t="n">
-        <v>4481.217349</v>
+        <v>4492.201578</v>
       </c>
       <c r="NO9" t="n">
-        <v>4569.054148</v>
+        <v>4581.791365</v>
       </c>
       <c r="NP9" t="n">
-        <v>4489.354461</v>
+        <v>4494.58655</v>
       </c>
       <c r="NQ9" t="n">
-        <v>4565.915218</v>
+        <v>4580.104278</v>
       </c>
       <c r="NR9" t="n">
-        <v>4499.192138</v>
+        <v>4523.787997</v>
       </c>
       <c r="NS9" t="n">
-        <v>4523.964904</v>
+        <v>4550.746615</v>
+      </c>
+      <c r="NT9" t="n">
+        <v>4650.327509</v>
+      </c>
+      <c r="NU9" t="n">
+        <v>4531.226492</v>
+      </c>
+      <c r="NV9" t="n">
+        <v>4768.509987</v>
       </c>
     </row>
     <row r="10">
@@ -10897,322 +10984,331 @@
         <v>3160.140114</v>
       </c>
       <c r="JR10" t="n">
-        <v>3115.568515</v>
+        <v>3115.764573</v>
       </c>
       <c r="JS10" t="n">
-        <v>3142.962926</v>
+        <v>3143.017691</v>
       </c>
       <c r="JT10" t="n">
-        <v>3032.032116</v>
+        <v>3032.068215</v>
       </c>
       <c r="JU10" t="n">
-        <v>3186.728662</v>
+        <v>3186.195011</v>
       </c>
       <c r="JV10" t="n">
-        <v>3177.322715</v>
+        <v>3177.857701</v>
       </c>
       <c r="JW10" t="n">
-        <v>3065.194152</v>
+        <v>3065.970657</v>
       </c>
       <c r="JX10" t="n">
-        <v>3091.017378</v>
+        <v>3089.189582</v>
       </c>
       <c r="JY10" t="n">
-        <v>3104.248228</v>
+        <v>3104.084495</v>
       </c>
       <c r="JZ10" t="n">
-        <v>3132.109508</v>
+        <v>3132.581041</v>
       </c>
       <c r="KA10" t="n">
-        <v>3143.217811</v>
+        <v>3144.066011</v>
       </c>
       <c r="KB10" t="n">
-        <v>3173.254505</v>
+        <v>3173.438837</v>
       </c>
       <c r="KC10" t="n">
-        <v>3204.018405</v>
+        <v>3204.153538</v>
       </c>
       <c r="KD10" t="n">
-        <v>3105.153154</v>
+        <v>3105.430194</v>
       </c>
       <c r="KE10" t="n">
-        <v>3197.565034</v>
+        <v>3197.669147</v>
       </c>
       <c r="KF10" t="n">
-        <v>3133.800079</v>
+        <v>3134.198321</v>
       </c>
       <c r="KG10" t="n">
-        <v>3103.813</v>
+        <v>3102.705791</v>
       </c>
       <c r="KH10" t="n">
-        <v>3128.658925</v>
+        <v>3126.698169</v>
       </c>
       <c r="KI10" t="n">
-        <v>3221.557177</v>
+        <v>3222.271732</v>
       </c>
       <c r="KJ10" t="n">
-        <v>3183.827607</v>
+        <v>3183.138685</v>
       </c>
       <c r="KK10" t="n">
-        <v>3108.299888</v>
+        <v>3109.131707</v>
       </c>
       <c r="KL10" t="n">
-        <v>3193.701299</v>
+        <v>3193.160547</v>
       </c>
       <c r="KM10" t="n">
-        <v>3122.716005</v>
+        <v>3123.592894</v>
       </c>
       <c r="KN10" t="n">
-        <v>3139.980455</v>
+        <v>3140.732474</v>
       </c>
       <c r="KO10" t="n">
-        <v>3201.206381</v>
+        <v>3198.836958</v>
       </c>
       <c r="KP10" t="n">
-        <v>3163.194007</v>
+        <v>3162.68648</v>
       </c>
       <c r="KQ10" t="n">
-        <v>3178.557645</v>
+        <v>3178.83483</v>
       </c>
       <c r="KR10" t="n">
-        <v>3247.975347</v>
+        <v>3247.283411</v>
       </c>
       <c r="KS10" t="n">
-        <v>3256.444525</v>
+        <v>3256.841231</v>
       </c>
       <c r="KT10" t="n">
-        <v>3243.883412</v>
+        <v>3244.664778</v>
       </c>
       <c r="KU10" t="n">
-        <v>3245.245067</v>
+        <v>3244.469779</v>
       </c>
       <c r="KV10" t="n">
-        <v>3265.320015</v>
+        <v>3265.150875</v>
       </c>
       <c r="KW10" t="n">
-        <v>3200.618843</v>
+        <v>3201.909196</v>
       </c>
       <c r="KX10" t="n">
-        <v>3198.254984</v>
+        <v>3196.85322</v>
       </c>
       <c r="KY10" t="n">
-        <v>3293.756266</v>
+        <v>3295.746367</v>
       </c>
       <c r="KZ10" t="n">
-        <v>3263.25719</v>
+        <v>3263.939221</v>
       </c>
       <c r="LA10" t="n">
-        <v>3249.726746</v>
+        <v>3250.141029</v>
       </c>
       <c r="LB10" t="n">
-        <v>3347.251286</v>
+        <v>3346.56381</v>
       </c>
       <c r="LC10" t="n">
-        <v>3303.473356</v>
+        <v>3303.918826</v>
       </c>
       <c r="LD10" t="n">
-        <v>3144.110689</v>
+        <v>3144.106712</v>
       </c>
       <c r="LE10" t="n">
-        <v>3269.183082</v>
+        <v>3268.308148</v>
       </c>
       <c r="LF10" t="n">
-        <v>3173.551596</v>
+        <v>3172.223341</v>
       </c>
       <c r="LG10" t="n">
-        <v>3239.806254</v>
+        <v>3240.224938</v>
       </c>
       <c r="LH10" t="n">
-        <v>3217.107021</v>
+        <v>3215.461701</v>
       </c>
       <c r="LI10" t="n">
-        <v>3342.48356</v>
+        <v>3342.865709</v>
       </c>
       <c r="LJ10" t="n">
-        <v>3333.216327</v>
+        <v>3333.426907</v>
       </c>
       <c r="LK10" t="n">
-        <v>3343.963383</v>
+        <v>3346.613698</v>
       </c>
       <c r="LL10" t="n">
-        <v>3388.664353</v>
+        <v>3388.68856</v>
       </c>
       <c r="LM10" t="n">
-        <v>3419.600181</v>
+        <v>3420.957348</v>
       </c>
       <c r="LN10" t="n">
-        <v>3343.490902</v>
+        <v>3338.754997</v>
       </c>
       <c r="LO10" t="n">
-        <v>3389.679911</v>
+        <v>3390.335969</v>
       </c>
       <c r="LP10" t="n">
-        <v>3449.760717</v>
+        <v>3449.571494</v>
       </c>
       <c r="LQ10" t="n">
-        <v>3394.193665</v>
+        <v>3394.150809</v>
       </c>
       <c r="LR10" t="n">
-        <v>3558.249391</v>
+        <v>3556.264279</v>
       </c>
       <c r="LS10" t="n">
-        <v>3541.01467</v>
+        <v>3542.118996</v>
       </c>
       <c r="LT10" t="n">
-        <v>3565.147329</v>
+        <v>3566.002687</v>
       </c>
       <c r="LU10" t="n">
-        <v>3603.512394</v>
+        <v>3606.483529</v>
       </c>
       <c r="LV10" t="n">
-        <v>3565.6047</v>
+        <v>3565.58333</v>
       </c>
       <c r="LW10" t="n">
-        <v>3578.950464</v>
+        <v>3582.726918</v>
       </c>
       <c r="LX10" t="n">
-        <v>3549.558531</v>
+        <v>3550.322823</v>
       </c>
       <c r="LY10" t="n">
-        <v>3555.142795</v>
+        <v>3555.371625</v>
       </c>
       <c r="LZ10" t="n">
-        <v>3606.182599</v>
+        <v>3596.391798</v>
       </c>
       <c r="MA10" t="n">
-        <v>3471.828445</v>
+        <v>3472.538552</v>
       </c>
       <c r="MB10" t="n">
-        <v>3488.014565</v>
+        <v>3488.92262</v>
       </c>
       <c r="MC10" t="n">
-        <v>3564.507585</v>
+        <v>3563.480135</v>
       </c>
       <c r="MD10" t="n">
-        <v>3592.287762</v>
+        <v>3593.107055</v>
       </c>
       <c r="ME10" t="n">
-        <v>3504.062536</v>
+        <v>3504.861513</v>
       </c>
       <c r="MF10" t="n">
-        <v>3523.876962</v>
+        <v>3523.889343</v>
       </c>
       <c r="MG10" t="n">
-        <v>3532.823759</v>
+        <v>3537.401059</v>
       </c>
       <c r="MH10" t="n">
-        <v>3533.652071</v>
+        <v>3536.022227</v>
       </c>
       <c r="MI10" t="n">
-        <v>3508.470085</v>
+        <v>3515.433582</v>
       </c>
       <c r="MJ10" t="n">
-        <v>3573.767707</v>
+        <v>3573.02335</v>
       </c>
       <c r="MK10" t="n">
-        <v>3585.37936</v>
+        <v>3586.10979</v>
       </c>
       <c r="ML10" t="n">
-        <v>3634.852803</v>
+        <v>3618.796607</v>
       </c>
       <c r="MM10" t="n">
-        <v>3634.556957</v>
+        <v>3634.080812</v>
       </c>
       <c r="MN10" t="n">
-        <v>3629.755839</v>
+        <v>3629.09478</v>
       </c>
       <c r="MO10" t="n">
-        <v>3597.232429</v>
+        <v>3594.332682</v>
       </c>
       <c r="MP10" t="n">
-        <v>3616.565453</v>
+        <v>3616.421439</v>
       </c>
       <c r="MQ10" t="n">
-        <v>3527.365033</v>
+        <v>3529.238785</v>
       </c>
       <c r="MR10" t="n">
-        <v>3565.650675</v>
+        <v>3565.497694</v>
       </c>
       <c r="MS10" t="n">
-        <v>3575.692957</v>
+        <v>3580.952416</v>
       </c>
       <c r="MT10" t="n">
-        <v>3568.941667</v>
+        <v>3572.274871</v>
       </c>
       <c r="MU10" t="n">
-        <v>3621.045331</v>
+        <v>3633.572943</v>
       </c>
       <c r="MV10" t="n">
-        <v>3586.818155</v>
+        <v>3584.626128</v>
       </c>
       <c r="MW10" t="n">
-        <v>3554.592969</v>
+        <v>3550.367107</v>
       </c>
       <c r="MX10" t="n">
-        <v>3552.824746</v>
+        <v>3531.353058</v>
       </c>
       <c r="MY10" t="n">
-        <v>3714.448259</v>
+        <v>3712.289826</v>
       </c>
       <c r="MZ10" t="n">
-        <v>3448.145643</v>
+        <v>3446.923911</v>
       </c>
       <c r="NA10" t="n">
-        <v>3206.057865</v>
+        <v>3203.716626</v>
       </c>
       <c r="NB10" t="n">
-        <v>3253.98832</v>
+        <v>3253.924102</v>
       </c>
       <c r="NC10" t="n">
-        <v>3562.071059</v>
+        <v>3563.284772</v>
       </c>
       <c r="ND10" t="n">
-        <v>3599.303518</v>
+        <v>3602.369801</v>
       </c>
       <c r="NE10" t="n">
-        <v>3579.316087</v>
+        <v>3586.408618</v>
       </c>
       <c r="NF10" t="n">
-        <v>3597.424201</v>
+        <v>3601.99668</v>
       </c>
       <c r="NG10" t="n">
-        <v>3523.433562</v>
+        <v>3541.967658</v>
       </c>
       <c r="NH10" t="n">
-        <v>3420.284151</v>
+        <v>3414.969452</v>
       </c>
       <c r="NI10" t="n">
-        <v>3439.146482</v>
+        <v>3433.011482</v>
       </c>
       <c r="NJ10" t="n">
-        <v>3488.012734</v>
+        <v>3460.835049</v>
       </c>
       <c r="NK10" t="n">
-        <v>3579.804784</v>
+        <v>3576.616877</v>
       </c>
       <c r="NL10" t="n">
-        <v>3732.036468</v>
+        <v>3730.521292</v>
       </c>
       <c r="NM10" t="n">
-        <v>3708.879822</v>
+        <v>3708.009923</v>
       </c>
       <c r="NN10" t="n">
-        <v>3723.108822</v>
+        <v>3723.457758</v>
       </c>
       <c r="NO10" t="n">
-        <v>3876.263929</v>
+        <v>3878.361144</v>
       </c>
       <c r="NP10" t="n">
-        <v>3824.149035</v>
+        <v>3830.632281</v>
       </c>
       <c r="NQ10" t="n">
-        <v>3881.032404</v>
+        <v>3884.589569</v>
       </c>
       <c r="NR10" t="n">
-        <v>3886.030818</v>
+        <v>3890.239384</v>
       </c>
       <c r="NS10" t="n">
-        <v>3981.260483</v>
+        <v>4011.558785</v>
+      </c>
+      <c r="NT10" t="n">
+        <v>4114.988595</v>
+      </c>
+      <c r="NU10" t="n">
+        <v>4186.356821</v>
+      </c>
+      <c r="NV10" t="n">
+        <v>4163.936844</v>
       </c>
     </row>
     <row r="11">
@@ -12023,109 +12119,118 @@
         <v>733.630123</v>
       </c>
       <c r="MK11" t="n">
-        <v>945.739785</v>
+        <v>945.740413</v>
       </c>
       <c r="ML11" t="n">
-        <v>647.555148</v>
+        <v>647.556503</v>
       </c>
       <c r="MM11" t="n">
-        <v>819.097398</v>
+        <v>819.099631</v>
       </c>
       <c r="MN11" t="n">
-        <v>788.05819</v>
+        <v>788.061068</v>
       </c>
       <c r="MO11" t="n">
-        <v>781.7964480000001</v>
+        <v>781.800053</v>
       </c>
       <c r="MP11" t="n">
-        <v>691.9349580000001</v>
+        <v>691.9390529999999</v>
       </c>
       <c r="MQ11" t="n">
-        <v>597.050609</v>
+        <v>597.055516</v>
       </c>
       <c r="MR11" t="n">
-        <v>719.104375</v>
+        <v>719.110783</v>
       </c>
       <c r="MS11" t="n">
-        <v>597.033605</v>
+        <v>597.040269</v>
       </c>
       <c r="MT11" t="n">
-        <v>784.566238</v>
+        <v>784.57805</v>
       </c>
       <c r="MU11" t="n">
-        <v>544.4823270000001</v>
+        <v>544.49163</v>
       </c>
       <c r="MV11" t="n">
-        <v>623.485897</v>
+        <v>623.49803</v>
       </c>
       <c r="MW11" t="n">
-        <v>601.824513</v>
+        <v>601.835192</v>
       </c>
       <c r="MX11" t="n">
-        <v>534.63783</v>
+        <v>534.651235</v>
       </c>
       <c r="MY11" t="n">
-        <v>534.3885320000001</v>
+        <v>534.40142</v>
       </c>
       <c r="MZ11" t="n">
-        <v>378.408297</v>
+        <v>378.419463</v>
       </c>
       <c r="NA11" t="n">
-        <v>276.533922</v>
+        <v>276.545823</v>
       </c>
       <c r="NB11" t="n">
-        <v>219.817728</v>
+        <v>219.789362</v>
       </c>
       <c r="NC11" t="n">
-        <v>299.81312</v>
+        <v>299.732567</v>
       </c>
       <c r="ND11" t="n">
-        <v>411.878916</v>
+        <v>411.768726</v>
       </c>
       <c r="NE11" t="n">
-        <v>328.120998</v>
+        <v>328.025384</v>
       </c>
       <c r="NF11" t="n">
-        <v>382.898651</v>
+        <v>382.741623</v>
       </c>
       <c r="NG11" t="n">
-        <v>367.525328</v>
+        <v>367.345636</v>
       </c>
       <c r="NH11" t="n">
-        <v>468.741979</v>
+        <v>468.436027</v>
       </c>
       <c r="NI11" t="n">
-        <v>423.29256</v>
+        <v>422.943099</v>
       </c>
       <c r="NJ11" t="n">
-        <v>350.283265</v>
+        <v>350.008939</v>
       </c>
       <c r="NK11" t="n">
-        <v>435.367212</v>
+        <v>435.019501</v>
       </c>
       <c r="NL11" t="n">
-        <v>561.20321</v>
+        <v>560.760002</v>
       </c>
       <c r="NM11" t="n">
-        <v>555.771789</v>
+        <v>555.339757</v>
       </c>
       <c r="NN11" t="n">
-        <v>446.980842</v>
+        <v>446.668484</v>
       </c>
       <c r="NO11" t="n">
-        <v>482.54483</v>
+        <v>482.182648</v>
       </c>
       <c r="NP11" t="n">
-        <v>589.490734</v>
+        <v>589.054018</v>
       </c>
       <c r="NQ11" t="n">
-        <v>717.270597</v>
+        <v>717.204842</v>
       </c>
       <c r="NR11" t="n">
-        <v>500.77389</v>
+        <v>502.557197</v>
       </c>
       <c r="NS11" t="n">
-        <v>680.571583</v>
+        <v>705.350426</v>
+      </c>
+      <c r="NT11" t="n">
+        <v>722.687441</v>
+      </c>
+      <c r="NU11" t="n">
+        <v>802.492371</v>
+      </c>
+      <c r="NV11" t="n">
+        <v>637.700115</v>
       </c>
     </row>
     <row r="12">
@@ -12723,322 +12828,331 @@
         <v>2738.330601</v>
       </c>
       <c r="JR12" t="n">
-        <v>2814.067991</v>
+        <v>2812.405783</v>
       </c>
       <c r="JS12" t="n">
-        <v>2584.952429</v>
+        <v>2585.227711</v>
       </c>
       <c r="JT12" t="n">
-        <v>2396.38262</v>
+        <v>2398.398233</v>
       </c>
       <c r="JU12" t="n">
-        <v>2378.165451</v>
+        <v>2377.535026</v>
       </c>
       <c r="JV12" t="n">
-        <v>2302.860635</v>
+        <v>2302.192644</v>
       </c>
       <c r="JW12" t="n">
-        <v>2152.77134</v>
+        <v>2153.679267</v>
       </c>
       <c r="JX12" t="n">
-        <v>2388.587221</v>
+        <v>2389.104294</v>
       </c>
       <c r="JY12" t="n">
-        <v>2198.872618</v>
+        <v>2199.395319</v>
       </c>
       <c r="JZ12" t="n">
-        <v>2455.40839</v>
+        <v>2454.875526</v>
       </c>
       <c r="KA12" t="n">
-        <v>2668.612459</v>
+        <v>2668.953187</v>
       </c>
       <c r="KB12" t="n">
-        <v>2597.632163</v>
+        <v>2595.204827</v>
       </c>
       <c r="KC12" t="n">
-        <v>2469.482666</v>
+        <v>2469.444794</v>
       </c>
       <c r="KD12" t="n">
-        <v>3083.232854</v>
+        <v>3081.725229</v>
       </c>
       <c r="KE12" t="n">
-        <v>2252.113523</v>
+        <v>2251.748865</v>
       </c>
       <c r="KF12" t="n">
-        <v>2041.897171</v>
+        <v>2043.530542</v>
       </c>
       <c r="KG12" t="n">
-        <v>2425.131759</v>
+        <v>2423.829825</v>
       </c>
       <c r="KH12" t="n">
-        <v>2368.371621</v>
+        <v>2366.83293</v>
       </c>
       <c r="KI12" t="n">
-        <v>2287.781283</v>
+        <v>2290.311767</v>
       </c>
       <c r="KJ12" t="n">
-        <v>2386.316062</v>
+        <v>2388.011037</v>
       </c>
       <c r="KK12" t="n">
-        <v>2447.902027</v>
+        <v>2446.879596</v>
       </c>
       <c r="KL12" t="n">
-        <v>2246.045705</v>
+        <v>2245.624719</v>
       </c>
       <c r="KM12" t="n">
-        <v>1919.107272</v>
+        <v>1919.339045</v>
       </c>
       <c r="KN12" t="n">
-        <v>2035.409223</v>
+        <v>2034.292573</v>
       </c>
       <c r="KO12" t="n">
-        <v>1746.932237</v>
+        <v>1746.823195</v>
       </c>
       <c r="KP12" t="n">
-        <v>1721.897471</v>
+        <v>1721.043475</v>
       </c>
       <c r="KQ12" t="n">
-        <v>1272.864398</v>
+        <v>1272.078963</v>
       </c>
       <c r="KR12" t="n">
-        <v>1951.647708</v>
+        <v>1952.770137</v>
       </c>
       <c r="KS12" t="n">
-        <v>1833.13697</v>
+        <v>1831.669792</v>
       </c>
       <c r="KT12" t="n">
-        <v>1655.459484</v>
+        <v>1653.273881</v>
       </c>
       <c r="KU12" t="n">
-        <v>1853.74622</v>
+        <v>1858.180394</v>
       </c>
       <c r="KV12" t="n">
-        <v>1771.062815</v>
+        <v>1773.868191</v>
       </c>
       <c r="KW12" t="n">
-        <v>1648.029616</v>
+        <v>1647.157949</v>
       </c>
       <c r="KX12" t="n">
-        <v>1639.159719</v>
+        <v>1638.538644</v>
       </c>
       <c r="KY12" t="n">
-        <v>1562.78537</v>
+        <v>1562.630086</v>
       </c>
       <c r="KZ12" t="n">
-        <v>1431.360041</v>
+        <v>1430.837171</v>
       </c>
       <c r="LA12" t="n">
-        <v>1418.852223</v>
+        <v>1418.551659</v>
       </c>
       <c r="LB12" t="n">
-        <v>1192.711067</v>
+        <v>1191.963455</v>
       </c>
       <c r="LC12" t="n">
-        <v>1262.695139</v>
+        <v>1261.478924</v>
       </c>
       <c r="LD12" t="n">
-        <v>1074.847764</v>
+        <v>1074.692363</v>
       </c>
       <c r="LE12" t="n">
-        <v>1149.038566</v>
+        <v>1148.267366</v>
       </c>
       <c r="LF12" t="n">
-        <v>1382.182101</v>
+        <v>1381.688795</v>
       </c>
       <c r="LG12" t="n">
-        <v>1492.74694</v>
+        <v>1496.846635</v>
       </c>
       <c r="LH12" t="n">
-        <v>1325.787243</v>
+        <v>1328.504869</v>
       </c>
       <c r="LI12" t="n">
-        <v>1357.471249</v>
+        <v>1356.390595</v>
       </c>
       <c r="LJ12" t="n">
-        <v>1309.113342</v>
+        <v>1307.991626</v>
       </c>
       <c r="LK12" t="n">
-        <v>1126.474261</v>
+        <v>1125.553408</v>
       </c>
       <c r="LL12" t="n">
-        <v>1366.71993</v>
+        <v>1365.715034</v>
       </c>
       <c r="LM12" t="n">
-        <v>1582.620343</v>
+        <v>1582.418861</v>
       </c>
       <c r="LN12" t="n">
-        <v>1570.124489</v>
+        <v>1570.344438</v>
       </c>
       <c r="LO12" t="n">
-        <v>2035.535789</v>
+        <v>2034.522346</v>
       </c>
       <c r="LP12" t="n">
-        <v>1652.801605</v>
+        <v>1652.955264</v>
       </c>
       <c r="LQ12" t="n">
-        <v>1382.906465</v>
+        <v>1382.068554</v>
       </c>
       <c r="LR12" t="n">
-        <v>1412.730734</v>
+        <v>1412.927056</v>
       </c>
       <c r="LS12" t="n">
-        <v>1139.763687</v>
+        <v>1143.089801</v>
       </c>
       <c r="LT12" t="n">
-        <v>1561.40135</v>
+        <v>1564.954065</v>
       </c>
       <c r="LU12" t="n">
-        <v>1299.456536</v>
+        <v>1298.15596</v>
       </c>
       <c r="LV12" t="n">
-        <v>1548.984775</v>
+        <v>1543.442936</v>
       </c>
       <c r="LW12" t="n">
-        <v>1595.533551</v>
+        <v>1594.072723</v>
       </c>
       <c r="LX12" t="n">
-        <v>1676.705796</v>
+        <v>1672.930228</v>
       </c>
       <c r="LY12" t="n">
-        <v>1696.054921</v>
+        <v>1695.349826</v>
       </c>
       <c r="LZ12" t="n">
-        <v>1755.268059</v>
+        <v>1757.280527</v>
       </c>
       <c r="MA12" t="n">
-        <v>1598.966598</v>
+        <v>1601.923249</v>
       </c>
       <c r="MB12" t="n">
-        <v>1575.524966</v>
+        <v>1576.295164</v>
       </c>
       <c r="MC12" t="n">
-        <v>2044.416504</v>
+        <v>2046.180683</v>
       </c>
       <c r="MD12" t="n">
-        <v>2065.109</v>
+        <v>2066.631923</v>
       </c>
       <c r="ME12" t="n">
-        <v>2078.995005</v>
+        <v>2085.045403</v>
       </c>
       <c r="MF12" t="n">
-        <v>1917.539354</v>
+        <v>1922.758639</v>
       </c>
       <c r="MG12" t="n">
-        <v>2151.225179</v>
+        <v>2147.772251</v>
       </c>
       <c r="MH12" t="n">
-        <v>1942.348433</v>
+        <v>1925.773736</v>
       </c>
       <c r="MI12" t="n">
-        <v>1978.003676</v>
+        <v>1974.834908</v>
       </c>
       <c r="MJ12" t="n">
-        <v>1808.984401</v>
+        <v>1796.598434</v>
       </c>
       <c r="MK12" t="n">
-        <v>1869.759075</v>
+        <v>1869.91394</v>
       </c>
       <c r="ML12" t="n">
-        <v>1806.993173</v>
+        <v>1817.608609</v>
       </c>
       <c r="MM12" t="n">
-        <v>1809.820071</v>
+        <v>1818.593793</v>
       </c>
       <c r="MN12" t="n">
-        <v>1974.701223</v>
+        <v>1978.294194</v>
       </c>
       <c r="MO12" t="n">
-        <v>1994.778421</v>
+        <v>2000.197487</v>
       </c>
       <c r="MP12" t="n">
-        <v>1973.058269</v>
+        <v>1977.377487</v>
       </c>
       <c r="MQ12" t="n">
-        <v>1953.636682</v>
+        <v>1958.105461</v>
       </c>
       <c r="MR12" t="n">
-        <v>1941.997742</v>
+        <v>1945.604468</v>
       </c>
       <c r="MS12" t="n">
-        <v>1916.91378</v>
+        <v>1912.242459</v>
       </c>
       <c r="MT12" t="n">
-        <v>2104.644552</v>
+        <v>2075.866935</v>
       </c>
       <c r="MU12" t="n">
-        <v>1999.056385</v>
+        <v>1992.238827</v>
       </c>
       <c r="MV12" t="n">
-        <v>2223.628888</v>
+        <v>2194.463434</v>
       </c>
       <c r="MW12" t="n">
-        <v>1958.306187</v>
+        <v>1953.439025</v>
       </c>
       <c r="MX12" t="n">
-        <v>2264.413435</v>
+        <v>2288.796436</v>
       </c>
       <c r="MY12" t="n">
-        <v>2234.412245</v>
+        <v>2251.889212</v>
       </c>
       <c r="MZ12" t="n">
-        <v>1657.271949</v>
+        <v>1663.628924</v>
       </c>
       <c r="NA12" t="n">
-        <v>620.820294</v>
+        <v>623.382851</v>
       </c>
       <c r="NB12" t="n">
-        <v>870.914667</v>
+        <v>873.193474</v>
       </c>
       <c r="NC12" t="n">
-        <v>1246.006007</v>
+        <v>1248.657673</v>
       </c>
       <c r="ND12" t="n">
-        <v>1231.657013</v>
+        <v>1231.682877</v>
       </c>
       <c r="NE12" t="n">
-        <v>1291.45184</v>
+        <v>1286.995988</v>
       </c>
       <c r="NF12" t="n">
-        <v>1148.568734</v>
+        <v>1128.106348</v>
       </c>
       <c r="NG12" t="n">
-        <v>1254.182853</v>
+        <v>1247.008589</v>
       </c>
       <c r="NH12" t="n">
-        <v>917.626178</v>
+        <v>900.018875</v>
       </c>
       <c r="NI12" t="n">
-        <v>1392.116062</v>
+        <v>1385.337233</v>
       </c>
       <c r="NJ12" t="n">
-        <v>1757.504214</v>
+        <v>1789.593442</v>
       </c>
       <c r="NK12" t="n">
-        <v>1720.470991</v>
+        <v>1739.998045</v>
       </c>
       <c r="NL12" t="n">
-        <v>1538.236505</v>
+        <v>1548.897174</v>
       </c>
       <c r="NM12" t="n">
-        <v>1682.742735</v>
+        <v>1692.996352</v>
       </c>
       <c r="NN12" t="n">
-        <v>1731.220908</v>
+        <v>1739.361642</v>
       </c>
       <c r="NO12" t="n">
-        <v>1746.669401</v>
+        <v>1752.721347</v>
       </c>
       <c r="NP12" t="n">
-        <v>1857.660937</v>
+        <v>1856.705551</v>
       </c>
       <c r="NQ12" t="n">
-        <v>2110.548641</v>
+        <v>2090.105191</v>
       </c>
       <c r="NR12" t="n">
-        <v>2153.901718</v>
+        <v>2135.446546</v>
       </c>
       <c r="NS12" t="n">
-        <v>2472.749017</v>
+        <v>2501.906582</v>
+      </c>
+      <c r="NT12" t="n">
+        <v>2691.47739</v>
+      </c>
+      <c r="NU12" t="n">
+        <v>2345.273621</v>
+      </c>
+      <c r="NV12" t="n">
+        <v>2151.300074</v>
       </c>
     </row>
     <row r="13">
@@ -13636,322 +13750,331 @@
         <v>6764.353569</v>
       </c>
       <c r="JR13" t="n">
-        <v>6756.232448</v>
+        <v>6759.222003</v>
       </c>
       <c r="JS13" t="n">
-        <v>6639.039431</v>
+        <v>6642.104387</v>
       </c>
       <c r="JT13" t="n">
-        <v>6667.828703</v>
+        <v>6672.501795</v>
       </c>
       <c r="JU13" t="n">
-        <v>7038.320837</v>
+        <v>7036.472295</v>
       </c>
       <c r="JV13" t="n">
-        <v>6741.849716</v>
+        <v>6747.673758</v>
       </c>
       <c r="JW13" t="n">
-        <v>6774.466896</v>
+        <v>6774.870336</v>
       </c>
       <c r="JX13" t="n">
-        <v>6759.941718</v>
+        <v>6759.218355</v>
       </c>
       <c r="JY13" t="n">
-        <v>6722.034043</v>
+        <v>6726.909706</v>
       </c>
       <c r="JZ13" t="n">
-        <v>6736.948439</v>
+        <v>6735.126694</v>
       </c>
       <c r="KA13" t="n">
-        <v>6861.857091</v>
+        <v>6863.596252</v>
       </c>
       <c r="KB13" t="n">
-        <v>6705.187061</v>
+        <v>6707.654926</v>
       </c>
       <c r="KC13" t="n">
-        <v>6748.945644</v>
+        <v>6731.812816</v>
       </c>
       <c r="KD13" t="n">
-        <v>6711.521034</v>
+        <v>6714.946551</v>
       </c>
       <c r="KE13" t="n">
-        <v>6747.458345</v>
+        <v>6749.844704</v>
       </c>
       <c r="KF13" t="n">
-        <v>6805.3596</v>
+        <v>6803.198512</v>
       </c>
       <c r="KG13" t="n">
-        <v>6841.929116</v>
+        <v>6842.828646</v>
       </c>
       <c r="KH13" t="n">
-        <v>6782.311226</v>
+        <v>6784.830714</v>
       </c>
       <c r="KI13" t="n">
-        <v>6790.861557</v>
+        <v>6790.436813</v>
       </c>
       <c r="KJ13" t="n">
-        <v>6805.058988</v>
+        <v>6807.149959</v>
       </c>
       <c r="KK13" t="n">
-        <v>6773.200768</v>
+        <v>6777.186369</v>
       </c>
       <c r="KL13" t="n">
-        <v>6950.266895</v>
+        <v>6947.459096</v>
       </c>
       <c r="KM13" t="n">
-        <v>6894.575285</v>
+        <v>6900.238558</v>
       </c>
       <c r="KN13" t="n">
-        <v>6832.680163</v>
+        <v>6832.542914</v>
       </c>
       <c r="KO13" t="n">
-        <v>7009.736473</v>
+        <v>7002.219415</v>
       </c>
       <c r="KP13" t="n">
-        <v>7007.496369</v>
+        <v>7006.34675</v>
       </c>
       <c r="KQ13" t="n">
-        <v>6996.396477</v>
+        <v>6997.051267</v>
       </c>
       <c r="KR13" t="n">
-        <v>7152.285281</v>
+        <v>7148.142045</v>
       </c>
       <c r="KS13" t="n">
-        <v>7182.142932</v>
+        <v>7183.479345</v>
       </c>
       <c r="KT13" t="n">
-        <v>7253.271218</v>
+        <v>7248.622809</v>
       </c>
       <c r="KU13" t="n">
-        <v>7257.116666</v>
+        <v>7253.270634</v>
       </c>
       <c r="KV13" t="n">
-        <v>7249.695489</v>
+        <v>7252.99158</v>
       </c>
       <c r="KW13" t="n">
-        <v>7103.013629</v>
+        <v>7111.302609</v>
       </c>
       <c r="KX13" t="n">
-        <v>7121.872291</v>
+        <v>7122.506471</v>
       </c>
       <c r="KY13" t="n">
-        <v>7074.471333</v>
+        <v>7079.747376</v>
       </c>
       <c r="KZ13" t="n">
-        <v>7133.195566</v>
+        <v>7130.595909</v>
       </c>
       <c r="LA13" t="n">
-        <v>7214.656626</v>
+        <v>7213.327827</v>
       </c>
       <c r="LB13" t="n">
-        <v>7215.869481</v>
+        <v>7203.250753</v>
       </c>
       <c r="LC13" t="n">
-        <v>7275.444267</v>
+        <v>7271.702994</v>
       </c>
       <c r="LD13" t="n">
-        <v>6941.106649</v>
+        <v>6941.735698</v>
       </c>
       <c r="LE13" t="n">
-        <v>6993.577796</v>
+        <v>6994.439943</v>
       </c>
       <c r="LF13" t="n">
-        <v>6936.205715</v>
+        <v>6932.3425</v>
       </c>
       <c r="LG13" t="n">
-        <v>6948.127405</v>
+        <v>6948.569709</v>
       </c>
       <c r="LH13" t="n">
-        <v>7042.543561</v>
+        <v>7041.633188</v>
       </c>
       <c r="LI13" t="n">
-        <v>7109.457214</v>
+        <v>7125.915661</v>
       </c>
       <c r="LJ13" t="n">
-        <v>7152.518229</v>
+        <v>7159.113111</v>
       </c>
       <c r="LK13" t="n">
-        <v>7021.386845</v>
+        <v>7021.555698</v>
       </c>
       <c r="LL13" t="n">
-        <v>7159.427686</v>
+        <v>7158.833588</v>
       </c>
       <c r="LM13" t="n">
-        <v>7256.240988</v>
+        <v>7265.248319</v>
       </c>
       <c r="LN13" t="n">
-        <v>7062.452223</v>
+        <v>7040.642447</v>
       </c>
       <c r="LO13" t="n">
-        <v>7281.171667</v>
+        <v>7277.655539</v>
       </c>
       <c r="LP13" t="n">
-        <v>7499.209327</v>
+        <v>7500.933663</v>
       </c>
       <c r="LQ13" t="n">
-        <v>7119.09729</v>
+        <v>7117.477987</v>
       </c>
       <c r="LR13" t="n">
-        <v>7208.346241</v>
+        <v>7207.67618</v>
       </c>
       <c r="LS13" t="n">
-        <v>7305.970525</v>
+        <v>7310.053058</v>
       </c>
       <c r="LT13" t="n">
-        <v>7441.606137</v>
+        <v>7431.808285</v>
       </c>
       <c r="LU13" t="n">
-        <v>7492.317661</v>
+        <v>7512.573924</v>
       </c>
       <c r="LV13" t="n">
-        <v>7456.192513</v>
+        <v>7466.565307</v>
       </c>
       <c r="LW13" t="n">
-        <v>7475.397586</v>
+        <v>7482.144849</v>
       </c>
       <c r="LX13" t="n">
-        <v>7628.640504</v>
+        <v>7632.711686</v>
       </c>
       <c r="LY13" t="n">
-        <v>7553.370094</v>
+        <v>7567.610941</v>
       </c>
       <c r="LZ13" t="n">
-        <v>7553.287177</v>
+        <v>7522.801952</v>
       </c>
       <c r="MA13" t="n">
-        <v>7317.075084</v>
+        <v>7308.432767</v>
       </c>
       <c r="MB13" t="n">
-        <v>7408.722585</v>
+        <v>7406.032356</v>
       </c>
       <c r="MC13" t="n">
-        <v>7601.241886</v>
+        <v>7596.176139</v>
       </c>
       <c r="MD13" t="n">
-        <v>7498.445956</v>
+        <v>7497.016356</v>
       </c>
       <c r="ME13" t="n">
-        <v>7609.991162</v>
+        <v>7608.574758</v>
       </c>
       <c r="MF13" t="n">
-        <v>7551.753916</v>
+        <v>7551.703434</v>
       </c>
       <c r="MG13" t="n">
-        <v>7642.710677</v>
+        <v>7664.399277</v>
       </c>
       <c r="MH13" t="n">
-        <v>7430.936544</v>
+        <v>7443.532773</v>
       </c>
       <c r="MI13" t="n">
-        <v>7628.960547</v>
+        <v>7653.42672</v>
       </c>
       <c r="MJ13" t="n">
-        <v>7480.896994</v>
+        <v>7485.612569</v>
       </c>
       <c r="MK13" t="n">
-        <v>7660.240441</v>
+        <v>7675.430664</v>
       </c>
       <c r="ML13" t="n">
-        <v>7756.574374</v>
+        <v>7705.190281</v>
       </c>
       <c r="MM13" t="n">
-        <v>7770.282249</v>
+        <v>7753.143739</v>
       </c>
       <c r="MN13" t="n">
-        <v>7587.64068</v>
+        <v>7579.663594</v>
       </c>
       <c r="MO13" t="n">
-        <v>7844.521022</v>
+        <v>7834.570478</v>
       </c>
       <c r="MP13" t="n">
-        <v>7939.286017</v>
+        <v>7938.501516</v>
       </c>
       <c r="MQ13" t="n">
-        <v>7663.045927</v>
+        <v>7661.323182</v>
       </c>
       <c r="MR13" t="n">
-        <v>7444.72678</v>
+        <v>7450.21196</v>
       </c>
       <c r="MS13" t="n">
-        <v>7849.53753</v>
+        <v>7871.472108</v>
       </c>
       <c r="MT13" t="n">
-        <v>7758.841014</v>
+        <v>7779.998041</v>
       </c>
       <c r="MU13" t="n">
-        <v>7644.633706</v>
+        <v>7684.98568</v>
       </c>
       <c r="MV13" t="n">
-        <v>7739.948141</v>
+        <v>7729.772346</v>
       </c>
       <c r="MW13" t="n">
-        <v>7601.035428</v>
+        <v>7635.408524</v>
       </c>
       <c r="MX13" t="n">
-        <v>7315.686727</v>
+        <v>7255.757639</v>
       </c>
       <c r="MY13" t="n">
-        <v>7712.293604</v>
+        <v>7689.38641</v>
       </c>
       <c r="MZ13" t="n">
-        <v>6248.159721</v>
+        <v>6236.042712</v>
       </c>
       <c r="NA13" t="n">
-        <v>4352.481283</v>
+        <v>4346.711682</v>
       </c>
       <c r="NB13" t="n">
-        <v>5686.012818</v>
+        <v>5682.048749</v>
       </c>
       <c r="NC13" t="n">
-        <v>6598.140093</v>
+        <v>6594.38898</v>
       </c>
       <c r="ND13" t="n">
-        <v>6984.156266</v>
+        <v>7001.786567</v>
       </c>
       <c r="NE13" t="n">
-        <v>6952.279127</v>
+        <v>6956.244484</v>
       </c>
       <c r="NF13" t="n">
-        <v>7053.349366</v>
+        <v>7079.846604</v>
       </c>
       <c r="NG13" t="n">
-        <v>7296.257073</v>
+        <v>7343.462234</v>
       </c>
       <c r="NH13" t="n">
-        <v>7307.275868</v>
+        <v>7284.711978</v>
       </c>
       <c r="NI13" t="n">
-        <v>7151.862557</v>
+        <v>7183.925383</v>
       </c>
       <c r="NJ13" t="n">
-        <v>7545.553715</v>
+        <v>7453.348145</v>
       </c>
       <c r="NK13" t="n">
-        <v>7329.547381</v>
+        <v>7304.265509</v>
       </c>
       <c r="NL13" t="n">
-        <v>7511.769049</v>
+        <v>7506.256355</v>
       </c>
       <c r="NM13" t="n">
-        <v>7429.557258</v>
+        <v>7423.701701</v>
       </c>
       <c r="NN13" t="n">
-        <v>7554.107758</v>
+        <v>7541.301366</v>
       </c>
       <c r="NO13" t="n">
-        <v>7592.04728</v>
+        <v>7591.039733</v>
       </c>
       <c r="NP13" t="n">
-        <v>7689.371892</v>
+        <v>7657.675347</v>
       </c>
       <c r="NQ13" t="n">
-        <v>7827.749321</v>
+        <v>7853.554961</v>
       </c>
       <c r="NR13" t="n">
-        <v>7728.679305</v>
+        <v>7782.219193</v>
       </c>
       <c r="NS13" t="n">
-        <v>7721.725726</v>
+        <v>7773.337094</v>
+      </c>
+      <c r="NT13" t="n">
+        <v>8041.721511</v>
+      </c>
+      <c r="NU13" t="n">
+        <v>7933.841661</v>
+      </c>
+      <c r="NV13" t="n">
+        <v>8379.963100999999</v>
       </c>
     </row>
     <row r="14">
@@ -14549,322 +14672,331 @@
         <v>8466.972970000001</v>
       </c>
       <c r="JR14" t="n">
-        <v>8516.503493</v>
+        <v>8514.290747999999</v>
       </c>
       <c r="JS14" t="n">
-        <v>8264.674558000001</v>
+        <v>8264.458408</v>
       </c>
       <c r="JT14" t="n">
-        <v>8260.839523000001</v>
+        <v>8260.802841000001</v>
       </c>
       <c r="JU14" t="n">
-        <v>8648.723635</v>
+        <v>8649.719116</v>
       </c>
       <c r="JV14" t="n">
-        <v>8474.991246</v>
+        <v>8476.528270000001</v>
       </c>
       <c r="JW14" t="n">
-        <v>8400.595235000001</v>
+        <v>8404.946045000001</v>
       </c>
       <c r="JX14" t="n">
-        <v>8273.654893000001</v>
+        <v>8272.103563000001</v>
       </c>
       <c r="JY14" t="n">
-        <v>8446.638262</v>
+        <v>8446.134195000001</v>
       </c>
       <c r="JZ14" t="n">
-        <v>8565.876335000001</v>
+        <v>8563.865986000001</v>
       </c>
       <c r="KA14" t="n">
-        <v>8459.276442</v>
+        <v>8459.447453999999</v>
       </c>
       <c r="KB14" t="n">
-        <v>8584.254649</v>
+        <v>8587.800722</v>
       </c>
       <c r="KC14" t="n">
-        <v>8407.860643</v>
+        <v>8414.631081</v>
       </c>
       <c r="KD14" t="n">
-        <v>8337.124781</v>
+        <v>8334.458588</v>
       </c>
       <c r="KE14" t="n">
-        <v>8428.182767</v>
+        <v>8428.167576</v>
       </c>
       <c r="KF14" t="n">
-        <v>8475.534242</v>
+        <v>8476.346922000001</v>
       </c>
       <c r="KG14" t="n">
-        <v>8393.757019999999</v>
+        <v>8393.306006999999</v>
       </c>
       <c r="KH14" t="n">
-        <v>8257.296828</v>
+        <v>8253.866485</v>
       </c>
       <c r="KI14" t="n">
-        <v>8562.328673</v>
+        <v>8565.950085</v>
       </c>
       <c r="KJ14" t="n">
-        <v>8437.087567</v>
+        <v>8440.721708999999</v>
       </c>
       <c r="KK14" t="n">
-        <v>8511.325201</v>
+        <v>8516.373479</v>
       </c>
       <c r="KL14" t="n">
-        <v>8666.722473</v>
+        <v>8666.513466</v>
       </c>
       <c r="KM14" t="n">
-        <v>8548.118121</v>
+        <v>8543.291155999999</v>
       </c>
       <c r="KN14" t="n">
-        <v>8555.406508</v>
+        <v>8555.770745</v>
       </c>
       <c r="KO14" t="n">
-        <v>8654.025861</v>
+        <v>8651.905226999999</v>
       </c>
       <c r="KP14" t="n">
-        <v>8583.444199</v>
+        <v>8582.136138</v>
       </c>
       <c r="KQ14" t="n">
-        <v>8786.424515000001</v>
+        <v>8787.226693000001</v>
       </c>
       <c r="KR14" t="n">
-        <v>9114.842071999999</v>
+        <v>9115.445103</v>
       </c>
       <c r="KS14" t="n">
-        <v>8971.412528000001</v>
+        <v>8968.499507</v>
       </c>
       <c r="KT14" t="n">
-        <v>9002.188843</v>
+        <v>9010.562528</v>
       </c>
       <c r="KU14" t="n">
-        <v>8997.933322999999</v>
+        <v>8998.464120000001</v>
       </c>
       <c r="KV14" t="n">
-        <v>8984.112046</v>
+        <v>8977.572737</v>
       </c>
       <c r="KW14" t="n">
-        <v>8930.752659</v>
+        <v>8932.892022</v>
       </c>
       <c r="KX14" t="n">
-        <v>9094.106011</v>
+        <v>9095.128565999999</v>
       </c>
       <c r="KY14" t="n">
-        <v>9446.782786</v>
+        <v>9448.404060999999</v>
       </c>
       <c r="KZ14" t="n">
-        <v>9137.365702999999</v>
+        <v>9139.640380999999</v>
       </c>
       <c r="LA14" t="n">
-        <v>9276.644033</v>
+        <v>9274.030473000001</v>
       </c>
       <c r="LB14" t="n">
-        <v>9167.655156000001</v>
+        <v>9172.377911</v>
       </c>
       <c r="LC14" t="n">
-        <v>9320.66959</v>
+        <v>9319.710863</v>
       </c>
       <c r="LD14" t="n">
-        <v>9118.660397</v>
+        <v>9117.336425</v>
       </c>
       <c r="LE14" t="n">
-        <v>9159.57805</v>
+        <v>9155.549809</v>
       </c>
       <c r="LF14" t="n">
-        <v>8923.233672</v>
+        <v>8923.013655999999</v>
       </c>
       <c r="LG14" t="n">
-        <v>9004.134897</v>
+        <v>8999.615061</v>
       </c>
       <c r="LH14" t="n">
-        <v>9103.367496999999</v>
+        <v>9107.905171</v>
       </c>
       <c r="LI14" t="n">
-        <v>9102.843188000001</v>
+        <v>9104.697088999999</v>
       </c>
       <c r="LJ14" t="n">
-        <v>9129.591904999999</v>
+        <v>9131.164575999999</v>
       </c>
       <c r="LK14" t="n">
-        <v>9070.538755</v>
+        <v>9077.294292</v>
       </c>
       <c r="LL14" t="n">
-        <v>9201.815989000001</v>
+        <v>9201.604992</v>
       </c>
       <c r="LM14" t="n">
-        <v>9369.561942</v>
+        <v>9355.011397</v>
       </c>
       <c r="LN14" t="n">
-        <v>9466.610871999999</v>
+        <v>9469.20253</v>
       </c>
       <c r="LO14" t="n">
-        <v>9298.027109000001</v>
+        <v>9299.645973000001</v>
       </c>
       <c r="LP14" t="n">
-        <v>9339.654173999999</v>
+        <v>9327.78919</v>
       </c>
       <c r="LQ14" t="n">
-        <v>9377.986799</v>
+        <v>9382.270264999999</v>
       </c>
       <c r="LR14" t="n">
-        <v>9615.783294000001</v>
+        <v>9615.082046</v>
       </c>
       <c r="LS14" t="n">
-        <v>9790.338487999999</v>
+        <v>9789.22386</v>
       </c>
       <c r="LT14" t="n">
-        <v>10040.130678</v>
+        <v>10051.322596</v>
       </c>
       <c r="LU14" t="n">
-        <v>9799.640809</v>
+        <v>9800.691418</v>
       </c>
       <c r="LV14" t="n">
-        <v>9882.911516</v>
+        <v>9891.118773</v>
       </c>
       <c r="LW14" t="n">
-        <v>9745.112261</v>
+        <v>9754.055517000001</v>
       </c>
       <c r="LX14" t="n">
-        <v>9874.566808</v>
+        <v>9870.25769</v>
       </c>
       <c r="LY14" t="n">
-        <v>10114.361662</v>
+        <v>10096.180747</v>
       </c>
       <c r="LZ14" t="n">
-        <v>10039.116684</v>
+        <v>10038.310165</v>
       </c>
       <c r="MA14" t="n">
-        <v>9780.126856999999</v>
+        <v>9780.868033999999</v>
       </c>
       <c r="MB14" t="n">
-        <v>9832.067782</v>
+        <v>9823.270511999999</v>
       </c>
       <c r="MC14" t="n">
-        <v>9986.003896</v>
+        <v>9985.678508000001</v>
       </c>
       <c r="MD14" t="n">
-        <v>10127.918498</v>
+        <v>10124.910203</v>
       </c>
       <c r="ME14" t="n">
-        <v>10129.498277</v>
+        <v>10127.021197</v>
       </c>
       <c r="MF14" t="n">
-        <v>10077.015353</v>
+        <v>10085.744608</v>
       </c>
       <c r="MG14" t="n">
-        <v>10221.142772</v>
+        <v>10228.783178</v>
       </c>
       <c r="MH14" t="n">
-        <v>9971.403152000001</v>
+        <v>9993.379714000001</v>
       </c>
       <c r="MI14" t="n">
-        <v>10419.802879</v>
+        <v>10425.229753</v>
       </c>
       <c r="MJ14" t="n">
-        <v>10257.079652</v>
+        <v>10246.206368</v>
       </c>
       <c r="MK14" t="n">
-        <v>10393.646555</v>
+        <v>10360.718616</v>
       </c>
       <c r="ML14" t="n">
-        <v>10267.289673</v>
+        <v>10259.693458</v>
       </c>
       <c r="MM14" t="n">
-        <v>10565.375497</v>
+        <v>10561.368622</v>
       </c>
       <c r="MN14" t="n">
-        <v>10655.217028</v>
+        <v>10647.862558</v>
       </c>
       <c r="MO14" t="n">
-        <v>10404.890556</v>
+        <v>10403.496893</v>
       </c>
       <c r="MP14" t="n">
-        <v>10436.206089</v>
+        <v>10436.483651</v>
       </c>
       <c r="MQ14" t="n">
-        <v>10497.416383</v>
+        <v>10506.284762</v>
       </c>
       <c r="MR14" t="n">
-        <v>10231.720767</v>
+        <v>10237.98386</v>
       </c>
       <c r="MS14" t="n">
-        <v>10356.625086</v>
+        <v>10373.5717</v>
       </c>
       <c r="MT14" t="n">
-        <v>10693.793288</v>
+        <v>10719.482908</v>
       </c>
       <c r="MU14" t="n">
-        <v>10579.027483</v>
+        <v>10586.50149</v>
       </c>
       <c r="MV14" t="n">
-        <v>10511.974926</v>
+        <v>10510.912946</v>
       </c>
       <c r="MW14" t="n">
-        <v>10048.186198</v>
+        <v>10008.842233</v>
       </c>
       <c r="MX14" t="n">
-        <v>10146.892003</v>
+        <v>10134.452008</v>
       </c>
       <c r="MY14" t="n">
-        <v>10323.818492</v>
+        <v>10314.136974</v>
       </c>
       <c r="MZ14" t="n">
-        <v>8466.676912999999</v>
+        <v>8467.186793999999</v>
       </c>
       <c r="NA14" t="n">
-        <v>6552.383193</v>
+        <v>6548.626648</v>
       </c>
       <c r="NB14" t="n">
-        <v>8008.079351</v>
+        <v>8016.218751</v>
       </c>
       <c r="NC14" t="n">
-        <v>9389.290713</v>
+        <v>9399.298217</v>
       </c>
       <c r="ND14" t="n">
-        <v>9988.966596</v>
+        <v>9990.741296</v>
       </c>
       <c r="NE14" t="n">
-        <v>9848.731834</v>
+        <v>9871.196451</v>
       </c>
       <c r="NF14" t="n">
-        <v>9858.620671999999</v>
+        <v>9885.06062</v>
       </c>
       <c r="NG14" t="n">
-        <v>10057.954652</v>
+        <v>10063.763975</v>
       </c>
       <c r="NH14" t="n">
-        <v>10388.282577</v>
+        <v>10390.082071</v>
       </c>
       <c r="NI14" t="n">
-        <v>10400.768691</v>
+        <v>10342.338374</v>
       </c>
       <c r="NJ14" t="n">
-        <v>10572.322112</v>
+        <v>10568.332401</v>
       </c>
       <c r="NK14" t="n">
-        <v>10783.283301</v>
+        <v>10765.102925</v>
       </c>
       <c r="NL14" t="n">
-        <v>10690.907457</v>
+        <v>10678.696554</v>
       </c>
       <c r="NM14" t="n">
-        <v>10850.763826</v>
+        <v>10843.188183</v>
       </c>
       <c r="NN14" t="n">
-        <v>10737.978719</v>
+        <v>10748.256847</v>
       </c>
       <c r="NO14" t="n">
-        <v>10692.693523</v>
+        <v>10698.592855</v>
       </c>
       <c r="NP14" t="n">
-        <v>10835.758018</v>
+        <v>10875.820752</v>
       </c>
       <c r="NQ14" t="n">
-        <v>11092.22302</v>
+        <v>11163.607675</v>
       </c>
       <c r="NR14" t="n">
-        <v>10868.237128</v>
+        <v>10891.545017</v>
       </c>
       <c r="NS14" t="n">
-        <v>11120.613464</v>
+        <v>11140.650987</v>
+      </c>
+      <c r="NT14" t="n">
+        <v>11261.933392</v>
+      </c>
+      <c r="NU14" t="n">
+        <v>11837.03565</v>
+      </c>
+      <c r="NV14" t="n">
+        <v>11578.30296</v>
       </c>
     </row>
     <row r="15">
@@ -15462,322 +15594,331 @@
         <v>7603.140422</v>
       </c>
       <c r="JR15" t="n">
-        <v>7284.839022</v>
+        <v>7282.212445</v>
       </c>
       <c r="JS15" t="n">
-        <v>6931.969926</v>
+        <v>6931.537632</v>
       </c>
       <c r="JT15" t="n">
-        <v>8320.856644</v>
+        <v>8321.436874999999</v>
       </c>
       <c r="JU15" t="n">
-        <v>8935.676046</v>
+        <v>8934.557891</v>
       </c>
       <c r="JV15" t="n">
-        <v>7478.571982</v>
+        <v>7480.960356</v>
       </c>
       <c r="JW15" t="n">
-        <v>7444.087582</v>
+        <v>7447.213285</v>
       </c>
       <c r="JX15" t="n">
-        <v>7797.253288</v>
+        <v>7796.28916</v>
       </c>
       <c r="JY15" t="n">
-        <v>7682.328375</v>
+        <v>7683.533504</v>
       </c>
       <c r="JZ15" t="n">
-        <v>7582.191628</v>
+        <v>7584.490875</v>
       </c>
       <c r="KA15" t="n">
-        <v>7988.559904</v>
+        <v>7990.768692</v>
       </c>
       <c r="KB15" t="n">
-        <v>7480.895544</v>
+        <v>7487.492188</v>
       </c>
       <c r="KC15" t="n">
-        <v>7760.737441</v>
+        <v>7760.195496</v>
       </c>
       <c r="KD15" t="n">
-        <v>7952.188311</v>
+        <v>7949.169846</v>
       </c>
       <c r="KE15" t="n">
-        <v>7731.880488</v>
+        <v>7731.932075</v>
       </c>
       <c r="KF15" t="n">
-        <v>7525.872366</v>
+        <v>7521.674441</v>
       </c>
       <c r="KG15" t="n">
-        <v>7804.053677</v>
+        <v>7803.405212</v>
       </c>
       <c r="KH15" t="n">
-        <v>8088.784243</v>
+        <v>8084.134556</v>
       </c>
       <c r="KI15" t="n">
-        <v>7772.144194</v>
+        <v>7776.755215</v>
       </c>
       <c r="KJ15" t="n">
-        <v>7717.720698</v>
+        <v>7733.937188</v>
       </c>
       <c r="KK15" t="n">
-        <v>6984.946362</v>
+        <v>6992.783081</v>
       </c>
       <c r="KL15" t="n">
-        <v>7776.132241</v>
+        <v>7779.859423</v>
       </c>
       <c r="KM15" t="n">
-        <v>7947.851606</v>
+        <v>7949.023673</v>
       </c>
       <c r="KN15" t="n">
-        <v>8212.766555</v>
+        <v>8215.868825</v>
       </c>
       <c r="KO15" t="n">
-        <v>8161.336954</v>
+        <v>8141.162851</v>
       </c>
       <c r="KP15" t="n">
-        <v>8518.708349</v>
+        <v>8519.181527999999</v>
       </c>
       <c r="KQ15" t="n">
-        <v>8952.156440999999</v>
+        <v>8953.011780000001</v>
       </c>
       <c r="KR15" t="n">
-        <v>7802.041657</v>
+        <v>7791.961552</v>
       </c>
       <c r="KS15" t="n">
-        <v>8625.325944</v>
+        <v>8623.816433</v>
       </c>
       <c r="KT15" t="n">
-        <v>8793.276097</v>
+        <v>8803.847368999999</v>
       </c>
       <c r="KU15" t="n">
-        <v>9345.821361</v>
+        <v>9342.122413999999</v>
       </c>
       <c r="KV15" t="n">
-        <v>8208.480632000001</v>
+        <v>8225.167821999999</v>
       </c>
       <c r="KW15" t="n">
-        <v>8402.603325</v>
+        <v>8408.035427999999</v>
       </c>
       <c r="KX15" t="n">
-        <v>8425.694971999999</v>
+        <v>8434.668824</v>
       </c>
       <c r="KY15" t="n">
-        <v>9077.158461999999</v>
+        <v>9086.749148999999</v>
       </c>
       <c r="KZ15" t="n">
-        <v>8585.0298</v>
+        <v>8584.449615</v>
       </c>
       <c r="LA15" t="n">
-        <v>8841.757503999999</v>
+        <v>8805.806420999999</v>
       </c>
       <c r="LB15" t="n">
-        <v>8539.449499</v>
+        <v>8545.278754999999</v>
       </c>
       <c r="LC15" t="n">
-        <v>8216.151908</v>
+        <v>8215.574071999999</v>
       </c>
       <c r="LD15" t="n">
-        <v>8563.666099</v>
+        <v>8556.400994</v>
       </c>
       <c r="LE15" t="n">
-        <v>8612.599313000001</v>
+        <v>8607.675225999999</v>
       </c>
       <c r="LF15" t="n">
-        <v>9362.831219</v>
+        <v>9356.237486</v>
       </c>
       <c r="LG15" t="n">
-        <v>8669.363917999999</v>
+        <v>8668.233973</v>
       </c>
       <c r="LH15" t="n">
-        <v>8449.650078000001</v>
+        <v>8483.504134000001</v>
       </c>
       <c r="LI15" t="n">
-        <v>8676.883051000001</v>
+        <v>8684.462313</v>
       </c>
       <c r="LJ15" t="n">
-        <v>8537.717768</v>
+        <v>8557.046418</v>
       </c>
       <c r="LK15" t="n">
-        <v>8042.333809</v>
+        <v>8054.650293</v>
       </c>
       <c r="LL15" t="n">
-        <v>8790.638293</v>
+        <v>8793.690909999999</v>
       </c>
       <c r="LM15" t="n">
-        <v>11029.109411</v>
+        <v>10945.97752</v>
       </c>
       <c r="LN15" t="n">
-        <v>7982.113596</v>
+        <v>7976.217253</v>
       </c>
       <c r="LO15" t="n">
-        <v>8370.74337</v>
+        <v>8380.444207</v>
       </c>
       <c r="LP15" t="n">
-        <v>8859.193798</v>
+        <v>8840.990367</v>
       </c>
       <c r="LQ15" t="n">
-        <v>8335.68525</v>
+        <v>8344.137416</v>
       </c>
       <c r="LR15" t="n">
-        <v>10303.219956</v>
+        <v>10298.650409</v>
       </c>
       <c r="LS15" t="n">
-        <v>8767.009239999999</v>
+        <v>8773.955088000001</v>
       </c>
       <c r="LT15" t="n">
-        <v>8728.188636999999</v>
+        <v>8772.108344</v>
       </c>
       <c r="LU15" t="n">
-        <v>8712.086740999999</v>
+        <v>8725.21009</v>
       </c>
       <c r="LV15" t="n">
-        <v>9505.111368</v>
+        <v>9541.079216</v>
       </c>
       <c r="LW15" t="n">
-        <v>8700.831036</v>
+        <v>8715.946744999999</v>
       </c>
       <c r="LX15" t="n">
-        <v>8647.512132</v>
+        <v>8649.305576000001</v>
       </c>
       <c r="LY15" t="n">
-        <v>10516.824507</v>
+        <v>10412.9947</v>
       </c>
       <c r="LZ15" t="n">
-        <v>8905.619917</v>
+        <v>8898.190508</v>
       </c>
       <c r="MA15" t="n">
-        <v>9271.019303999999</v>
+        <v>9286.748740000001</v>
       </c>
       <c r="MB15" t="n">
-        <v>9617.444165000001</v>
+        <v>9606.199198</v>
       </c>
       <c r="MC15" t="n">
-        <v>9634.323872000001</v>
+        <v>9634.748536999999</v>
       </c>
       <c r="MD15" t="n">
-        <v>8500.428258</v>
+        <v>8496.797602000001</v>
       </c>
       <c r="ME15" t="n">
-        <v>9360.829411000001</v>
+        <v>9360.368936999999</v>
       </c>
       <c r="MF15" t="n">
-        <v>10254.553409</v>
+        <v>10300.723927</v>
       </c>
       <c r="MG15" t="n">
-        <v>8657.978526999999</v>
+        <v>8685.448316</v>
       </c>
       <c r="MH15" t="n">
-        <v>9177.072192</v>
+        <v>9237.87803</v>
       </c>
       <c r="MI15" t="n">
-        <v>10127.726838</v>
+        <v>10155.595669</v>
       </c>
       <c r="MJ15" t="n">
-        <v>9470.542033</v>
+        <v>9514.979528</v>
       </c>
       <c r="MK15" t="n">
-        <v>9595.966974000001</v>
+        <v>9416.27664</v>
       </c>
       <c r="ML15" t="n">
-        <v>10268.464984</v>
+        <v>10217.057173</v>
       </c>
       <c r="MM15" t="n">
-        <v>9990.780287</v>
+        <v>10005.04548</v>
       </c>
       <c r="MN15" t="n">
-        <v>10482.173538</v>
+        <v>10480.985906</v>
       </c>
       <c r="MO15" t="n">
-        <v>9528.674988999999</v>
+        <v>9533.816022999999</v>
       </c>
       <c r="MP15" t="n">
-        <v>10759.115194</v>
+        <v>10753.25731</v>
       </c>
       <c r="MQ15" t="n">
-        <v>10019.192959</v>
+        <v>10035.013196</v>
       </c>
       <c r="MR15" t="n">
-        <v>9817.245226999999</v>
+        <v>9869.254902999999</v>
       </c>
       <c r="MS15" t="n">
-        <v>9656.647422</v>
+        <v>9713.422927</v>
       </c>
       <c r="MT15" t="n">
-        <v>8560.806194999999</v>
+        <v>8625.965818999999</v>
       </c>
       <c r="MU15" t="n">
-        <v>10115.512613</v>
+        <v>10175.747328</v>
       </c>
       <c r="MV15" t="n">
-        <v>9541.946257</v>
+        <v>9652.842537</v>
       </c>
       <c r="MW15" t="n">
-        <v>9983.473059</v>
+        <v>9724.301721</v>
       </c>
       <c r="MX15" t="n">
-        <v>8845.13205</v>
+        <v>8726.387444</v>
       </c>
       <c r="MY15" t="n">
-        <v>9735.640168</v>
+        <v>9760.073452000001</v>
       </c>
       <c r="MZ15" t="n">
-        <v>6769.756311</v>
+        <v>6768.456137</v>
       </c>
       <c r="NA15" t="n">
-        <v>2009.832316</v>
+        <v>2015.345525</v>
       </c>
       <c r="NB15" t="n">
-        <v>3527.233122</v>
+        <v>3543.798936</v>
       </c>
       <c r="NC15" t="n">
-        <v>4882.802769</v>
+        <v>4902.130428</v>
       </c>
       <c r="ND15" t="n">
-        <v>6345.322993</v>
+        <v>6403.171232</v>
       </c>
       <c r="NE15" t="n">
-        <v>6253.304131</v>
+        <v>6315.623263</v>
       </c>
       <c r="NF15" t="n">
-        <v>7300.632852</v>
+        <v>7371.318312</v>
       </c>
       <c r="NG15" t="n">
-        <v>8042.407465</v>
+        <v>8122.301725</v>
       </c>
       <c r="NH15" t="n">
-        <v>7481.541019</v>
+        <v>7566.389725</v>
       </c>
       <c r="NI15" t="n">
-        <v>7675.276355</v>
+        <v>7386.099446</v>
       </c>
       <c r="NJ15" t="n">
-        <v>7332.018048</v>
+        <v>7186.865331</v>
       </c>
       <c r="NK15" t="n">
-        <v>7067.614226</v>
+        <v>7046.162201</v>
       </c>
       <c r="NL15" t="n">
-        <v>6965.308746</v>
+        <v>6951.869396</v>
       </c>
       <c r="NM15" t="n">
-        <v>7669.145479</v>
+        <v>7684.322459</v>
       </c>
       <c r="NN15" t="n">
-        <v>6623.762938</v>
+        <v>6650.863941</v>
       </c>
       <c r="NO15" t="n">
-        <v>7042.551585</v>
+        <v>7079.893093</v>
       </c>
       <c r="NP15" t="n">
-        <v>6654.432657</v>
+        <v>6728.794882</v>
       </c>
       <c r="NQ15" t="n">
-        <v>7083.510026</v>
+        <v>7153.319682</v>
       </c>
       <c r="NR15" t="n">
-        <v>6762.692335</v>
+        <v>6826.404734</v>
       </c>
       <c r="NS15" t="n">
-        <v>6842.727481</v>
+        <v>6945.499728</v>
+      </c>
+      <c r="NT15" t="n">
+        <v>6658.335991</v>
+      </c>
+      <c r="NU15" t="n">
+        <v>7229.331109</v>
+      </c>
+      <c r="NV15" t="n">
+        <v>8916.785722000001</v>
       </c>
     </row>
     <row r="16">
@@ -16375,322 +16516,331 @@
         <v>6095.801812</v>
       </c>
       <c r="JR16" t="n">
-        <v>6005.55905</v>
+        <v>6003.878222</v>
       </c>
       <c r="JS16" t="n">
-        <v>6227.44041</v>
+        <v>6229.970418</v>
       </c>
       <c r="JT16" t="n">
-        <v>6080.788965</v>
+        <v>6099.08009</v>
       </c>
       <c r="JU16" t="n">
-        <v>6529.589595</v>
+        <v>6565.056902</v>
       </c>
       <c r="JV16" t="n">
-        <v>5935.905515</v>
+        <v>5944.771977</v>
       </c>
       <c r="JW16" t="n">
-        <v>6275.651462</v>
+        <v>6305.859701</v>
       </c>
       <c r="JX16" t="n">
-        <v>6494.406144</v>
+        <v>6309.326998</v>
       </c>
       <c r="JY16" t="n">
-        <v>6247.756083</v>
+        <v>6265.416611</v>
       </c>
       <c r="JZ16" t="n">
-        <v>6115.23056</v>
+        <v>6134.490321</v>
       </c>
       <c r="KA16" t="n">
-        <v>6543.229838</v>
+        <v>6537.041795</v>
       </c>
       <c r="KB16" t="n">
-        <v>6396.077541</v>
+        <v>6419.338542</v>
       </c>
       <c r="KC16" t="n">
-        <v>6590.23047</v>
+        <v>6612.673311</v>
       </c>
       <c r="KD16" t="n">
-        <v>6317.045225</v>
+        <v>6321.192844</v>
       </c>
       <c r="KE16" t="n">
-        <v>6147.271304</v>
+        <v>6149.157623</v>
       </c>
       <c r="KF16" t="n">
-        <v>5901.978233</v>
+        <v>5919.70267</v>
       </c>
       <c r="KG16" t="n">
-        <v>5892.344298</v>
+        <v>5912.740034</v>
       </c>
       <c r="KH16" t="n">
-        <v>6347.65654</v>
+        <v>6354.246404</v>
       </c>
       <c r="KI16" t="n">
-        <v>6790.855241</v>
+        <v>6819.591518</v>
       </c>
       <c r="KJ16" t="n">
-        <v>7273.778776</v>
+        <v>7091.057263</v>
       </c>
       <c r="KK16" t="n">
-        <v>6282.84791</v>
+        <v>6313.71869</v>
       </c>
       <c r="KL16" t="n">
-        <v>6508.914599</v>
+        <v>6523.861945</v>
       </c>
       <c r="KM16" t="n">
-        <v>6559.859721</v>
+        <v>6547.530969</v>
       </c>
       <c r="KN16" t="n">
-        <v>6465.59367</v>
+        <v>6487.192362</v>
       </c>
       <c r="KO16" t="n">
-        <v>6456.944314</v>
+        <v>6454.364304</v>
       </c>
       <c r="KP16" t="n">
-        <v>6827.247433</v>
+        <v>6842.945886</v>
       </c>
       <c r="KQ16" t="n">
-        <v>6887.065953</v>
+        <v>6882.177757</v>
       </c>
       <c r="KR16" t="n">
-        <v>6578.084448</v>
+        <v>6592.594956</v>
       </c>
       <c r="KS16" t="n">
-        <v>7046.196925</v>
+        <v>7058.10575</v>
       </c>
       <c r="KT16" t="n">
-        <v>8195.966892</v>
+        <v>8254.485288</v>
       </c>
       <c r="KU16" t="n">
-        <v>7113.995175</v>
+        <v>7123.727569</v>
       </c>
       <c r="KV16" t="n">
-        <v>6945.380591</v>
+        <v>6821.121137</v>
       </c>
       <c r="KW16" t="n">
-        <v>6578.831764</v>
+        <v>6594.002932</v>
       </c>
       <c r="KX16" t="n">
-        <v>7202.876807</v>
+        <v>7214.580826</v>
       </c>
       <c r="KY16" t="n">
-        <v>7322.896131</v>
+        <v>7326.950177</v>
       </c>
       <c r="KZ16" t="n">
-        <v>7288.770693</v>
+        <v>7311.808069</v>
       </c>
       <c r="LA16" t="n">
-        <v>7603.132558</v>
+        <v>7596.985558</v>
       </c>
       <c r="LB16" t="n">
-        <v>7530.932753</v>
+        <v>7565.080209</v>
       </c>
       <c r="LC16" t="n">
-        <v>7841.080512</v>
+        <v>7822.371813</v>
       </c>
       <c r="LD16" t="n">
-        <v>7655.806451</v>
+        <v>7670.785362</v>
       </c>
       <c r="LE16" t="n">
-        <v>8051.104695</v>
+        <v>8043.538814</v>
       </c>
       <c r="LF16" t="n">
-        <v>7311.009383</v>
+        <v>7334.688052</v>
       </c>
       <c r="LG16" t="n">
-        <v>7337.86004</v>
+        <v>7336.334734</v>
       </c>
       <c r="LH16" t="n">
-        <v>7569.175943</v>
+        <v>7494.866084</v>
       </c>
       <c r="LI16" t="n">
-        <v>8099.229497</v>
+        <v>8102.391163</v>
       </c>
       <c r="LJ16" t="n">
-        <v>7575.335217</v>
+        <v>7582.549801</v>
       </c>
       <c r="LK16" t="n">
-        <v>7800.257038</v>
+        <v>7813.169421</v>
       </c>
       <c r="LL16" t="n">
-        <v>8008.382118</v>
+        <v>8021.353246</v>
       </c>
       <c r="LM16" t="n">
-        <v>8310.255793</v>
+        <v>8272.619033999999</v>
       </c>
       <c r="LN16" t="n">
-        <v>8014.522879</v>
+        <v>8034.073672</v>
       </c>
       <c r="LO16" t="n">
-        <v>7582.282113</v>
+        <v>7567.209937</v>
       </c>
       <c r="LP16" t="n">
-        <v>7978.198676</v>
+        <v>7970.981143</v>
       </c>
       <c r="LQ16" t="n">
-        <v>7853.649514</v>
+        <v>7857.493507</v>
       </c>
       <c r="LR16" t="n">
-        <v>7860.844469</v>
+        <v>7884.451487</v>
       </c>
       <c r="LS16" t="n">
-        <v>7661.51622</v>
+        <v>7662.786817</v>
       </c>
       <c r="LT16" t="n">
-        <v>8425.068796</v>
+        <v>8409.108206999999</v>
       </c>
       <c r="LU16" t="n">
-        <v>7925.794001</v>
+        <v>7925.283116</v>
       </c>
       <c r="LV16" t="n">
-        <v>8084.460815</v>
+        <v>8098.688398</v>
       </c>
       <c r="LW16" t="n">
-        <v>7877.755308</v>
+        <v>7906.815497</v>
       </c>
       <c r="LX16" t="n">
-        <v>8086.448734</v>
+        <v>8086.445268</v>
       </c>
       <c r="LY16" t="n">
-        <v>7384.625805</v>
+        <v>7351.994593</v>
       </c>
       <c r="LZ16" t="n">
-        <v>8732.905103999999</v>
+        <v>8739.409288000001</v>
       </c>
       <c r="MA16" t="n">
-        <v>7573.292757</v>
+        <v>7549.885091</v>
       </c>
       <c r="MB16" t="n">
-        <v>7972.571267</v>
+        <v>7976.118702</v>
       </c>
       <c r="MC16" t="n">
-        <v>8477.518838</v>
+        <v>8459.442193999999</v>
       </c>
       <c r="MD16" t="n">
-        <v>8361.786869</v>
+        <v>8384.360605</v>
       </c>
       <c r="ME16" t="n">
-        <v>8175.11582</v>
+        <v>8170.242722</v>
       </c>
       <c r="MF16" t="n">
-        <v>8498.421726</v>
+        <v>8514.055762</v>
       </c>
       <c r="MG16" t="n">
-        <v>7958.454442</v>
+        <v>7969.913783</v>
       </c>
       <c r="MH16" t="n">
-        <v>7760.9528</v>
+        <v>7799.048584</v>
       </c>
       <c r="MI16" t="n">
-        <v>7793.034062</v>
+        <v>7842.858568</v>
       </c>
       <c r="MJ16" t="n">
-        <v>7643.864385</v>
+        <v>7612.750275</v>
       </c>
       <c r="MK16" t="n">
-        <v>8498.929717999999</v>
+        <v>8398.111924000001</v>
       </c>
       <c r="ML16" t="n">
-        <v>8223.450962999999</v>
+        <v>8221.574487</v>
       </c>
       <c r="MM16" t="n">
-        <v>8283.012409000001</v>
+        <v>8245.728488999999</v>
       </c>
       <c r="MN16" t="n">
-        <v>8601.288917</v>
+        <v>8610.869686</v>
       </c>
       <c r="MO16" t="n">
-        <v>8348.890196</v>
+        <v>8412.476502</v>
       </c>
       <c r="MP16" t="n">
-        <v>8847.228824</v>
+        <v>8879.802403</v>
       </c>
       <c r="MQ16" t="n">
-        <v>8835.063348</v>
+        <v>8867.636367999999</v>
       </c>
       <c r="MR16" t="n">
-        <v>8924.325387000001</v>
+        <v>8960.546145</v>
       </c>
       <c r="MS16" t="n">
-        <v>9295.765477999999</v>
+        <v>9340.930276999999</v>
       </c>
       <c r="MT16" t="n">
-        <v>8518.984700000001</v>
+        <v>8567.558773999999</v>
       </c>
       <c r="MU16" t="n">
-        <v>8627.654248000001</v>
+        <v>8735.411971</v>
       </c>
       <c r="MV16" t="n">
-        <v>8516.536708</v>
+        <v>8475.377442000001</v>
       </c>
       <c r="MW16" t="n">
-        <v>8677.274394</v>
+        <v>8533.707479000001</v>
       </c>
       <c r="MX16" t="n">
-        <v>8399.739071</v>
+        <v>8378.804864</v>
       </c>
       <c r="MY16" t="n">
-        <v>8714.869902</v>
+        <v>8676.293871</v>
       </c>
       <c r="MZ16" t="n">
-        <v>5729.444412</v>
+        <v>5740.218024</v>
       </c>
       <c r="NA16" t="n">
-        <v>2254.691212</v>
+        <v>2250.286518</v>
       </c>
       <c r="NB16" t="n">
-        <v>4430.573087</v>
+        <v>4455.310589</v>
       </c>
       <c r="NC16" t="n">
-        <v>6335.990858</v>
+        <v>6350.208658</v>
       </c>
       <c r="ND16" t="n">
-        <v>7094.084983</v>
+        <v>7149.216172</v>
       </c>
       <c r="NE16" t="n">
-        <v>6981.21389</v>
+        <v>7021.630804</v>
       </c>
       <c r="NF16" t="n">
-        <v>7726.662979</v>
+        <v>7781.957868</v>
       </c>
       <c r="NG16" t="n">
-        <v>7935.116272</v>
+        <v>8071.76259</v>
       </c>
       <c r="NH16" t="n">
-        <v>7565.168948</v>
+        <v>7505.259168</v>
       </c>
       <c r="NI16" t="n">
-        <v>6969.564602</v>
+        <v>6842.874646</v>
       </c>
       <c r="NJ16" t="n">
-        <v>7157.278981</v>
+        <v>7141.99796</v>
       </c>
       <c r="NK16" t="n">
-        <v>7012.555278</v>
+        <v>6969.24075</v>
       </c>
       <c r="NL16" t="n">
-        <v>7233.100764</v>
+        <v>7214.864792</v>
       </c>
       <c r="NM16" t="n">
-        <v>7361.207985</v>
+        <v>7340.836926</v>
       </c>
       <c r="NN16" t="n">
-        <v>6860.282846</v>
+        <v>6883.097031</v>
       </c>
       <c r="NO16" t="n">
-        <v>7228.400458</v>
+        <v>7246.636636</v>
       </c>
       <c r="NP16" t="n">
-        <v>6694.59885</v>
+        <v>6833.169299</v>
       </c>
       <c r="NQ16" t="n">
-        <v>6641.25517</v>
+        <v>6738.189805</v>
       </c>
       <c r="NR16" t="n">
-        <v>6361.682595</v>
+        <v>6438.483082</v>
       </c>
       <c r="NS16" t="n">
-        <v>6758.916521</v>
+        <v>6922.478208</v>
+      </c>
+      <c r="NT16" t="n">
+        <v>7465.521765</v>
+      </c>
+      <c r="NU16" t="n">
+        <v>8013.069678</v>
+      </c>
+      <c r="NV16" t="n">
+        <v>7381.597993</v>
       </c>
     </row>
   </sheetData>
